--- a/about/analytics.xlsx
+++ b/about/analytics.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="268">
   <si>
     <t>date</t>
   </si>
@@ -1197,9 +1197,6 @@
     <t>Сила заголовка</t>
   </si>
   <si>
-    <t>Обзор инструментов подготовки текста</t>
-  </si>
-  <si>
     <t>Примеры сайтов с минималистичным дизайном</t>
   </si>
   <si>
@@ -1234,9 +1231,6 @@
   </si>
   <si>
     <t>Нужен ли товар при тестировании продукта</t>
-  </si>
-  <si>
-    <t>Лучше купите у конкурента чем обманывайте ожидания клиента</t>
   </si>
   <si>
     <t>Этапы работ</t>
@@ -1315,11 +1309,25 @@
     <t>Пятница</t>
   </si>
   <si>
+    <t>исходя из ремонтопригодности</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лучше купите у конкурента чем обманывайте ожидания клиента.
+</t>
+  </si>
+  <si>
     <t>У вас есть захватывающая история развития бренда протяженностью в сто лет, где были взлеты и падения, гениальные решения и инновации, и все это читается на одном дыхании? В лучшем случае рассказывают какая компания классная, какие современные подходы использует или пишут о своей миссии и ценностях.
 Зачем мне, как клиенту, который пришел на сайт решить проблему, читать эту «туфту», которая мягко говоря высосана из пальца. Ведь молодой и маленькой компании, арендующей офис в подвале еще нечего поведать миру о своей истории.
-Гораздо эффективнее направить ресурсы которые затратите на создание и поддержание раздела «о вас» в другое русло. Лучше создайте профили в социальных сетях (Facebook, Instagram, Twitter, Pinterest, Linkedin и т.д.), красиво их оформите и ведите на регулярной основе. Показывать будни и жизнь компании гораздо органичнее в Facebook или Instagram, и обновление контента будет динамичнее происходить.
-Исключения или необходиомсть есть всегда, нужно лишь точно понимать зачем вам такой раздел, и самое главное соотностить полученные выгоды к затраченным ресурсам.
-Если бюджет ограничен, сократите объем работы, но не качество. Остановитесь на лендинге или вовсе не делайте раздел «о вас» на старте, всегда можно вернуться к этому вопросу позже.</t>
+Гораздо эффективнее направить ресурсы которые затратите на создание и поддержание раздела «о нас» в другое русло. Лучше создайте профили в социальных сетях (Facebook, Instagram, Twitter, Pinterest, Linkedin и т.д.), красиво их оформите и ведите на регулярной основе. Показывать будни и жизнь компании гораздо органичнее в Facebook или Instagram, и обновление контента будет динамичнее происходить.
+Исключения или необходимость есть всегда, нужно лишь точно понимать зачем вам такой раздел, и самое главное соотностить полученные выгоды к затраченным ресурсам.
+Если бюджет ограничен, сократите объем работы, но не качество. Остановитесь на лендинге или вовсе не делайте раздел «о нас» на старте, всегда можно вернуться к этому вопросу позже.</t>
+  </si>
+  <si>
+    <t>Автоворонки продаж</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Обзор инструментов подготовки текста
+Сила слова убийственна. Знали это еще в Древнем Риме. Знал это и генерал Шарль Де Голль, поддерживающий свою страну силой слова находясь за многие километры от нее. Правильно подобранные слова располагают к себе. Где найти хорошего автора и писателя, задаются вопросом предприниматели у которых бизнес идет хорошо и есть средства на этих самых авторов. Начинающие бизнесмены и повальное большинство #МСБ думают где сначала взять деньги, чтобы искать авторов и зачастую сами ведут свои социальные сети, пишут посты в них, обновляют тексты и описания на своих сайтах. Но ведь не все из нас талантливые писатели или хоть что-то в этом знающие, да и когда разбираться, если нужно заниматься поставками, складом, финансами, продажами и еще много чем? Есть ряд простых правил и инструментов которые помогут ваш текст сделать стройнее и вкуснее. </t>
   </si>
 </sst>
 </file>
@@ -16922,8 +16930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16955,16 +16963,16 @@
     </row>
     <row r="3" spans="1:5" ht="390" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>213</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -16972,10 +16980,10 @@
         <v>214</v>
       </c>
       <c r="C4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -17007,96 +17015,104 @@
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>226</v>
       </c>
       <c r="C9" t="s">
         <v>227</v>
       </c>
-      <c r="D9" t="s">
-        <v>228</v>
+      <c r="D9" s="20" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C10" t="s">
-        <v>232</v>
+        <v>231</v>
+      </c>
+      <c r="D10" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" t="s">
         <v>233</v>
-      </c>
-      <c r="C11" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="315" x14ac:dyDescent="0.25">
       <c r="B12" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C12" s="21"/>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="22" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C13" t="s">
         <v>237</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>239</v>
       </c>
-      <c r="C14" t="s">
-        <v>240</v>
-      </c>
-      <c r="D14" t="s">
-        <v>241</v>
+      <c r="D14" s="20" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>243</v>
+      </c>
+      <c r="C16" t="s">
+        <v>244</v>
+      </c>
+      <c r="D16" t="s">
         <v>245</v>
-      </c>
-      <c r="C16" t="s">
-        <v>246</v>
-      </c>
-      <c r="D16" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C18" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>251</v>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -17121,12 +17137,12 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -17142,31 +17158,31 @@
         <v>225</v>
       </c>
       <c r="C34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
+        <v>229</v>
+      </c>
+      <c r="C35" t="s">
         <v>230</v>
-      </c>
-      <c r="C35" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C37" t="s">
+        <v>253</v>
+      </c>
+      <c r="D37" t="s">
         <v>255</v>
-      </c>
-      <c r="D37" t="s">
-        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -17187,13 +17203,13 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B2" s="6">
         <v>29000</v>
@@ -17201,7 +17217,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B3" s="6">
         <v>87000</v>
@@ -17214,21 +17230,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087C054FCA5F80F4F9EF4C079A0AA953F" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="77297ee86fb36985660db17124980350">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0cff0096-7bc3-4e6c-b62e-4230463993f3" xmlns:ns4="631ec5e7-17e7-426e-82ba-75703679dd22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cd490a95223f278e161b6508da34b79d" ns3:_="" ns4:_="">
     <xsd:import namespace="0cff0096-7bc3-4e6c-b62e-4230463993f3"/>
@@ -17437,32 +17438,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F631A87-9721-48A5-8A39-9AD90FDC01C1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0CD4875-B5D7-479C-B133-2226F9D0E817}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0cff0096-7bc3-4e6c-b62e-4230463993f3"/>
-    <ds:schemaRef ds:uri="631ec5e7-17e7-426e-82ba-75703679dd22"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53468B28-FEE4-468E-8EFA-CD74F79D0A86}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17479,4 +17470,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0CD4875-B5D7-479C-B133-2226F9D0E817}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="631ec5e7-17e7-426e-82ba-75703679dd22"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0cff0096-7bc3-4e6c-b62e-4230463993f3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F631A87-9721-48A5-8A39-9AD90FDC01C1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/about/analytics.xlsx
+++ b/about/analytics.xlsx
@@ -18,19 +18,20 @@
     <sheet name="ПП" sheetId="5" r:id="rId4"/>
     <sheet name="Лист1" sheetId="6" r:id="rId5"/>
     <sheet name="Лист2" sheetId="7" r:id="rId6"/>
+    <sheet name="календарь" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'zen_2021-03-23_dumpof_transacti'!$A$1:$M$261</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="290">
   <si>
     <t>date</t>
   </si>
@@ -1248,9 +1249,6 @@
     <t>домен</t>
   </si>
   <si>
-    <t>Проверить и купить одинаковое имя в разных зонах</t>
-  </si>
-  <si>
     <t>Конструкторы сайтов</t>
   </si>
   <si>
@@ -1300,12 +1298,6 @@
     <t>Фриланс биржи</t>
   </si>
   <si>
-    <t>ПГ</t>
-  </si>
-  <si>
-    <t>Дг</t>
-  </si>
-  <si>
     <t>Пятница</t>
   </si>
   <si>
@@ -1326,8 +1318,106 @@
     <t>Автоворонки продаж</t>
   </si>
   <si>
-    <t xml:space="preserve">Обзор инструментов подготовки текста
-Сила слова убийственна. Знали это еще в Древнем Риме. Знал это и генерал Шарль Де Голль, поддерживающий свою страну силой слова находясь за многие километры от нее. Правильно подобранные слова располагают к себе. Где найти хорошего автора и писателя, задаются вопросом предприниматели у которых бизнес идет хорошо и есть средства на этих самых авторов. Начинающие бизнесмены и повальное большинство #МСБ думают где сначала взять деньги, чтобы искать авторов и зачастую сами ведут свои социальные сети, пишут посты в них, обновляют тексты и описания на своих сайтах. Но ведь не все из нас талантливые писатели или хоть что-то в этом знающие, да и когда разбираться, если нужно заниматься поставками, складом, финансами, продажами и еще много чем? Есть ряд простых правил и инструментов которые помогут ваш текст сделать стройнее и вкуснее. </t>
+    <t>Кто я такой</t>
+  </si>
+  <si>
+    <t>В какой сфере я эксперт</t>
+  </si>
+  <si>
+    <t>Кокй цели я хочу добиться</t>
+  </si>
+  <si>
+    <t>Кто мои клиенты</t>
+  </si>
+  <si>
+    <t>Что они хотят от меня получить</t>
+  </si>
+  <si>
+    <t>Чем я буду оличаться от конкурентов</t>
+  </si>
+  <si>
+    <t>Веб разработчик</t>
+  </si>
+  <si>
+    <t>Создании сайтов, оптимизации затрат</t>
+  </si>
+  <si>
+    <t>Привлечь новых клиентов</t>
+  </si>
+  <si>
+    <t>МСБ</t>
+  </si>
+  <si>
+    <t>Каким они хотят меня видеть</t>
+  </si>
+  <si>
+    <t>Как вывести бизнес в онлайн, как снизить затраты и получить вменяемый продукт</t>
+  </si>
+  <si>
+    <t>Экспертом</t>
+  </si>
+  <si>
+    <t>Оптимизация затрат при разработке сайта</t>
+  </si>
+  <si>
+    <t>Вторник</t>
+  </si>
+  <si>
+    <t>Среда</t>
+  </si>
+  <si>
+    <t>Четверг</t>
+  </si>
+  <si>
+    <t>Суббота</t>
+  </si>
+  <si>
+    <t>Воскресенье</t>
+  </si>
+  <si>
+    <t>Понедельник</t>
+  </si>
+  <si>
+    <t>Домен</t>
+  </si>
+  <si>
+    <t>Глоссарий</t>
+  </si>
+  <si>
+    <t>Работа с текстом</t>
+  </si>
+  <si>
+    <t>Фирстиль</t>
+  </si>
+  <si>
+    <t>Домен это адрес сайта в сети интернет. Лично мое мнение, это важная инвестиция при выводе бизнеса в онлайн, наряду со страничками в соцсетях.
+Основная концепция в этом всем, которую не все знают, но для общего понимания о ней следует знать — домен не покупается а регистрируется. Под регистрацией следует понимать право владения и управления доменным именем в течении определенного периода.
+Несколько простых шагов при регистрации помогут снизить возможные риски (потеря прав на домен) в случае различных форс-мажорных ситуаций:
+1. Регистрируйте доменное имя только у аккредитованных регистраторов;
+2. Регистрируйте на себя, указывайте реальные данные (если переживаете за приватность, у регистраторов есть дополнительная услуга по скрытию данных владельца);
+3. Оплатите домен сразу на 3-5 лет;
+4. Сразу при оформлении настройте в ЛК регистратора автопродление и уведомление не менее чем за две недели об окончании срока аренды;
+5. Домен в подарок — удостоверьтесь что в нем указаны ваши данные, у вас есть все необходимые права доступа. По возможности сразу, не откладывая в долгий ящик передайте его в свою учетную запись у аккредитованного регистратора;
+6. При покупке домена у третьих лиц пользуйтесь услугой «передачи домена»;
+7. Укажите резервный адрес электронной почты в ЛК регистратора если есть такая возможность.
+В них нет ничего сложного, они не требуют много времени на реализацию, главное побороть лень и потратить полчаса времени на исключение возможных потерь в будущем.
+Дополнительные варианты защиты которые применяються — это регистрация пула доменных имен, созвучных с основным, с возможными вариантами ошибок и опечаток которые могут случайно допустить потенциальные клиенты, или специально использовать похожие адреса злоумышленники в фишинговых сайтах. Не скажу что это необходимая статья затрат для #МСБ, но знать о таких вещах все же нужно. 
+Еще один важный момент при выборе и регистрации доменного имени —его доступность в разных зонах.
+К примеру: локальный бизнес в Киеве принял решение вести торговлю онлайн по Украине. Регистрирует доменное имя в зонах com.ua, biz.ua, kiev.ua, основной сайт размещает на com.ua, и ставит редирект с двух остальных доменов на основной (это значит что введя в адресной строке браузера имя сайта и домен kiev.ua, вы попадете все равно на сайт размещенный по адресу com.ua). В какой то момент времени бизнес выходит на рынок, скажем одной из областей с локальным предложением. Создает лендинг с этим предложением и размещает его в доменной зоне kh.ua, но доменное имя точно такое же как и на основном сайте. Для этого сайта отдельная стратегия SEO продвижения, отдельная настройка контекстной рекламы, и весь трафик из области направлен на локальный сайт. Или же весь трафик идет на основной сайт, а с него редирект по географическому признаку.
+Вариантов работы с трафиком, техник продаж существует огромная масса, поэтому при выборе доменного желательно прорабатывать варианты развития бизнеса и если не сразу регистрировать пул доменных имен, то как минимум удостовериться что они свободны и доступны к регистрации.</t>
+  </si>
+  <si>
+    <t>Сила слова убийственна. Знали это еще в Древнем Риме. Знал это и генерал Шарль Де Голль, поддерживающий свою страну силой слова находясь за многие километры от нее. Правильно подобранные слова располагают к себе.
+Где найти хорошего автора и писателя? Этим вопросом задаются предприниматели у которых бизнес идет хорошо и есть средства на этих самых авторов. Начинающие бизнесмены, и повальное большинство #МСБ думают где сначала взять деньги, чтобы искать авторов и зачастую сами ведут свои социальные сети, пишут посты в них, обновляют тексты и описания на своих сайтах. Но ведь не все из нас талантливые писатели или хоть что-то в этом знающие, да и когда разбираться, если нужно заниматься поставками, складом, финансами, продажами и еще много чем? Есть ряд простых правил и сервисов которые помогут ваш текст сделать стройнее и вкуснее.
+Приведу то, что зашло лично мне, и пользуюсь этим постоянно:
+1. После точки или запятой всегда ставьте пробел. 
+2. Не допускайте двойных пробелов
+3. Дефис это дефис, а тире это тире, не стоит путать
+4. Используйте только кавычки елочки
+5. Грамматических ошибок быть ни в коем случае не должно
+Есть такая рассылка "Стандарты Мильчина", всего три темы на текущий момент, если мне не изменяет память. Они основаны на "Справочнике издателя и автора". В рассылке собраны и рассказаны доступным языком основные правила работы с текстом. Стоит не дорого, советую приобрести и почитать.
+Сервис "Главред" - поможет убрать из текста языковой мусор, рекламные и журналистские штампы, а тексту придать информационный стиль. Простой и понятный интерфейс, бесплатное использование.
+Второй сервис которым я пользуюсь при работе с текстом это "Орфограммка". Я использую ее для проверки орфографии, пунктуации и благозвучия текста. Сервис хоть и платный, но стоит не дорого.</t>
   </si>
 </sst>
 </file>
@@ -16930,8 +17020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16939,7 +17029,7 @@
     <col min="1" max="1" width="48" customWidth="1"/>
     <col min="2" max="2" width="52.5703125" customWidth="1"/>
     <col min="3" max="3" width="58.28515625" customWidth="1"/>
-    <col min="4" max="4" width="89.5703125" customWidth="1"/>
+    <col min="4" max="4" width="187.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -16961,29 +17051,29 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="390" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>213</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>214</v>
       </c>
       <c r="C4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -17015,7 +17105,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="330" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>226</v>
       </c>
@@ -17023,7 +17113,7 @@
         <v>227</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -17034,7 +17124,7 @@
         <v>231</v>
       </c>
       <c r="D10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -17045,13 +17135,13 @@
         <v>233</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="B12" s="21" t="s">
         <v>234</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="22" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -17070,7 +17160,7 @@
         <v>239</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -17081,38 +17171,38 @@
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="D16" t="s">
-        <v>245</v>
+      <c r="D16" s="22" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>246</v>
+      </c>
+      <c r="C18" t="s">
         <v>247</v>
-      </c>
-      <c r="C18" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -17137,12 +17227,12 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -17176,13 +17266,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
+        <v>251</v>
+      </c>
+      <c r="C37" t="s">
         <v>252</v>
       </c>
-      <c r="C37" t="s">
-        <v>253</v>
-      </c>
       <c r="D37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -17193,34 +17283,355 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B1" s="6"/>
+      <c r="A1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="B2" s="6">
-        <v>29000</v>
+      <c r="A2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="B3" s="6">
-        <v>87000</v>
+      <c r="A3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>44306</v>
+      </c>
+      <c r="B1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>44307</v>
+      </c>
+      <c r="B2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>44308</v>
+      </c>
+      <c r="B3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>44309</v>
+      </c>
+      <c r="B4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>44310</v>
+      </c>
+      <c r="B5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>44311</v>
+      </c>
+      <c r="B6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>44312</v>
+      </c>
+      <c r="B7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>44313</v>
+      </c>
+      <c r="B8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>44314</v>
+      </c>
+      <c r="B9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>44315</v>
+      </c>
+      <c r="B10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>44316</v>
+      </c>
+      <c r="B11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>44317</v>
+      </c>
+      <c r="B12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>44318</v>
+      </c>
+      <c r="B13" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>44319</v>
+      </c>
+      <c r="B14" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>44320</v>
+      </c>
+      <c r="B15" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>44321</v>
+      </c>
+      <c r="B16" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>44322</v>
+      </c>
+      <c r="B17" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>44323</v>
+      </c>
+      <c r="B18" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>44324</v>
+      </c>
+      <c r="B19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>44325</v>
+      </c>
+      <c r="B20" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>44326</v>
+      </c>
+      <c r="B21" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>44327</v>
+      </c>
+      <c r="B22" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>44328</v>
+      </c>
+      <c r="B23" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>44329</v>
+      </c>
+      <c r="B24" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>44330</v>
+      </c>
+      <c r="B25" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>44331</v>
+      </c>
+      <c r="B26" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>44332</v>
+      </c>
+      <c r="B27" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>44333</v>
+      </c>
+      <c r="B28" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>44334</v>
+      </c>
+      <c r="B29" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>44335</v>
+      </c>
+      <c r="B30" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>44336</v>
+      </c>
+      <c r="B31" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -17475,15 +17886,15 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0CD4875-B5D7-479C-B133-2226F9D0E817}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="631ec5e7-17e7-426e-82ba-75703679dd22"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="0cff0096-7bc3-4e6c-b62e-4230463993f3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/about/analytics.xlsx
+++ b/about/analytics.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e.a.tereshchenkov\OneDrive - METINVEST HOLDING, LLC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tereshchenkovevgeny/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AD482F-75F3-9F44-8EAB-1DC3DBCE7A35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="zen_2021-03-23_dumpof_transacti" sheetId="1" r:id="rId1"/>
@@ -23,15 +24,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'zen_2021-03-23_dumpof_transacti'!$A$1:$M$261</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="349">
   <si>
     <t>date</t>
   </si>
@@ -1276,9 +1277,6 @@
     <t xml:space="preserve">Наличие фирстиля сохранит вам n-е количество часов проведенных </t>
   </si>
   <si>
-    <t>Лендинг, сео, смм, айдентика, фирстиль, брендбук</t>
-  </si>
-  <si>
     <t>Брендинг. Фирменный стиль и брендбук для #МСБ</t>
   </si>
   <si>
@@ -1388,23 +1386,6 @@
   </si>
   <si>
     <t>Фирстиль</t>
-  </si>
-  <si>
-    <t>Домен это адрес сайта в сети интернет. Лично мое мнение, это важная инвестиция при выводе бизнеса в онлайн, наряду со страничками в соцсетях.
-Основная концепция в этом всем, которую не все знают, но для общего понимания о ней следует знать — домен не покупается а регистрируется. Под регистрацией следует понимать право владения и управления доменным именем в течении определенного периода.
-Несколько простых шагов при регистрации помогут снизить возможные риски (потеря прав на домен) в случае различных форс-мажорных ситуаций:
-1. Регистрируйте доменное имя только у аккредитованных регистраторов;
-2. Регистрируйте на себя, указывайте реальные данные (если переживаете за приватность, у регистраторов есть дополнительная услуга по скрытию данных владельца);
-3. Оплатите домен сразу на 3-5 лет;
-4. Сразу при оформлении настройте в ЛК регистратора автопродление и уведомление не менее чем за две недели об окончании срока аренды;
-5. Домен в подарок — удостоверьтесь что в нем указаны ваши данные, у вас есть все необходимые права доступа. По возможности сразу, не откладывая в долгий ящик передайте его в свою учетную запись у аккредитованного регистратора;
-6. При покупке домена у третьих лиц пользуйтесь услугой «передачи домена»;
-7. Укажите резервный адрес электронной почты в ЛК регистратора если есть такая возможность.
-В них нет ничего сложного, они не требуют много времени на реализацию, главное побороть лень и потратить полчаса времени на исключение возможных потерь в будущем.
-Дополнительные варианты защиты которые применяються — это регистрация пула доменных имен, созвучных с основным, с возможными вариантами ошибок и опечаток которые могут случайно допустить потенциальные клиенты, или специально использовать похожие адреса злоумышленники в фишинговых сайтах. Не скажу что это необходимая статья затрат для #МСБ, но знать о таких вещах все же нужно. 
-Еще один важный момент при выборе и регистрации доменного имени —его доступность в разных зонах.
-К примеру: локальный бизнес в Киеве принял решение вести торговлю онлайн по Украине. Регистрирует доменное имя в зонах com.ua, biz.ua, kiev.ua, основной сайт размещает на com.ua, и ставит редирект с двух остальных доменов на основной (это значит что введя в адресной строке браузера имя сайта и домен kiev.ua, вы попадете все равно на сайт размещенный по адресу com.ua). В какой то момент времени бизнес выходит на рынок, скажем одной из областей с локальным предложением. Создает лендинг с этим предложением и размещает его в доменной зоне kh.ua, но доменное имя точно такое же как и на основном сайте. Для этого сайта отдельная стратегия SEO продвижения, отдельная настройка контекстной рекламы, и весь трафик из области направлен на локальный сайт. Или же весь трафик идет на основной сайт, а с него редирект по географическому признаку.
-Вариантов работы с трафиком, техник продаж существует огромная масса, поэтому при выборе доменного желательно прорабатывать варианты развития бизнеса и если не сразу регистрировать пул доменных имен, то как минимум удостовериться что они свободны и доступны к регистрации.</t>
   </si>
   <si>
     <t>Сила слова убийственна. Знали это еще в Древнем Риме. Знал это и генерал Шарль Де Голль, поддерживающий свою страну силой слова находясь за многие километры от нее. Правильно подобранные слова располагают к себе.
@@ -1415,19 +1396,216 @@
 3. Дефис это дефис, а тире это тире, не стоит путать
 4. Используйте только кавычки елочки
 5. Грамматических ошибок быть ни в коем случае не должно
-Есть такая рассылка "Стандарты Мильчина", всего три темы на текущий момент, если мне не изменяет память. Они основаны на "Справочнике издателя и автора". В рассылке собраны и рассказаны доступным языком основные правила работы с текстом. Стоит не дорого, советую приобрести и почитать.
+Есть такая рассылка "Стандарты Мильчина". Она основана на "Справочнике издателя и автора". В рассылке собраны и рассказаны доступным языком основные правила работы с текстом. Стоит не дорого, советую приобрести и почитать.
 Сервис "Главред" - поможет убрать из текста языковой мусор, рекламные и журналистские штампы, а тексту придать информационный стиль. Простой и понятный интерфейс, бесплатное использование.
 Второй сервис которым я пользуюсь при работе с текстом это "Орфограммка". Я использую ее для проверки орфографии, пунктуации и благозвучия текста. Сервис хоть и платный, но стоит не дорого.</t>
+  </si>
+  <si>
+    <t>SEO</t>
+  </si>
+  <si>
+    <t>Ранжирование</t>
+  </si>
+  <si>
+    <t>Релевантность</t>
+  </si>
+  <si>
+    <t>CTR (click through rate)</t>
+  </si>
+  <si>
+    <t>CPC (cost per click)</t>
+  </si>
+  <si>
+    <t>SMO (social media optimization)</t>
+  </si>
+  <si>
+    <t>Конверсия</t>
+  </si>
+  <si>
+    <t>CTA (call to action)</t>
+  </si>
+  <si>
+    <t>Лид</t>
+  </si>
+  <si>
+    <t>Органический трафик</t>
+  </si>
+  <si>
+    <t>Google Analytics</t>
+  </si>
+  <si>
+    <t>Яндекс Метрика</t>
+  </si>
+  <si>
+    <t>Метатеги</t>
+  </si>
+  <si>
+    <t>Тошнота текста</t>
+  </si>
+  <si>
+    <t>Доменное имя</t>
+  </si>
+  <si>
+    <t>ЧПУ</t>
+  </si>
+  <si>
+    <t>SMM (social media marketing)</t>
+  </si>
+  <si>
+    <t>Сервер</t>
+  </si>
+  <si>
+    <t>Хостинг</t>
+  </si>
+  <si>
+    <t>IP адрес</t>
+  </si>
+  <si>
+    <t>DNS сервер (domain name server)</t>
+  </si>
+  <si>
+    <t>HTML (hyper text markup language)</t>
+  </si>
+  <si>
+    <t>CSS (cascading style sheets)</t>
+  </si>
+  <si>
+    <t>CMS (content managenet system)</t>
+  </si>
+  <si>
+    <t>URL (universal resource locator)</t>
+  </si>
+  <si>
+    <t>Айдентика</t>
+  </si>
+  <si>
+    <t>Брендбук</t>
+  </si>
+  <si>
+    <t>Макет</t>
+  </si>
+  <si>
+    <t>Адаптив</t>
+  </si>
+  <si>
+    <t>Экран</t>
+  </si>
+  <si>
+    <t>Страница</t>
+  </si>
+  <si>
+    <t>Айдентика — Визуальный образ для точной идентификации бренда.</t>
+  </si>
+  <si>
+    <t>Фирстиль — Графическая оболочка бренда.</t>
+  </si>
+  <si>
+    <t>Брендбук — Руководство по работе с фирменным стилем.</t>
+  </si>
+  <si>
+    <t>Адаптив — Способность сайта к работе на устройствах с разными диагоналями дисплея.</t>
+  </si>
+  <si>
+    <t>Доменное имя — Название сайта.</t>
+  </si>
+  <si>
+    <t>Сервер — Компьютер для хранения и обеспечения доступа к информации.</t>
+  </si>
+  <si>
+    <t>Хостинг — Услуга по предоставлению места на сервере.</t>
+  </si>
+  <si>
+    <t>SEO — Search Engine Optimization или оптимизация под поисковые системы. </t>
+  </si>
+  <si>
+    <t>Релевантность — Соответствие поисковой выдаче запросу.</t>
+  </si>
+  <si>
+    <t>CTR (click through rate) — Процент посетителей которые кликнули по объявлению.</t>
+  </si>
+  <si>
+    <t>CPC (cost per click) — Стоимость клика в рекламной кампании.</t>
+  </si>
+  <si>
+    <t>SMM (social media marketing) — Маркетинг в социальных сетях.</t>
+  </si>
+  <si>
+    <t>Конверсия — Соотношение количества посетителей сайта к целевому действую, измеряется в процентах.</t>
+  </si>
+  <si>
+    <t>CTA (call to action) — Призыв к действию. Как правило кнопка на сайте с мольбой о покупке или другом целевом действии.</t>
+  </si>
+  <si>
+    <t>Лид — Совокупность методов для привлечения целевого посетителя на сайт.</t>
+  </si>
+  <si>
+    <t>Google Analytics — Сервис сбора статистики посещаемости сайта от Google.</t>
+  </si>
+  <si>
+    <t>Тошнота текста — Частота повторения одинаковых слов в текстовом документе.</t>
+  </si>
+  <si>
+    <t>Макет — Визуальное представление страницы сайта, как правило, в графическом редакторе.</t>
+  </si>
+  <si>
+    <t>Экран — Часть макета которая, отображена на дисплее за один раз. Иногда называют блоком.</t>
+  </si>
+  <si>
+    <t>Страница — Одна страница сайта состоящая из нескольких экранов.</t>
+  </si>
+  <si>
+    <t>IP адрес — Уникальный сетевой адрес по которому размещён сайт.</t>
+  </si>
+  <si>
+    <t>DNS сервер (domain name server) — Сервер где хранятся имена сайтов и их сетевые адреса. Другими словами, домен = IP адрес.</t>
+  </si>
+  <si>
+    <t>HTML (hypertext markup language) — Язык разметки текста. Составляет основу интернет-страницы.</t>
+  </si>
+  <si>
+    <t>CSS (cascading style sheets) — Таблица стилей. При помощи её стилизуется документ html.</t>
+  </si>
+  <si>
+    <t>CMS (content management system) — Система управления контентом сайта.</t>
+  </si>
+  <si>
+    <t>Ранжирование — Упорядоченная поисковая выдача по запросу пользователя. Другими словами, сортировка сайта исходя из запроса.</t>
+  </si>
+  <si>
+    <t>Органический трафик — Посетители которые приходят на сайт из неоплаченных каналов (как правило это поисковая выдача).</t>
+  </si>
+  <si>
+    <t>ЧПУ — Человекоподобный URL. Прописанный латиницей  адрес в понятном для человека виде.</t>
+  </si>
+  <si>
+    <t>Домен это адрес сайта в интернете. Лично моё мнение, это важная инвестиция при выводе бизнеса в онлайн, наряду со страничками в соцсетях.
+Основная концепция в этом всем, которую не все знают, но для общего понимания о ней следует знать — домен не покупается, а регистрируется. Под этим следует понимать право владения и управления доменным именем в течение определённого периода.
+Несколько простых шагов при регистрации помогут снизить возможные риски (потеря прав на домен) в случае различных форс-мажорных ситуаций:
+1. Регистрируйте доменное имя только у аккредитованных регистраторов;
+2. Регистрируйте на себя, указывайте реальные данные (если переживаете за приватность, у регистраторов есть дополнительная услуга по скрытию сведений о владельце);
+3. Оплатите домен на 3-5 лет;
+4. Сразу при оформлении настройте в ЛК регистратора автопродление и уведомление не менее чем за две недели об окончании срока аренды;
+5. Домен в подарок — удостоверьтесь, что в нём указаны ваши данные, у вас есть все необходимые права доступа. По возможности сразу, не откладывая в долгий ящик, передайте его в свою учётную запись у аккредитованного регистратора;
+6. При покупке у третьих лиц пользуйтесь услугой «передачи домена»;
+7. Укажите резервный адрес электронной почты в ЛК регистратора.
+В них нет ничего сложного, они не требуют много времени на реализацию, главное — побороть лень и потратить полчаса на исключение возможных потерь в будущем.
+Дополнительные варианты защиты, которые применяются — это регистрация пула доменных имён, созвучных с основным, с возможными вариантами ошибок и опечаток которые могут случайно допустить потенциальные клиенты, или специально использовать злоумышленники в фишинговых сайтах. Не скажу что это необходимая статья затрат для #МСБ, но знать о таких вещах всё же нужно. 
+Ещё один важный момент при выборе и регистрации доменного имени —его доступность в разных зонах.
+К примеру: локальный бизнес в Киеве принял решение вести торговлю онлайн по Украине. Регистрирует доменное имя в зонах com.ua, biz.ua, kiev.ua, основной сайт размещает на com.ua, и ставит редирект с двух остальных доменов на основной (это значит что введя в адресной строке браузера имя сайта и домен kiev.ua, вы попадёте всё равно на сайт размещённый по адресу com.ua). В какой-то момент времени бизнес выходит на рынок, скажем одной из областей с локальным предложением. Создаёт лендинг с этим предложением и размещает его в доменной зоне kh.ua, но доменное имя такое же, как и на основном сайте. Для этого сайта отдельная стратегия SEO продвижения, отдельная настройка контекстной рекламы, и весь трафик из области направлен на локальный сайт. Или же весь трафик идёт на основной сайт, а с него редирект по географическому признаку.
+Вариантов работы с трафиком, техник продаж существует огромная масса, поэтому при выборе доменного желательно прорабатывать варианты развития бизнеса, и если не сразу регистрировать пул доменных имён, то как минимум удостовериться, что они свободны и доступны к регистрации.</t>
+  </si>
+  <si>
+    <t>Если ничего не объясню, по тексту ниже будет же понятно о чём буду писать?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1587,6 +1765,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2073,7 +2259,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2131,50 +2317,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Акцент4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Акцент5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Акцент6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ввод " xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Вывод" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Вычисление" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Заголовок 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Заголовок 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Итог" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Контрольная ячейка" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Нейтральный" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Плохой" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Примечание" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Связанная ячейка" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -2251,7 +2438,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Терещенков Евгений Александрович" refreshedDate="44278.55520451389" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="280">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Терещенков Евгений Александрович" refreshedDate="44278.55520451389" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="280" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:M1048576" sheet="zen_2021-03-23_dumpof_transacti"/>
   </cacheSource>
@@ -6533,7 +6720,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Сводная таблица1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -6654,6 +6841,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -6921,26 +7111,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C264" sqref="C264"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6981,7 +7171,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44278</v>
       </c>
@@ -7019,7 +7209,7 @@
         <v>44278.292800925927</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44278</v>
       </c>
@@ -7054,7 +7244,7 @@
         <v>44278.292800925927</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44277</v>
       </c>
@@ -7089,7 +7279,7 @@
         <v>44277.656377314815</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44277</v>
       </c>
@@ -7127,7 +7317,7 @@
         <v>44277.632962962962</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44277</v>
       </c>
@@ -7165,7 +7355,7 @@
         <v>44277.632962962962</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44277</v>
       </c>
@@ -7203,7 +7393,7 @@
         <v>44277.632962962962</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44277</v>
       </c>
@@ -7241,7 +7431,7 @@
         <v>44277.632962962962</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44277</v>
       </c>
@@ -7276,7 +7466,7 @@
         <v>44277.632962962962</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44276</v>
       </c>
@@ -7311,7 +7501,7 @@
         <v>44276.606874999998</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44276</v>
       </c>
@@ -7346,7 +7536,7 @@
         <v>44276.606874999998</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44275</v>
       </c>
@@ -7381,7 +7571,7 @@
         <v>44275.85</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44275</v>
       </c>
@@ -7416,7 +7606,7 @@
         <v>44275.49422453704</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44275</v>
       </c>
@@ -7454,7 +7644,7 @@
         <v>44275.428171296298</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44275</v>
       </c>
@@ -7489,7 +7679,7 @@
         <v>44275.012962962966</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44274</v>
       </c>
@@ -7524,7 +7714,7 @@
         <v>44275.402106481481</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44274</v>
       </c>
@@ -7559,7 +7749,7 @@
         <v>44274.875</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44274</v>
       </c>
@@ -7591,7 +7781,7 @@
         <v>44274.875</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44274</v>
       </c>
@@ -7626,7 +7816,7 @@
         <v>44274.875</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44274</v>
       </c>
@@ -7658,7 +7848,7 @@
         <v>44274.875</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44274</v>
       </c>
@@ -7693,7 +7883,7 @@
         <v>44274.794374999998</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44274</v>
       </c>
@@ -7725,7 +7915,7 @@
         <v>44274.875</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44274</v>
       </c>
@@ -7760,7 +7950,7 @@
         <v>44274.769004629627</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44274</v>
       </c>
@@ -7798,7 +7988,7 @@
         <v>44274.508067129631</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44274</v>
       </c>
@@ -7833,7 +8023,7 @@
         <v>44274.467951388891</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44274</v>
       </c>
@@ -7871,7 +8061,7 @@
         <v>44274.4528587963</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44273</v>
       </c>
@@ -7903,7 +8093,7 @@
         <v>44273.845625000002</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44273</v>
       </c>
@@ -7938,7 +8128,7 @@
         <v>44273.845625000002</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>44273</v>
       </c>
@@ -7973,7 +8163,7 @@
         <v>44273.806400462963</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>44273</v>
       </c>
@@ -8008,7 +8198,7 @@
         <v>44273.806400462963</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44272</v>
       </c>
@@ -8043,7 +8233,7 @@
         <v>44273.845578703702</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44272</v>
       </c>
@@ -8078,7 +8268,7 @@
         <v>44272.924629629626</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>44271</v>
       </c>
@@ -8113,7 +8303,7 @@
         <v>44271.807812500003</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>44271</v>
       </c>
@@ -8148,7 +8338,7 @@
         <v>44271.807812500003</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>44271</v>
       </c>
@@ -8183,7 +8373,7 @@
         <v>44271.807812500003</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>44271</v>
       </c>
@@ -8218,7 +8408,7 @@
         <v>44271.807812500003</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>44271</v>
       </c>
@@ -8253,7 +8443,7 @@
         <v>44271.720763888887</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>44271</v>
       </c>
@@ -8288,7 +8478,7 @@
         <v>44271.72252314815</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>44271</v>
       </c>
@@ -8326,7 +8516,7 @@
         <v>44271.711863425924</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>44270</v>
       </c>
@@ -8361,7 +8551,7 @@
         <v>44270.688645833332</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>44269</v>
       </c>
@@ -8396,7 +8586,7 @@
         <v>44269.813310185185</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>44269</v>
       </c>
@@ -8431,7 +8621,7 @@
         <v>44269.813310185185</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>44269</v>
       </c>
@@ -8466,7 +8656,7 @@
         <v>44269.644421296296</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>44269</v>
       </c>
@@ -8504,7 +8694,7 @@
         <v>44268.875011574077</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44269</v>
       </c>
@@ -8542,7 +8732,7 @@
         <v>44268.875011574077</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44268</v>
       </c>
@@ -8577,7 +8767,7 @@
         <v>44268.787349537037</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>44268</v>
       </c>
@@ -8612,7 +8802,7 @@
         <v>44268.780949074076</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>44268</v>
       </c>
@@ -8647,7 +8837,7 @@
         <v>44268.780949074076</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>44268</v>
       </c>
@@ -8682,7 +8872,7 @@
         <v>44268.780949074076</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>44267</v>
       </c>
@@ -8717,7 +8907,7 @@
         <v>44268.875011574077</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>44267</v>
       </c>
@@ -8752,7 +8942,7 @@
         <v>44267.791168981479</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>44266</v>
       </c>
@@ -8787,7 +8977,7 @@
         <v>44266.766921296294</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>44266</v>
       </c>
@@ -8822,7 +9012,7 @@
         <v>44266.458333333336</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>44265</v>
       </c>
@@ -8857,7 +9047,7 @@
         <v>44265.746319444443</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>44265</v>
       </c>
@@ -8892,7 +9082,7 @@
         <v>44265.746319444443</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>44264</v>
       </c>
@@ -8927,7 +9117,7 @@
         <v>44264.83320601852</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>44264</v>
       </c>
@@ -8962,7 +9152,7 @@
         <v>44264.706203703703</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>44264</v>
       </c>
@@ -8997,7 +9187,7 @@
         <v>44264.706203703703</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>44264</v>
       </c>
@@ -9032,7 +9222,7 @@
         <v>44264.459097222221</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>44264</v>
       </c>
@@ -9067,7 +9257,7 @@
         <v>44264.457604166666</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>44263</v>
       </c>
@@ -9102,7 +9292,7 @@
         <v>44263.952847222223</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>44263</v>
       </c>
@@ -9137,7 +9327,7 @@
         <v>44263.750474537039</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>44263</v>
       </c>
@@ -9175,7 +9365,7 @@
         <v>44263.750474537039</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>44263</v>
       </c>
@@ -9204,7 +9394,7 @@
         <v>44263.49554398148</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>44263</v>
       </c>
@@ -9236,7 +9426,7 @@
         <v>44263.49554398148</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>44263</v>
       </c>
@@ -9271,7 +9461,7 @@
         <v>44263.492175925923</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>44263</v>
       </c>
@@ -9303,7 +9493,7 @@
         <v>44263.459027777775</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>44263</v>
       </c>
@@ -9338,7 +9528,7 @@
         <v>44263.459027777775</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>44263</v>
       </c>
@@ -9370,7 +9560,7 @@
         <v>44263.459027777775</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>44262</v>
       </c>
@@ -9405,7 +9595,7 @@
         <v>44263.337824074071</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>44262</v>
       </c>
@@ -9440,7 +9630,7 @@
         <v>44262.881550925929</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>44261</v>
       </c>
@@ -9475,7 +9665,7 @@
         <v>44264.459097222221</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>44261</v>
       </c>
@@ -9510,7 +9700,7 @@
         <v>44263.459027777775</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>44261</v>
       </c>
@@ -9545,7 +9735,7 @@
         <v>44261.684490740743</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>44261</v>
       </c>
@@ -9580,7 +9770,7 @@
         <v>44261.684490740743</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>44261</v>
       </c>
@@ -9612,7 +9802,7 @@
         <v>44261.684490740743</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>44261</v>
       </c>
@@ -9644,7 +9834,7 @@
         <v>44261.684490740743</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>44261</v>
       </c>
@@ -9676,7 +9866,7 @@
         <v>44261.684490740743</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>44261</v>
       </c>
@@ -9708,7 +9898,7 @@
         <v>44261.684490740743</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>44261</v>
       </c>
@@ -9743,7 +9933,7 @@
         <v>44261.684490740743</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>44261</v>
       </c>
@@ -9781,7 +9971,7 @@
         <v>44261.385439814818</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>44261</v>
       </c>
@@ -9819,7 +10009,7 @@
         <v>44261.321134259262</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>44260</v>
       </c>
@@ -9854,7 +10044,7 @@
         <v>44260.931712962964</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>44260</v>
       </c>
@@ -9889,7 +10079,7 @@
         <v>44260.931712962964</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>44260</v>
       </c>
@@ -9924,7 +10114,7 @@
         <v>44260.685196759259</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>44259</v>
       </c>
@@ -9959,7 +10149,7 @@
         <v>44261.684490740743</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>44259</v>
       </c>
@@ -9994,7 +10184,7 @@
         <v>44261.684490740743</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>44259</v>
       </c>
@@ -10026,7 +10216,7 @@
         <v>44261.684490740743</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>44259</v>
       </c>
@@ -10058,7 +10248,7 @@
         <v>44259.684606481482</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>44258</v>
       </c>
@@ -10093,7 +10283,7 @@
         <v>44259.684606481482</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>44258</v>
       </c>
@@ -10131,7 +10321,7 @@
         <v>44259.684606481482</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>44258</v>
       </c>
@@ -10166,7 +10356,7 @@
         <v>44259.684606481482</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>44258</v>
       </c>
@@ -10204,7 +10394,7 @@
         <v>44259.682685185187</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>44258</v>
       </c>
@@ -10239,7 +10429,7 @@
         <v>44259.681840277779</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>44258</v>
       </c>
@@ -10274,7 +10464,7 @@
         <v>44258.776377314818</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>44256</v>
       </c>
@@ -10309,7 +10499,7 @@
         <v>44256.788206018522</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>44256</v>
       </c>
@@ -10344,7 +10534,7 @@
         <v>44256.522824074076</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>44255</v>
       </c>
@@ -10379,7 +10569,7 @@
         <v>44255.761145833334</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>44255</v>
       </c>
@@ -10414,7 +10604,7 @@
         <v>44255.526562500003</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>44255</v>
       </c>
@@ -10449,7 +10639,7 @@
         <v>44255.526562500003</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>44255</v>
       </c>
@@ -10484,7 +10674,7 @@
         <v>44255.526562500003</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>44255</v>
       </c>
@@ -10516,7 +10706,7 @@
         <v>44254.459039351852</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>44254</v>
       </c>
@@ -10548,7 +10738,7 @@
         <v>44254.459039351852</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>44254</v>
       </c>
@@ -10583,7 +10773,7 @@
         <v>44254.459039351852</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>44254</v>
       </c>
@@ -10615,7 +10805,7 @@
         <v>44254.459039351852</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>44253</v>
       </c>
@@ -10650,7 +10840,7 @@
         <v>44253.691817129627</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>44253</v>
       </c>
@@ -10688,7 +10878,7 @@
         <v>44253.691817129627</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>44252</v>
       </c>
@@ -10720,7 +10910,7 @@
         <v>44252.875011574077</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>44252</v>
       </c>
@@ -10752,7 +10942,7 @@
         <v>44252.875011574077</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>44252</v>
       </c>
@@ -10784,7 +10974,7 @@
         <v>44252.875011574077</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>44252</v>
       </c>
@@ -10816,7 +11006,7 @@
         <v>44252.875011574077</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>44252</v>
       </c>
@@ -10848,7 +11038,7 @@
         <v>44252.875011574077</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>44252</v>
       </c>
@@ -10883,7 +11073,7 @@
         <v>44252.875011574077</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>44252</v>
       </c>
@@ -10915,7 +11105,7 @@
         <v>44252.875011574077</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>44252</v>
       </c>
@@ -10950,7 +11140,7 @@
         <v>44252.875011574077</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>44252</v>
       </c>
@@ -10982,7 +11172,7 @@
         <v>44252.875011574077</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>44252</v>
       </c>
@@ -11014,7 +11204,7 @@
         <v>44252.875011574077</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>44252</v>
       </c>
@@ -11049,7 +11239,7 @@
         <v>44252.740798611114</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>44251</v>
       </c>
@@ -11084,7 +11274,7 @@
         <v>44251.547974537039</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>44250</v>
       </c>
@@ -11119,7 +11309,7 @@
         <v>44250.891365740739</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>44250</v>
       </c>
@@ -11154,7 +11344,7 @@
         <v>44250.891365740739</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>44250</v>
       </c>
@@ -11189,7 +11379,7 @@
         <v>44250.891365740739</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>44249</v>
       </c>
@@ -11221,7 +11411,7 @@
         <v>44249.8750462963</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>44249</v>
       </c>
@@ -11253,7 +11443,7 @@
         <v>44249.8750462963</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>44249</v>
       </c>
@@ -11291,7 +11481,7 @@
         <v>44249.691238425927</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>44249</v>
       </c>
@@ -11326,7 +11516,7 @@
         <v>44249.65152777778</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>44249</v>
       </c>
@@ -11364,7 +11554,7 @@
         <v>44249.65152777778</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>44248</v>
       </c>
@@ -11396,7 +11586,7 @@
         <v>44249.8750462963</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>44248</v>
       </c>
@@ -11431,7 +11621,7 @@
         <v>44248.81355324074</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>44248</v>
       </c>
@@ -11469,7 +11659,7 @@
         <v>44248.712094907409</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>44247</v>
       </c>
@@ -11504,7 +11694,7 @@
         <v>44248.384733796294</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>44247</v>
       </c>
@@ -11542,7 +11732,7 @@
         <v>44247.537430555552</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>44247</v>
       </c>
@@ -11580,7 +11770,7 @@
         <v>44247.537430555552</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>44246</v>
       </c>
@@ -11615,7 +11805,7 @@
         <v>44246.944131944445</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>44246</v>
       </c>
@@ -11650,7 +11840,7 @@
         <v>44246.944131944445</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>44246</v>
       </c>
@@ -11685,7 +11875,7 @@
         <v>44246.944131944445</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>44246</v>
       </c>
@@ -11720,7 +11910,7 @@
         <v>44246.944131944445</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>44246</v>
       </c>
@@ -11755,7 +11945,7 @@
         <v>44246.688078703701</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>44246</v>
       </c>
@@ -11790,7 +11980,7 @@
         <v>44246.638252314813</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>44245</v>
       </c>
@@ -11822,7 +12012,7 @@
         <v>44245.875011574077</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>44245</v>
       </c>
@@ -11854,7 +12044,7 @@
         <v>44245.875011574077</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>44245</v>
       </c>
@@ -11886,7 +12076,7 @@
         <v>44245.458333333336</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>44244</v>
       </c>
@@ -11924,7 +12114,7 @@
         <v>44244.98574074074</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>44244</v>
       </c>
@@ -11959,7 +12149,7 @@
         <v>44244.686296296299</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>44243</v>
       </c>
@@ -11994,7 +12184,7 @@
         <v>44244.063263888886</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>44243</v>
       </c>
@@ -12029,7 +12219,7 @@
         <v>44243.641562500001</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>44243</v>
       </c>
@@ -12064,7 +12254,7 @@
         <v>44243.641562500001</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>44242</v>
       </c>
@@ -12099,7 +12289,7 @@
         <v>44243.024062500001</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>44242</v>
       </c>
@@ -12134,7 +12324,7 @@
         <v>44242.803055555552</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>44242</v>
       </c>
@@ -12169,7 +12359,7 @@
         <v>44242.803055555552</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>44242</v>
       </c>
@@ -12204,7 +12394,7 @@
         <v>44242.696689814817</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>44242</v>
       </c>
@@ -12239,7 +12429,7 @@
         <v>44242.696689814817</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>44242</v>
       </c>
@@ -12274,7 +12464,7 @@
         <v>44242.696689814817</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>44241</v>
       </c>
@@ -12306,7 +12496,7 @@
         <v>44241.75917824074</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>44241</v>
       </c>
@@ -12338,7 +12528,7 @@
         <v>44241.75917824074</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>44240</v>
       </c>
@@ -12373,7 +12563,7 @@
         <v>44240.753101851849</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>44240</v>
       </c>
@@ -12411,7 +12601,7 @@
         <v>44240.753101851849</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>44240</v>
       </c>
@@ -12446,7 +12636,7 @@
         <v>44240.753101851849</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>44240</v>
       </c>
@@ -12481,7 +12671,7 @@
         <v>44240.753101851849</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>44240</v>
       </c>
@@ -12516,7 +12706,7 @@
         <v>44240.753101851849</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>44240</v>
       </c>
@@ -12551,7 +12741,7 @@
         <v>44240.561886574076</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>44240</v>
       </c>
@@ -12586,7 +12776,7 @@
         <v>44240.0937037037</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>44239</v>
       </c>
@@ -12618,7 +12808,7 @@
         <v>44239.781122685185</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>44239</v>
       </c>
@@ -12650,7 +12840,7 @@
         <v>44239.779189814813</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>44239</v>
       </c>
@@ -12682,7 +12872,7 @@
         <v>44239.779189814813</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>44239</v>
       </c>
@@ -12714,7 +12904,7 @@
         <v>44239.779189814813</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>44239</v>
       </c>
@@ -12749,7 +12939,7 @@
         <v>44239.779189814813</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>44239</v>
       </c>
@@ -12784,7 +12974,7 @@
         <v>44239.779189814813</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>44239</v>
       </c>
@@ -12816,7 +13006,7 @@
         <v>44239.779189814813</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>44239</v>
       </c>
@@ -12851,7 +13041,7 @@
         <v>44239.580601851849</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>44239</v>
       </c>
@@ -12886,7 +13076,7 @@
         <v>44239.363946759258</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>44239</v>
       </c>
@@ -12924,7 +13114,7 @@
         <v>44239.363946759258</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>44238</v>
       </c>
@@ -12959,7 +13149,7 @@
         <v>44238.766504629632</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>44238</v>
       </c>
@@ -12994,7 +13184,7 @@
         <v>44238.766504629632</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>44238</v>
       </c>
@@ -13029,7 +13219,7 @@
         <v>44238.735381944447</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>44238</v>
       </c>
@@ -13064,7 +13254,7 @@
         <v>44238.735381944447</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>44238</v>
       </c>
@@ -13099,7 +13289,7 @@
         <v>44238.735381944447</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>44238</v>
       </c>
@@ -13137,7 +13327,7 @@
         <v>44238.735381944447</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>44238</v>
       </c>
@@ -13172,7 +13362,7 @@
         <v>44238.59175925926</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>44237</v>
       </c>
@@ -13207,7 +13397,7 @@
         <v>44237.695081018515</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>44237</v>
       </c>
@@ -13242,7 +13432,7 @@
         <v>44237.695081018515</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>44237</v>
       </c>
@@ -13277,7 +13467,7 @@
         <v>44237.695081018515</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>44237</v>
       </c>
@@ -13315,7 +13505,7 @@
         <v>44237.695081018515</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>44237</v>
       </c>
@@ -13353,7 +13543,7 @@
         <v>44237.650763888887</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>44236</v>
       </c>
@@ -13385,7 +13575,7 @@
         <v>44239.580601851849</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>44236</v>
       </c>
@@ -13417,7 +13607,7 @@
         <v>44239.580601851849</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>44236</v>
       </c>
@@ -13452,7 +13642,7 @@
         <v>44236.802835648145</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>44236</v>
       </c>
@@ -13487,7 +13677,7 @@
         <v>44236.715856481482</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>44236</v>
       </c>
@@ -13522,7 +13712,7 @@
         <v>44236.715856481482</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>44235</v>
       </c>
@@ -13560,7 +13750,7 @@
         <v>44239.730162037034</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>44235</v>
       </c>
@@ -13592,7 +13782,7 @@
         <v>44235.789421296293</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>44235</v>
       </c>
@@ -13624,7 +13814,7 @@
         <v>44235.789421296293</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>44235</v>
       </c>
@@ -13659,7 +13849,7 @@
         <v>44235.789421296293</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>44235</v>
       </c>
@@ -13694,7 +13884,7 @@
         <v>44235.789421296293</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>44234</v>
       </c>
@@ -13729,7 +13919,7 @@
         <v>44234.580150462964</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>44234</v>
       </c>
@@ -13764,7 +13954,7 @@
         <v>44234.580150462964</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>44234</v>
       </c>
@@ -13799,7 +13989,7 @@
         <v>44234.555173611108</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>44234</v>
       </c>
@@ -13834,7 +14024,7 @@
         <v>44234.47184027778</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>44234</v>
       </c>
@@ -13872,7 +14062,7 @@
         <v>44234.47184027778</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>44233</v>
       </c>
@@ -13907,7 +14097,7 @@
         <v>44234.47184027778</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>44233</v>
       </c>
@@ -13945,7 +14135,7 @@
         <v>44233.921134259261</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>44233</v>
       </c>
@@ -13980,7 +14170,7 @@
         <v>44233.650787037041</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>44233</v>
       </c>
@@ -14015,7 +14205,7 @@
         <v>44233.603055555555</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>44233</v>
       </c>
@@ -14053,7 +14243,7 @@
         <v>44233.599224537036</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>44233</v>
       </c>
@@ -14088,7 +14278,7 @@
         <v>44233.564143518517</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>44232</v>
       </c>
@@ -14126,7 +14316,7 @@
         <v>44232.860173611109</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>44232</v>
       </c>
@@ -14158,7 +14348,7 @@
         <v>44232.82712962963</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>44232</v>
       </c>
@@ -14193,7 +14383,7 @@
         <v>44232.82640046296</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>44232</v>
       </c>
@@ -14228,7 +14418,7 @@
         <v>44232.686608796299</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>44232</v>
       </c>
@@ -14266,7 +14456,7 @@
         <v>44232.674328703702</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>44232</v>
       </c>
@@ -14301,7 +14491,7 @@
         <v>44232.674328703702</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>44232</v>
       </c>
@@ -14336,7 +14526,7 @@
         <v>44232.674328703702</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>44232</v>
       </c>
@@ -14371,7 +14561,7 @@
         <v>44232.67</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>44232</v>
       </c>
@@ -14406,7 +14596,7 @@
         <v>44232.67</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>44231</v>
       </c>
@@ -14441,7 +14631,7 @@
         <v>44231.94122685185</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>44231</v>
       </c>
@@ -14476,7 +14666,7 @@
         <v>44231.94122685185</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>44231</v>
       </c>
@@ -14511,7 +14701,7 @@
         <v>44231.94122685185</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>44231</v>
       </c>
@@ -14546,7 +14736,7 @@
         <v>44231.355636574073</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>44230</v>
       </c>
@@ -14581,7 +14771,7 @@
         <v>44230.803379629629</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>44230</v>
       </c>
@@ -14616,7 +14806,7 @@
         <v>44230.788217592592</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>44230</v>
       </c>
@@ -14654,7 +14844,7 @@
         <v>44230.788217592592</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>44230</v>
       </c>
@@ -14689,7 +14879,7 @@
         <v>44230.788217592592</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>44229</v>
       </c>
@@ -14721,7 +14911,7 @@
         <v>44229.875196759262</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>44228</v>
       </c>
@@ -14759,7 +14949,7 @@
         <v>44228.979988425926</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>44228</v>
       </c>
@@ -14794,7 +14984,7 @@
         <v>44228.770624999997</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>44228</v>
       </c>
@@ -14829,7 +15019,7 @@
         <v>44228.770624999997</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>44227</v>
       </c>
@@ -14864,7 +15054,7 @@
         <v>44227.783310185187</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>44227</v>
       </c>
@@ -14902,7 +15092,7 @@
         <v>44227.740104166667</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>44226</v>
       </c>
@@ -14937,7 +15127,7 @@
         <v>44226.936655092592</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>44225</v>
       </c>
@@ -14975,7 +15165,7 @@
         <v>44225.812719907408</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>44225</v>
       </c>
@@ -15013,7 +15203,7 @@
         <v>44225.810497685183</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>44225</v>
       </c>
@@ -15045,7 +15235,7 @@
         <v>44225.810497685183</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>44225</v>
       </c>
@@ -15083,7 +15273,7 @@
         <v>44225.009722222225</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>44225</v>
       </c>
@@ -15121,7 +15311,7 @@
         <v>44225.009722222225</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>44224</v>
       </c>
@@ -15153,7 +15343,7 @@
         <v>44224.70239583333</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>44224</v>
       </c>
@@ -15188,7 +15378,7 @@
         <v>44224.70207175926</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>44224</v>
       </c>
@@ -15223,7 +15413,7 @@
         <v>44224.667430555557</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>44224</v>
       </c>
@@ -15261,7 +15451,7 @@
         <v>44224.667430555557</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>44224</v>
       </c>
@@ -15296,7 +15486,7 @@
         <v>44224.656099537038</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>44224</v>
       </c>
@@ -15334,7 +15524,7 @@
         <v>44224.656099537038</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>44223</v>
       </c>
@@ -15369,7 +15559,7 @@
         <v>44223.910798611112</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>44223</v>
       </c>
@@ -15404,7 +15594,7 @@
         <v>44223.910798611112</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>44223</v>
       </c>
@@ -15439,7 +15629,7 @@
         <v>44223.700659722221</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>44223</v>
       </c>
@@ -15477,7 +15667,7 @@
         <v>44223.700659722221</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>44223</v>
       </c>
@@ -15512,7 +15702,7 @@
         <v>44223.700104166666</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>44222</v>
       </c>
@@ -15547,7 +15737,7 @@
         <v>44222.875243055554</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>44222</v>
       </c>
@@ -15582,7 +15772,7 @@
         <v>44222.744166666664</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>44222</v>
       </c>
@@ -15617,7 +15807,7 @@
         <v>44222.744166666664</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>44222</v>
       </c>
@@ -15655,7 +15845,7 @@
         <v>44222.646620370368</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>44222</v>
       </c>
@@ -15693,7 +15883,7 @@
         <v>44222.627430555556</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>44221</v>
       </c>
@@ -15731,7 +15921,7 @@
         <v>44221.678437499999</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>44220</v>
       </c>
@@ -15769,7 +15959,7 @@
         <v>44220.9371875</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>44220</v>
       </c>
@@ -15807,7 +15997,7 @@
         <v>44220.775405092594</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>44220</v>
       </c>
@@ -15845,7 +16035,7 @@
         <v>44220.670034722221</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>44220</v>
       </c>
@@ -15883,7 +16073,7 @@
         <v>44220.670034722221</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>44220</v>
       </c>
@@ -15918,7 +16108,7 @@
         <v>44220.459027777775</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>44219</v>
       </c>
@@ -15956,7 +16146,7 @@
         <v>44220.606828703705</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>44219</v>
       </c>
@@ -15991,7 +16181,7 @@
         <v>44220.606828703705</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>44219</v>
       </c>
@@ -16026,7 +16216,7 @@
         <v>44219.738819444443</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>44219</v>
       </c>
@@ -16061,7 +16251,7 @@
         <v>44219.738819444443</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>44219</v>
       </c>
@@ -16091,82 +16281,82 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M261"/>
+  <autoFilter ref="A1:M261" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="4.5" customWidth="1"/>
+    <col min="6" max="6" width="8.5" customWidth="1"/>
+    <col min="7" max="7" width="7.5" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" customWidth="1"/>
-    <col min="11" max="11" width="35.5703125" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" customWidth="1"/>
+    <col min="10" max="10" width="21.5" customWidth="1"/>
+    <col min="11" max="11" width="35.5" customWidth="1"/>
     <col min="12" max="12" width="4" customWidth="1"/>
-    <col min="13" max="13" width="21.5703125" customWidth="1"/>
-    <col min="14" max="14" width="16.85546875" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" customWidth="1"/>
-    <col min="17" max="17" width="23.140625" customWidth="1"/>
-    <col min="18" max="18" width="11.85546875" customWidth="1"/>
-    <col min="19" max="19" width="12.85546875" customWidth="1"/>
-    <col min="20" max="20" width="5.85546875" customWidth="1"/>
-    <col min="21" max="21" width="6.28515625" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" customWidth="1"/>
-    <col min="23" max="23" width="7.7109375" customWidth="1"/>
-    <col min="24" max="24" width="5.140625" customWidth="1"/>
-    <col min="25" max="25" width="11.140625" customWidth="1"/>
+    <col min="13" max="13" width="21.5" customWidth="1"/>
+    <col min="14" max="14" width="16.83203125" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" customWidth="1"/>
+    <col min="16" max="16" width="18.5" customWidth="1"/>
+    <col min="17" max="17" width="23.1640625" customWidth="1"/>
+    <col min="18" max="18" width="11.83203125" customWidth="1"/>
+    <col min="19" max="19" width="12.83203125" customWidth="1"/>
+    <col min="20" max="20" width="5.83203125" customWidth="1"/>
+    <col min="21" max="21" width="6.33203125" customWidth="1"/>
+    <col min="22" max="22" width="11.6640625" customWidth="1"/>
+    <col min="23" max="23" width="7.6640625" customWidth="1"/>
+    <col min="24" max="24" width="5.1640625" customWidth="1"/>
+    <col min="25" max="25" width="11.1640625" customWidth="1"/>
     <col min="26" max="26" width="7" customWidth="1"/>
-    <col min="27" max="27" width="9.85546875" customWidth="1"/>
-    <col min="28" max="28" width="19.5703125" customWidth="1"/>
-    <col min="29" max="29" width="20.28515625" customWidth="1"/>
-    <col min="30" max="30" width="7.140625" customWidth="1"/>
-    <col min="31" max="31" width="19.7109375" customWidth="1"/>
-    <col min="32" max="32" width="5.85546875" customWidth="1"/>
-    <col min="33" max="33" width="9.28515625" customWidth="1"/>
-    <col min="34" max="34" width="34.85546875" customWidth="1"/>
+    <col min="27" max="27" width="9.83203125" customWidth="1"/>
+    <col min="28" max="28" width="19.5" customWidth="1"/>
+    <col min="29" max="29" width="20.33203125" customWidth="1"/>
+    <col min="30" max="30" width="7.1640625" customWidth="1"/>
+    <col min="31" max="31" width="19.6640625" customWidth="1"/>
+    <col min="32" max="32" width="5.83203125" customWidth="1"/>
+    <col min="33" max="33" width="9.33203125" customWidth="1"/>
+    <col min="34" max="34" width="34.83203125" customWidth="1"/>
     <col min="35" max="35" width="16" customWidth="1"/>
-    <col min="36" max="36" width="16.140625" customWidth="1"/>
-    <col min="37" max="37" width="21.7109375" customWidth="1"/>
-    <col min="38" max="38" width="26.85546875" customWidth="1"/>
+    <col min="36" max="36" width="16.1640625" customWidth="1"/>
+    <col min="37" max="37" width="21.6640625" customWidth="1"/>
+    <col min="38" max="38" width="26.83203125" customWidth="1"/>
     <col min="39" max="39" width="11" customWidth="1"/>
-    <col min="40" max="40" width="12.7109375" customWidth="1"/>
-    <col min="41" max="41" width="5.5703125" customWidth="1"/>
-    <col min="42" max="42" width="12.140625" customWidth="1"/>
-    <col min="43" max="43" width="10.28515625" customWidth="1"/>
-    <col min="44" max="44" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.6640625" customWidth="1"/>
+    <col min="41" max="41" width="5.5" customWidth="1"/>
+    <col min="42" max="42" width="12.1640625" customWidth="1"/>
+    <col min="43" max="43" width="10.33203125" customWidth="1"/>
+    <col min="44" max="44" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18.5" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="19" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="8.85546875" customWidth="1"/>
-    <col min="49" max="49" width="6.42578125" customWidth="1"/>
-    <col min="50" max="50" width="8.5703125" customWidth="1"/>
-    <col min="51" max="51" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8.83203125" customWidth="1"/>
+    <col min="49" max="49" width="6.5" customWidth="1"/>
+    <col min="50" max="50" width="8.5" customWidth="1"/>
+    <col min="51" max="51" width="11.5" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="19" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="5.5703125" customWidth="1"/>
-    <col min="54" max="54" width="8.28515625" customWidth="1"/>
-    <col min="55" max="55" width="8.5703125" customWidth="1"/>
+    <col min="53" max="53" width="5.5" customWidth="1"/>
+    <col min="54" max="54" width="8.33203125" customWidth="1"/>
+    <col min="55" max="55" width="8.5" customWidth="1"/>
     <col min="56" max="56" width="8" customWidth="1"/>
-    <col min="57" max="57" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>143</v>
       </c>
@@ -16174,7 +16364,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>68</v>
       </c>
@@ -16182,7 +16372,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>97</v>
       </c>
@@ -16190,7 +16380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>54</v>
       </c>
@@ -16198,7 +16388,7 @@
         <v>5798</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>35</v>
       </c>
@@ -16206,7 +16396,7 @@
         <v>5030</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>45</v>
       </c>
@@ -16214,7 +16404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>63</v>
       </c>
@@ -16222,7 +16412,7 @@
         <v>1872.4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>37</v>
       </c>
@@ -16230,7 +16420,7 @@
         <v>2038.7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>50</v>
       </c>
@@ -16238,7 +16428,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
@@ -16246,7 +16436,7 @@
         <v>4742</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>76</v>
       </c>
@@ -16254,7 +16444,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>114</v>
       </c>
@@ -16262,7 +16452,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>43</v>
       </c>
@@ -16270,7 +16460,7 @@
         <v>19111</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
@@ -16278,7 +16468,7 @@
         <v>6446</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>69</v>
       </c>
@@ -16286,7 +16476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>67</v>
       </c>
@@ -16294,7 +16484,7 @@
         <v>6190</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
@@ -16302,7 +16492,7 @@
         <v>15524.1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>127</v>
       </c>
@@ -16310,7 +16500,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>84</v>
       </c>
@@ -16318,7 +16508,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>42</v>
       </c>
@@ -16326,7 +16516,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>144</v>
       </c>
@@ -16334,7 +16524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>145</v>
       </c>
@@ -16349,23 +16539,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -16385,7 +16575,7 @@
         <v>17400</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>68</v>
       </c>
@@ -16405,7 +16595,7 @@
         <v>7100</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>54</v>
       </c>
@@ -16426,7 +16616,7 @@
         <v>24500</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>42</v>
       </c>
@@ -16446,7 +16636,7 @@
         <v>38359.1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
@@ -16468,7 +16658,7 @@
         <v>-683.04999999999927</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>28</v>
       </c>
@@ -16491,7 +16681,7 @@
         <v>-7259.0999999999985</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>63</v>
       </c>
@@ -16514,7 +16704,7 @@
         <v>-13859.099999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>35</v>
       </c>
@@ -16528,7 +16718,7 @@
         <v>628.75</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>43</v>
       </c>
@@ -16543,7 +16733,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>43</v>
       </c>
@@ -16558,7 +16748,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>63</v>
       </c>
@@ -16574,7 +16764,7 @@
         <v>234.05</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>37</v>
       </c>
@@ -16588,7 +16778,7 @@
         <v>254.83750000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>67</v>
       </c>
@@ -16602,7 +16792,7 @@
         <v>773.75</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>76</v>
       </c>
@@ -16616,7 +16806,7 @@
         <v>118.875</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>114</v>
       </c>
@@ -16629,7 +16819,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>13</v>
       </c>
@@ -16642,7 +16832,7 @@
         <v>187.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>153</v>
       </c>
@@ -16655,7 +16845,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -16668,7 +16858,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>155</v>
       </c>
@@ -16712,21 +16902,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" customWidth="1"/>
-    <col min="5" max="5" width="85.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.1640625" customWidth="1"/>
+    <col min="5" max="5" width="85.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>156</v>
       </c>
@@ -16735,7 +16925,7 @@
         <v>1907.9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>157</v>
       </c>
@@ -16744,7 +16934,7 @@
         <v>1904.4640000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>158</v>
       </c>
@@ -16752,7 +16942,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>159</v>
       </c>
@@ -16760,7 +16950,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>160</v>
       </c>
@@ -16769,7 +16959,7 @@
         <v>799.46400000000017</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D8" s="15" t="s">
         <v>161</v>
       </c>
@@ -16777,7 +16967,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="D9" s="23" t="s">
         <v>163</v>
       </c>
@@ -16785,31 +16975,31 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="D10" s="24"/>
       <c r="E10" s="17" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="D11" s="24"/>
       <c r="E11" s="17" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="D12" s="24"/>
       <c r="E12" s="17" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D13" s="25"/>
       <c r="E13" s="18" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="D14" s="23" t="s">
         <v>169</v>
       </c>
@@ -16817,31 +17007,31 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="D15" s="24"/>
       <c r="E15" s="17" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="D16" s="24"/>
       <c r="E16" s="17" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:5" ht="16" x14ac:dyDescent="0.2">
       <c r="D17" s="24"/>
       <c r="E17" s="17" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D18" s="25"/>
       <c r="E18" s="18" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:5" ht="16" x14ac:dyDescent="0.2">
       <c r="D19" s="23" t="s">
         <v>175</v>
       </c>
@@ -16849,31 +17039,31 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:5" ht="16" x14ac:dyDescent="0.2">
       <c r="D20" s="24"/>
       <c r="E20" s="17" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:5" ht="16" x14ac:dyDescent="0.2">
       <c r="D21" s="24"/>
       <c r="E21" s="17" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:5" ht="16" x14ac:dyDescent="0.2">
       <c r="D22" s="24"/>
       <c r="E22" s="17" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D23" s="25"/>
       <c r="E23" s="18" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:5" ht="16" x14ac:dyDescent="0.2">
       <c r="D24" s="23" t="s">
         <v>181</v>
       </c>
@@ -16881,31 +17071,31 @@
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:5" ht="16" x14ac:dyDescent="0.2">
       <c r="D25" s="24"/>
       <c r="E25" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:5" ht="32" x14ac:dyDescent="0.2">
       <c r="D26" s="24"/>
       <c r="E26" s="17" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:5" ht="16" x14ac:dyDescent="0.2">
       <c r="D27" s="24"/>
       <c r="E27" s="17" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D28" s="25"/>
       <c r="E28" s="18" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:5" ht="16" x14ac:dyDescent="0.2">
       <c r="D29" s="23" t="s">
         <v>187</v>
       </c>
@@ -16913,31 +17103,31 @@
         <v>188</v>
       </c>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:5" ht="16" x14ac:dyDescent="0.2">
       <c r="D30" s="24"/>
       <c r="E30" s="17" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:5" ht="16" x14ac:dyDescent="0.2">
       <c r="D31" s="24"/>
       <c r="E31" s="17" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:5" ht="16" x14ac:dyDescent="0.2">
       <c r="D32" s="24"/>
       <c r="E32" s="17" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="33" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D33" s="25"/>
       <c r="E33" s="18" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:5" ht="16" x14ac:dyDescent="0.2">
       <c r="D34" s="23" t="s">
         <v>193</v>
       </c>
@@ -16945,31 +17135,31 @@
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:5" ht="16" x14ac:dyDescent="0.2">
       <c r="D35" s="24"/>
       <c r="E35" s="17" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:5" ht="16" x14ac:dyDescent="0.2">
       <c r="D36" s="24"/>
       <c r="E36" s="17" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:5" ht="16" x14ac:dyDescent="0.2">
       <c r="D37" s="24"/>
       <c r="E37" s="17" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="38" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D38" s="25"/>
       <c r="E38" s="18" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:5" ht="16" x14ac:dyDescent="0.2">
       <c r="D39" s="23" t="s">
         <v>199</v>
       </c>
@@ -16977,25 +17167,25 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:5" ht="16" x14ac:dyDescent="0.2">
       <c r="D40" s="24"/>
       <c r="E40" s="17" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:5" ht="16" x14ac:dyDescent="0.2">
       <c r="D41" s="24"/>
       <c r="E41" s="17" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:5" ht="16" x14ac:dyDescent="0.2">
       <c r="D42" s="24"/>
       <c r="E42" s="17" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:5" ht="16" x14ac:dyDescent="0.2">
       <c r="D43" s="26"/>
       <c r="E43" s="19" t="s">
         <v>204</v>
@@ -17017,22 +17207,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="48" customWidth="1"/>
-    <col min="2" max="2" width="52.5703125" customWidth="1"/>
-    <col min="3" max="3" width="58.28515625" customWidth="1"/>
-    <col min="4" max="4" width="187.7109375" customWidth="1"/>
+    <col min="2" max="2" width="52.5" customWidth="1"/>
+    <col min="3" max="3" width="58.33203125" customWidth="1"/>
+    <col min="4" max="4" width="187.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>205</v>
       </c>
@@ -17046,42 +17236,42 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="B3" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>213</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E3" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>214</v>
       </c>
       <c r="C4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>216</v>
       </c>
@@ -17089,7 +17279,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>218</v>
       </c>
@@ -17097,7 +17287,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>220</v>
       </c>
@@ -17105,7 +17295,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="330" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="288" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>226</v>
       </c>
@@ -17113,10 +17303,10 @@
         <v>227</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>240</v>
       </c>
@@ -17124,10 +17314,10 @@
         <v>231</v>
       </c>
       <c r="D10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>232</v>
       </c>
@@ -17135,16 +17325,16 @@
         <v>233</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="B12" s="21" t="s">
         <v>234</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="22" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>236</v>
       </c>
@@ -17152,7 +17342,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>238</v>
       </c>
@@ -17160,10 +17350,10 @@
         <v>239</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>242</v>
       </c>
@@ -17171,7 +17361,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="B16" s="21" t="s">
         <v>243</v>
       </c>
@@ -17179,15 +17369,15 @@
         <v>244</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>246</v>
       </c>
@@ -17195,52 +17385,52 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>209</v>
       </c>
@@ -17251,7 +17441,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>229</v>
       </c>
@@ -17259,12 +17449,15 @@
         <v>230</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>251</v>
       </c>
@@ -17272,8 +17465,470 @@
         <v>252</v>
       </c>
       <c r="D37" t="s">
-        <v>254</v>
-      </c>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B43" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="D43" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B44" s="27" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B45" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="D45" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B46" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="D46" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B47" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="D47" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B48" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="D48" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="D49" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="D50" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="D51" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B52" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="D52" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B53" s="27" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B54" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="D54" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="D55" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B56" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="D56" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B57" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="D57" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B58" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="D58" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B59" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="D59" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B60" s="27"/>
+      <c r="D60" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B61" s="27"/>
+      <c r="D61" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B62" s="27"/>
+      <c r="D62" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B63" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="D63" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B64" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="D64" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B65" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="D65" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B66" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="D66" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B67" s="27" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B68" s="27" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B69" s="27" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B70" s="27" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B71" s="27"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B72" s="27"/>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B73" s="27" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B74" s="27" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B75" s="27" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B76" s="27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B77" s="27" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B78" s="27" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B79" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" ref="D44:D79" si="0">CONCATENATE(B79, " — ",C79)</f>
+        <v xml:space="preserve">Страница — </v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B80" s="27"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B81" s="27"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B82" s="27"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B83" s="27"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B84" s="27"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B85" s="27"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B86" s="27"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B87" s="27"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B88" s="27"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B89" s="27"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B90" s="27"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B91" s="27"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B92" s="27"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B93" s="27"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B94" s="27"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B95" s="27"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B96" s="27"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B97" s="27"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B98" s="27"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B99" s="27"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B100" s="27"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B101" s="27"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B102" s="27"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B103" s="27"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B104" s="27"/>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B105" s="27"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B106" s="27"/>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B107" s="27"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B108" s="27"/>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B109" s="27"/>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B110" s="27"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B111" s="27"/>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B112" s="27"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B113" s="27"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B114" s="27"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B115" s="27"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B116" s="27"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B117" s="27"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B118" s="27"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B119" s="27"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B120" s="27"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B121" s="27"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B122" s="27"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B123" s="27"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B124" s="27"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B125" s="27"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B126" s="27"/>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B127" s="27"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B128" s="27"/>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B129" s="27"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B130" s="27"/>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B131" s="27"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B132" s="27"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B133" s="27"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B134" s="27"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B135" s="27"/>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B136" s="27"/>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B137" s="27"/>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B138" s="27"/>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B139" s="27"/>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B140" s="27"/>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B141" s="27"/>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B142" s="27"/>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B143" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17282,72 +17937,72 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A12" sqref="A12:A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>264</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>265</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>266</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>267</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>268</v>
       </c>
-      <c r="B5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>274</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>269</v>
-      </c>
-      <c r="B7" t="s">
-        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -17357,281 +18012,281 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>44306</v>
       </c>
       <c r="B1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44307</v>
       </c>
       <c r="B2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44308</v>
       </c>
       <c r="B3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44309</v>
       </c>
       <c r="B4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44310</v>
       </c>
       <c r="B5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44311</v>
       </c>
       <c r="B6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44312</v>
       </c>
       <c r="B7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44313</v>
       </c>
       <c r="B8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C8" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44314</v>
       </c>
       <c r="B9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C9" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44315</v>
       </c>
       <c r="B10" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44316</v>
       </c>
       <c r="B11" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44317</v>
       </c>
       <c r="B12" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44318</v>
       </c>
       <c r="B13" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44319</v>
       </c>
       <c r="B14" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44320</v>
       </c>
       <c r="B15" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44321</v>
       </c>
       <c r="B16" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44322</v>
       </c>
       <c r="B17" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44323</v>
       </c>
       <c r="B18" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44324</v>
       </c>
       <c r="B19" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44325</v>
       </c>
       <c r="B20" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44326</v>
       </c>
       <c r="B21" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44327</v>
       </c>
       <c r="B22" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44328</v>
       </c>
       <c r="B23" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44329</v>
       </c>
       <c r="B24" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44330</v>
       </c>
       <c r="B25" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44331</v>
       </c>
       <c r="B26" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44332</v>
       </c>
       <c r="B27" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44333</v>
       </c>
       <c r="B28" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>44334</v>
       </c>
       <c r="B29" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>44335</v>
       </c>
       <c r="B30" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44336</v>
       </c>
       <c r="B31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -17641,6 +18296,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087C054FCA5F80F4F9EF4C079A0AA953F" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="77297ee86fb36985660db17124980350">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0cff0096-7bc3-4e6c-b62e-4230463993f3" xmlns:ns4="631ec5e7-17e7-426e-82ba-75703679dd22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cd490a95223f278e161b6508da34b79d" ns3:_="" ns4:_="">
     <xsd:import namespace="0cff0096-7bc3-4e6c-b62e-4230463993f3"/>
@@ -17849,36 +18519,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53468B28-FEE4-468E-8EFA-CD74F79D0A86}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F631A87-9721-48A5-8A39-9AD90FDC01C1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0cff0096-7bc3-4e6c-b62e-4230463993f3"/>
-    <ds:schemaRef ds:uri="631ec5e7-17e7-426e-82ba-75703679dd22"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -17901,9 +18545,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F631A87-9721-48A5-8A39-9AD90FDC01C1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53468B28-FEE4-468E-8EFA-CD74F79D0A86}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0cff0096-7bc3-4e6c-b62e-4230463993f3"/>
+    <ds:schemaRef ds:uri="631ec5e7-17e7-426e-82ba-75703679dd22"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/about/analytics.xlsx
+++ b/about/analytics.xlsx
@@ -1,38 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tereshchenkovevgeny/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e.a.tereshchenkov\OneDrive - METINVEST HOLDING, LLC\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AD482F-75F3-9F44-8EAB-1DC3DBCE7A35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="zen_2021-03-23_dumpof_transacti" sheetId="1" r:id="rId1"/>
     <sheet name="анализ" sheetId="2" r:id="rId2"/>
-    <sheet name="прогноз" sheetId="4" r:id="rId3"/>
-    <sheet name="ПП" sheetId="5" r:id="rId4"/>
-    <sheet name="Лист1" sheetId="6" r:id="rId5"/>
-    <sheet name="Лист2" sheetId="7" r:id="rId6"/>
-    <sheet name="календарь" sheetId="8" r:id="rId7"/>
+    <sheet name="Лист2" sheetId="7" r:id="rId3"/>
+    <sheet name="прогноз" sheetId="4" r:id="rId4"/>
+    <sheet name="ПП" sheetId="5" r:id="rId5"/>
+    <sheet name="Идеи" sheetId="9" r:id="rId6"/>
+    <sheet name="Наброски" sheetId="10" r:id="rId7"/>
+    <sheet name="Посты" sheetId="11" r:id="rId8"/>
+    <sheet name="Календарь" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'zen_2021-03-23_dumpof_transacti'!$A$1:$M$261</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId10"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="307">
   <si>
     <t>date</t>
   </si>
@@ -1130,33 +1131,6 @@
     </r>
   </si>
   <si>
-    <t>Техическая часть ведения бизнеса онлайн</t>
-  </si>
-  <si>
-    <t>Сервисы, инструменты, подходы</t>
-  </si>
-  <si>
-    <t>Стратегии и кейсы</t>
-  </si>
-  <si>
-    <t>Информационно развлекательный</t>
-  </si>
-  <si>
-    <t>цитаты, списки книг и фильмов, ревью новинок, разбор и примеры сайтов для вдохновения</t>
-  </si>
-  <si>
-    <t>Заголовок</t>
-  </si>
-  <si>
-    <t>Идея и посыл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Текст </t>
-  </si>
-  <si>
-    <t>Важность фирменного стиля и брендбука для #МСБ</t>
-  </si>
-  <si>
     <t>Сайт за роллтон</t>
   </si>
   <si>
@@ -1193,9 +1167,6 @@
     <t>Минимализм на сайте</t>
   </si>
   <si>
-    <t>Де Голль</t>
-  </si>
-  <si>
     <t>Сила заголовка</t>
   </si>
   <si>
@@ -1244,12 +1215,6 @@
     <t>Снижение стоимости рекламы</t>
   </si>
   <si>
-    <t>Главная инвестиция в сайт</t>
-  </si>
-  <si>
-    <t>домен</t>
-  </si>
-  <si>
     <t>Конструкторы сайтов</t>
   </si>
   <si>
@@ -1266,15 +1231,6 @@
   </si>
   <si>
     <t>Пять сил Портера</t>
-  </si>
-  <si>
-    <t>Словарь терминов</t>
-  </si>
-  <si>
-    <t>Что такое? Кто такой?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Наличие фирстиля сохранит вам n-е количество часов проведенных </t>
   </si>
   <si>
     <t>Брендинг. Фирменный стиль и брендбук для #МСБ</t>
@@ -1289,21 +1245,7 @@
 Единственная сложность, это добиться гармонии между логотипом, набором иконок, шрифтом, композицией и цветовой палитрой. Поэтому эффективнее найти бюджет и заказать разработку. А для тех, кто хочет попробовать сделать самостоятельно - делюсь своим шаблоном.</t>
   </si>
   <si>
-    <t xml:space="preserve">Если есть фирстиль и требования сокращаем бюджет разработки, или есть задача быстрого теста и сбора статистики. MVP
-</t>
-  </si>
-  <si>
-    <t>Фриланс биржи</t>
-  </si>
-  <si>
     <t>Пятница</t>
-  </si>
-  <si>
-    <t>исходя из ремонтопригодности</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лучше купите у конкурента чем обманывайте ожидания клиента.
-</t>
   </si>
   <si>
     <t>У вас есть захватывающая история развития бренда протяженностью в сто лет, где были взлеты и падения, гениальные решения и инновации, и все это читается на одном дыхании? В лучшем случае рассказывают какая компания классная, какие современные подходы использует или пишут о своей миссии и ценностях.
@@ -1388,110 +1330,28 @@
     <t>Фирстиль</t>
   </si>
   <si>
-    <t>Сила слова убийственна. Знали это еще в Древнем Риме. Знал это и генерал Шарль Де Голль, поддерживающий свою страну силой слова находясь за многие километры от нее. Правильно подобранные слова располагают к себе.
-Где найти хорошего автора и писателя? Этим вопросом задаются предприниматели у которых бизнес идет хорошо и есть средства на этих самых авторов. Начинающие бизнесмены, и повальное большинство #МСБ думают где сначала взять деньги, чтобы искать авторов и зачастую сами ведут свои социальные сети, пишут посты в них, обновляют тексты и описания на своих сайтах. Но ведь не все из нас талантливые писатели или хоть что-то в этом знающие, да и когда разбираться, если нужно заниматься поставками, складом, финансами, продажами и еще много чем? Есть ряд простых правил и сервисов которые помогут ваш текст сделать стройнее и вкуснее.
-Приведу то, что зашло лично мне, и пользуюсь этим постоянно:
-1. После точки или запятой всегда ставьте пробел. 
-2. Не допускайте двойных пробелов
-3. Дефис это дефис, а тире это тире, не стоит путать
-4. Используйте только кавычки елочки
-5. Грамматических ошибок быть ни в коем случае не должно
-Есть такая рассылка "Стандарты Мильчина". Она основана на "Справочнике издателя и автора". В рассылке собраны и рассказаны доступным языком основные правила работы с текстом. Стоит не дорого, советую приобрести и почитать.
-Сервис "Главред" - поможет убрать из текста языковой мусор, рекламные и журналистские штампы, а тексту придать информационный стиль. Простой и понятный интерфейс, бесплатное использование.
-Второй сервис которым я пользуюсь при работе с текстом это "Орфограммка". Я использую ее для проверки орфографии, пунктуации и благозвучия текста. Сервис хоть и платный, но стоит не дорого.</t>
-  </si>
-  <si>
-    <t>SEO</t>
-  </si>
-  <si>
-    <t>Ранжирование</t>
-  </si>
-  <si>
-    <t>Релевантность</t>
-  </si>
-  <si>
-    <t>CTR (click through rate)</t>
-  </si>
-  <si>
-    <t>CPC (cost per click)</t>
-  </si>
-  <si>
-    <t>SMO (social media optimization)</t>
-  </si>
-  <si>
-    <t>Конверсия</t>
-  </si>
-  <si>
-    <t>CTA (call to action)</t>
-  </si>
-  <si>
-    <t>Лид</t>
-  </si>
-  <si>
-    <t>Органический трафик</t>
-  </si>
-  <si>
-    <t>Google Analytics</t>
-  </si>
-  <si>
-    <t>Яндекс Метрика</t>
-  </si>
-  <si>
-    <t>Метатеги</t>
-  </si>
-  <si>
-    <t>Тошнота текста</t>
-  </si>
-  <si>
-    <t>Доменное имя</t>
-  </si>
-  <si>
-    <t>ЧПУ</t>
-  </si>
-  <si>
-    <t>SMM (social media marketing)</t>
-  </si>
-  <si>
-    <t>Сервер</t>
-  </si>
-  <si>
-    <t>Хостинг</t>
-  </si>
-  <si>
-    <t>IP адрес</t>
-  </si>
-  <si>
-    <t>DNS сервер (domain name server)</t>
-  </si>
-  <si>
-    <t>HTML (hyper text markup language)</t>
-  </si>
-  <si>
-    <t>CSS (cascading style sheets)</t>
-  </si>
-  <si>
-    <t>CMS (content managenet system)</t>
-  </si>
-  <si>
-    <t>URL (universal resource locator)</t>
-  </si>
-  <si>
-    <t>Айдентика</t>
-  </si>
-  <si>
-    <t>Брендбук</t>
-  </si>
-  <si>
-    <t>Макет</t>
-  </si>
-  <si>
-    <t>Адаптив</t>
-  </si>
-  <si>
-    <t>Экран</t>
-  </si>
-  <si>
-    <t>Страница</t>
+    <t>Викторины и квиз сайты</t>
+  </si>
+  <si>
+    <t>SEO или контекст</t>
+  </si>
+  <si>
+    <t>Зачем раздел "обо мне"</t>
+  </si>
+  <si>
+    <t>Миссия, цели и стратегия</t>
+  </si>
+  <si>
+    <t>Стэйклхолдеры проекта</t>
+  </si>
+  <si>
+    <t>Кто такие ПМы?</t>
+  </si>
+  <si>
+    <t>Фриланс биржи. https://vc.ru/services/144013-o-nabolevshem-uskorenie-i-optimizaciya-wordpress</t>
+  </si>
+  <si>
+    <t>Если ничего не объясню, по тексту ниже будет же понятно о чём буду писать?</t>
   </si>
   <si>
     <t>Айдентика — Визуальный образ для точной идентификации бренда.</t>
@@ -1503,9 +1363,18 @@
     <t>Брендбук — Руководство по работе с фирменным стилем.</t>
   </si>
   <si>
+    <t>Макет — Визуальное представление страницы сайта, как правило, в графическом редакторе.</t>
+  </si>
+  <si>
     <t>Адаптив — Способность сайта к работе на устройствах с разными диагоналями дисплея.</t>
   </si>
   <si>
+    <t>Экран — Часть макета которая, отображена на дисплее за один раз. Иногда называют блоком.</t>
+  </si>
+  <si>
+    <t>Страница — Одна страница сайта состоящая из нескольких экранов.</t>
+  </si>
+  <si>
     <t>Доменное имя — Название сайта.</t>
   </si>
   <si>
@@ -1515,9 +1384,27 @@
     <t>Хостинг — Услуга по предоставлению места на сервере.</t>
   </si>
   <si>
+    <t>IP адрес — Уникальный сетевой адрес по которому размещён сайт.</t>
+  </si>
+  <si>
+    <t>DNS сервер (domain name server) — Сервер где хранятся имена сайтов и их сетевые адреса. Другими словами, домен = IP адрес.</t>
+  </si>
+  <si>
+    <t>HTML (hypertext markup language) — Язык разметки текста. Составляет основу интернет-страницы.</t>
+  </si>
+  <si>
+    <t>CSS (cascading style sheets) — Таблица стилей. При помощи её стилизуется документ html.</t>
+  </si>
+  <si>
+    <t>CMS (content management system) — Система управления контентом сайта.</t>
+  </si>
+  <si>
     <t>SEO — Search Engine Optimization или оптимизация под поисковые системы. </t>
   </si>
   <si>
+    <t>Ранжирование — Упорядоченная поисковая выдача по запросу пользователя. Другими словами, сортировка сайта исходя из запроса.</t>
+  </si>
+  <si>
     <t>Релевантность — Соответствие поисковой выдаче запросу.</t>
   </si>
   <si>
@@ -1539,40 +1426,13 @@
     <t>Лид — Совокупность методов для привлечения целевого посетителя на сайт.</t>
   </si>
   <si>
+    <t>Органический трафик — Посетители которые приходят на сайт из неоплаченных каналов (как правило это поисковая выдача).</t>
+  </si>
+  <si>
     <t>Google Analytics — Сервис сбора статистики посещаемости сайта от Google.</t>
   </si>
   <si>
     <t>Тошнота текста — Частота повторения одинаковых слов в текстовом документе.</t>
-  </si>
-  <si>
-    <t>Макет — Визуальное представление страницы сайта, как правило, в графическом редакторе.</t>
-  </si>
-  <si>
-    <t>Экран — Часть макета которая, отображена на дисплее за один раз. Иногда называют блоком.</t>
-  </si>
-  <si>
-    <t>Страница — Одна страница сайта состоящая из нескольких экранов.</t>
-  </si>
-  <si>
-    <t>IP адрес — Уникальный сетевой адрес по которому размещён сайт.</t>
-  </si>
-  <si>
-    <t>DNS сервер (domain name server) — Сервер где хранятся имена сайтов и их сетевые адреса. Другими словами, домен = IP адрес.</t>
-  </si>
-  <si>
-    <t>HTML (hypertext markup language) — Язык разметки текста. Составляет основу интернет-страницы.</t>
-  </si>
-  <si>
-    <t>CSS (cascading style sheets) — Таблица стилей. При помощи её стилизуется документ html.</t>
-  </si>
-  <si>
-    <t>CMS (content management system) — Система управления контентом сайта.</t>
-  </si>
-  <si>
-    <t>Ранжирование — Упорядоченная поисковая выдача по запросу пользователя. Другими словами, сортировка сайта исходя из запроса.</t>
-  </si>
-  <si>
-    <t>Органический трафик — Посетители которые приходят на сайт из неоплаченных каналов (как правило это поисковая выдача).</t>
   </si>
   <si>
     <t>ЧПУ — Человекоподобный URL. Прописанный латиницей  адрес в понятном для человека виде.</t>
@@ -1590,22 +1450,46 @@
 7. Укажите резервный адрес электронной почты в ЛК регистратора.
 В них нет ничего сложного, они не требуют много времени на реализацию, главное — побороть лень и потратить полчаса на исключение возможных потерь в будущем.
 Дополнительные варианты защиты, которые применяются — это регистрация пула доменных имён, созвучных с основным, с возможными вариантами ошибок и опечаток которые могут случайно допустить потенциальные клиенты, или специально использовать злоумышленники в фишинговых сайтах. Не скажу что это необходимая статья затрат для #МСБ, но знать о таких вещах всё же нужно. 
-Ещё один важный момент при выборе и регистрации доменного имени —его доступность в разных зонах.
+Ещё один важный момент при выборе и регистрации доменного имени — его доступность в разных зонах.
 К примеру: локальный бизнес в Киеве принял решение вести торговлю онлайн по Украине. Регистрирует доменное имя в зонах com.ua, biz.ua, kiev.ua, основной сайт размещает на com.ua, и ставит редирект с двух остальных доменов на основной (это значит что введя в адресной строке браузера имя сайта и домен kiev.ua, вы попадёте всё равно на сайт размещённый по адресу com.ua). В какой-то момент времени бизнес выходит на рынок, скажем одной из областей с локальным предложением. Создаёт лендинг с этим предложением и размещает его в доменной зоне kh.ua, но доменное имя такое же, как и на основном сайте. Для этого сайта отдельная стратегия SEO продвижения, отдельная настройка контекстной рекламы, и весь трафик из области направлен на локальный сайт. Или же весь трафик идёт на основной сайт, а с него редирект по географическому признаку.
 Вариантов работы с трафиком, техник продаж существует огромная масса, поэтому при выборе доменного желательно прорабатывать варианты развития бизнеса, и если не сразу регистрировать пул доменных имён, то как минимум удостовериться, что они свободны и доступны к регистрации.</t>
   </si>
   <si>
-    <t>Если ничего не объясню, по тексту ниже будет же понятно о чём буду писать?</t>
+    <t>Сила слова убийственна. Знали это еще в Древнем Риме. Знал это и генерал Шарль Де Голль, поддерживающий свою страну силой слова находясь за многие километры от нее. Правильно подобранные слова располагают к себе.
+Где найти хорошего автора и писателя? Этим вопросом задаются предприниматели у которых бизнес идет хорошо и есть средства на этих самых авторов. Начинающие бизнесмены, и повальное большинство #МСБ думают сначала где взять деньги, чтобы искать авторов и зачастую сами ведут свои социальные сети, пишут посты в них, обновляют тексты и описания на своих сайтах. Но ведь не все из нас талантливые писатели или хоть что-то в этом знающие, да и когда разбираться, если нужно заниматься поставками, складом, финансами, продажами и еще много чем? Есть ряд простых правил и сервисов которые помогут ваш текст сделать стройнее и вкуснее.
+Приведу то, что зашло лично мне, и пользуюсь этим постоянно:
+1. После точки или запятой всегда ставьте пробел. 
+2. Не допускайте двойных пробелов
+3. Дефис это дефис, а тире это тире, не стоит путать
+4. Используйте только кавычки елочки
+5. Грамматических ошибок быть ни в коем случае не должно
+Есть такая рассылка "Стандарты Мильчина". Она основана на "Справочнике издателя и автора". В рассылке собраны и рассказаны доступным языком основные правила работы с текстом. Стоит не дорого, советую приобрести и почитать.
+Сервис "Главред" - поможет убрать из текста языковой мусор, рекламные и журналистские штампы, а тексту придать информационный стиль. Простой и понятный интерфейс, бесплатное использование.
+Второй сервис которым я пользуюсь при работе с текстом это "Орфограммка". Я использую ее для проверки орфографии, пунктуации и благозвучия текста. Сервис хоть и платный, но стоит не дорого.</t>
+  </si>
+  <si>
+    <t>Сила слова имеет огромное значение. Сейчас главный тренд — визуальная подача контента и обилие анимации, способной вызвать приступ даже у здорового человека, но при этом не забывайте, что благодаря хорошему тексту на сайте можно расположить к себе, превратить посетителя в клиента. За пять абзацев на странице рассказать историю и получить приверженца бренда. 
+Вот только где найти хорошего автора и писателя? Этим вопросом задаются предприниматели, у которых бизнес идёт хорошо и есть средства на этих самых авторов. Начинающие же бизнесмены, и повальное большинство #МСБ думают сначала, как увеличить продажи и как следствие появились средства, чтобы искать авторов и зачастую сами ведут свои социальные сети, пишут посты в них, обновляют тексты и описания на своих сайтах. Но ведь не все из нас талантливые писатели или хоть что-то в этом знающие, да и когда разбираться, если нужно заниматься поставками, складом, финансами, продажами и ещё много чем? Есть ряд простых правил и сервисов которые помогут ваш текст сделать стройнее и вкуснее.
+Приведу то, что зашло мне, и пользуюсь этим постоянно:
+1.Рассылка «Стандарты Мильчина». Она основана на «Справочнике издателя и автора». В рассылке собраны и рассказаны доступным языком основные правила работы с текстом. Стоит недорого, советую приобрести и почитать;
+2.Сервис «Главред» поможет убрать из текста языковой мусор, рекламные и журналистские штампы, а тексту придать информационный стиль. Простой и понятный интерфейс, бесплатное использование;
+3.Второй сервис которым работаю, это «Орфограммка». Я использую ее для проверки орфографии, пунктуации и благозвучия текста. Сервис хоть и платный, но стоит недорого.
+Пять правил, которые применяю постоянно при написании текста:
+1. После точки или запятой всегда ставьте пробел;
+2. Не допускайте двойных пробелов;
+3. Дефис это дефис, а тире это тире, не стоит путать;
+4. Используйте только кавычки ёлочки;
+5. Грамматических ошибок ни в коем случае не должно быть.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1767,16 +1651,8 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1974,8 +1850,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -2214,6 +2096,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2259,7 +2150,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2317,51 +2208,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Акцент4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Акцент5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Акцент6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ввод " xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Вывод" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Вычисление" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Заголовок 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Заголовок 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Итог" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Контрольная ячейка" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Нейтральный" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Примечание" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Связанная ячейка" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -2438,7 +2341,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Терещенков Евгений Александрович" refreshedDate="44278.55520451389" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="280" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Терещенков Евгений Александрович" refreshedDate="44278.55520451389" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="280">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:M1048576" sheet="zen_2021-03-23_dumpof_transacti"/>
   </cacheSource>
@@ -6720,7 +6623,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Сводная таблица1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -6841,9 +6744,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -7111,26 +7011,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C264" sqref="C264"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7171,7 +7071,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44278</v>
       </c>
@@ -7209,7 +7109,7 @@
         <v>44278.292800925927</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44278</v>
       </c>
@@ -7244,7 +7144,7 @@
         <v>44278.292800925927</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44277</v>
       </c>
@@ -7279,7 +7179,7 @@
         <v>44277.656377314815</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44277</v>
       </c>
@@ -7317,7 +7217,7 @@
         <v>44277.632962962962</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44277</v>
       </c>
@@ -7355,7 +7255,7 @@
         <v>44277.632962962962</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44277</v>
       </c>
@@ -7393,7 +7293,7 @@
         <v>44277.632962962962</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44277</v>
       </c>
@@ -7431,7 +7331,7 @@
         <v>44277.632962962962</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44277</v>
       </c>
@@ -7466,7 +7366,7 @@
         <v>44277.632962962962</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44276</v>
       </c>
@@ -7501,7 +7401,7 @@
         <v>44276.606874999998</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44276</v>
       </c>
@@ -7536,7 +7436,7 @@
         <v>44276.606874999998</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44275</v>
       </c>
@@ -7571,7 +7471,7 @@
         <v>44275.85</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44275</v>
       </c>
@@ -7606,7 +7506,7 @@
         <v>44275.49422453704</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44275</v>
       </c>
@@ -7644,7 +7544,7 @@
         <v>44275.428171296298</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44275</v>
       </c>
@@ -7679,7 +7579,7 @@
         <v>44275.012962962966</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44274</v>
       </c>
@@ -7714,7 +7614,7 @@
         <v>44275.402106481481</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44274</v>
       </c>
@@ -7749,7 +7649,7 @@
         <v>44274.875</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44274</v>
       </c>
@@ -7781,7 +7681,7 @@
         <v>44274.875</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44274</v>
       </c>
@@ -7816,7 +7716,7 @@
         <v>44274.875</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44274</v>
       </c>
@@ -7848,7 +7748,7 @@
         <v>44274.875</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44274</v>
       </c>
@@ -7883,7 +7783,7 @@
         <v>44274.794374999998</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44274</v>
       </c>
@@ -7915,7 +7815,7 @@
         <v>44274.875</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44274</v>
       </c>
@@ -7950,7 +7850,7 @@
         <v>44274.769004629627</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44274</v>
       </c>
@@ -7988,7 +7888,7 @@
         <v>44274.508067129631</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44274</v>
       </c>
@@ -8023,7 +7923,7 @@
         <v>44274.467951388891</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44274</v>
       </c>
@@ -8061,7 +7961,7 @@
         <v>44274.4528587963</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44273</v>
       </c>
@@ -8093,7 +7993,7 @@
         <v>44273.845625000002</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44273</v>
       </c>
@@ -8128,7 +8028,7 @@
         <v>44273.845625000002</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44273</v>
       </c>
@@ -8163,7 +8063,7 @@
         <v>44273.806400462963</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44273</v>
       </c>
@@ -8198,7 +8098,7 @@
         <v>44273.806400462963</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44272</v>
       </c>
@@ -8233,7 +8133,7 @@
         <v>44273.845578703702</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44272</v>
       </c>
@@ -8268,7 +8168,7 @@
         <v>44272.924629629626</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44271</v>
       </c>
@@ -8303,7 +8203,7 @@
         <v>44271.807812500003</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44271</v>
       </c>
@@ -8338,7 +8238,7 @@
         <v>44271.807812500003</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44271</v>
       </c>
@@ -8373,7 +8273,7 @@
         <v>44271.807812500003</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44271</v>
       </c>
@@ -8408,7 +8308,7 @@
         <v>44271.807812500003</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44271</v>
       </c>
@@ -8443,7 +8343,7 @@
         <v>44271.720763888887</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44271</v>
       </c>
@@ -8478,7 +8378,7 @@
         <v>44271.72252314815</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44271</v>
       </c>
@@ -8516,7 +8416,7 @@
         <v>44271.711863425924</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44270</v>
       </c>
@@ -8551,7 +8451,7 @@
         <v>44270.688645833332</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>44269</v>
       </c>
@@ -8586,7 +8486,7 @@
         <v>44269.813310185185</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44269</v>
       </c>
@@ -8621,7 +8521,7 @@
         <v>44269.813310185185</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44269</v>
       </c>
@@ -8656,7 +8556,7 @@
         <v>44269.644421296296</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44269</v>
       </c>
@@ -8694,7 +8594,7 @@
         <v>44268.875011574077</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44269</v>
       </c>
@@ -8732,7 +8632,7 @@
         <v>44268.875011574077</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44268</v>
       </c>
@@ -8767,7 +8667,7 @@
         <v>44268.787349537037</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44268</v>
       </c>
@@ -8802,7 +8702,7 @@
         <v>44268.780949074076</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44268</v>
       </c>
@@ -8837,7 +8737,7 @@
         <v>44268.780949074076</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44268</v>
       </c>
@@ -8872,7 +8772,7 @@
         <v>44268.780949074076</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>44267</v>
       </c>
@@ -8907,7 +8807,7 @@
         <v>44268.875011574077</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>44267</v>
       </c>
@@ -8942,7 +8842,7 @@
         <v>44267.791168981479</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>44266</v>
       </c>
@@ -8977,7 +8877,7 @@
         <v>44266.766921296294</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>44266</v>
       </c>
@@ -9012,7 +8912,7 @@
         <v>44266.458333333336</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>44265</v>
       </c>
@@ -9047,7 +8947,7 @@
         <v>44265.746319444443</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>44265</v>
       </c>
@@ -9082,7 +8982,7 @@
         <v>44265.746319444443</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>44264</v>
       </c>
@@ -9117,7 +9017,7 @@
         <v>44264.83320601852</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>44264</v>
       </c>
@@ -9152,7 +9052,7 @@
         <v>44264.706203703703</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>44264</v>
       </c>
@@ -9187,7 +9087,7 @@
         <v>44264.706203703703</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>44264</v>
       </c>
@@ -9222,7 +9122,7 @@
         <v>44264.459097222221</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>44264</v>
       </c>
@@ -9257,7 +9157,7 @@
         <v>44264.457604166666</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>44263</v>
       </c>
@@ -9292,7 +9192,7 @@
         <v>44263.952847222223</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>44263</v>
       </c>
@@ -9327,7 +9227,7 @@
         <v>44263.750474537039</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>44263</v>
       </c>
@@ -9365,7 +9265,7 @@
         <v>44263.750474537039</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>44263</v>
       </c>
@@ -9394,7 +9294,7 @@
         <v>44263.49554398148</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>44263</v>
       </c>
@@ -9426,7 +9326,7 @@
         <v>44263.49554398148</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>44263</v>
       </c>
@@ -9461,7 +9361,7 @@
         <v>44263.492175925923</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>44263</v>
       </c>
@@ -9493,7 +9393,7 @@
         <v>44263.459027777775</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>44263</v>
       </c>
@@ -9528,7 +9428,7 @@
         <v>44263.459027777775</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>44263</v>
       </c>
@@ -9560,7 +9460,7 @@
         <v>44263.459027777775</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>44262</v>
       </c>
@@ -9595,7 +9495,7 @@
         <v>44263.337824074071</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>44262</v>
       </c>
@@ -9630,7 +9530,7 @@
         <v>44262.881550925929</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>44261</v>
       </c>
@@ -9665,7 +9565,7 @@
         <v>44264.459097222221</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>44261</v>
       </c>
@@ -9700,7 +9600,7 @@
         <v>44263.459027777775</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>44261</v>
       </c>
@@ -9735,7 +9635,7 @@
         <v>44261.684490740743</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>44261</v>
       </c>
@@ -9770,7 +9670,7 @@
         <v>44261.684490740743</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>44261</v>
       </c>
@@ -9802,7 +9702,7 @@
         <v>44261.684490740743</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>44261</v>
       </c>
@@ -9834,7 +9734,7 @@
         <v>44261.684490740743</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>44261</v>
       </c>
@@ -9866,7 +9766,7 @@
         <v>44261.684490740743</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>44261</v>
       </c>
@@ -9898,7 +9798,7 @@
         <v>44261.684490740743</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>44261</v>
       </c>
@@ -9933,7 +9833,7 @@
         <v>44261.684490740743</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>44261</v>
       </c>
@@ -9971,7 +9871,7 @@
         <v>44261.385439814818</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>44261</v>
       </c>
@@ -10009,7 +9909,7 @@
         <v>44261.321134259262</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>44260</v>
       </c>
@@ -10044,7 +9944,7 @@
         <v>44260.931712962964</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>44260</v>
       </c>
@@ -10079,7 +9979,7 @@
         <v>44260.931712962964</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>44260</v>
       </c>
@@ -10114,7 +10014,7 @@
         <v>44260.685196759259</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>44259</v>
       </c>
@@ -10149,7 +10049,7 @@
         <v>44261.684490740743</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>44259</v>
       </c>
@@ -10184,7 +10084,7 @@
         <v>44261.684490740743</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>44259</v>
       </c>
@@ -10216,7 +10116,7 @@
         <v>44261.684490740743</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>44259</v>
       </c>
@@ -10248,7 +10148,7 @@
         <v>44259.684606481482</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>44258</v>
       </c>
@@ -10283,7 +10183,7 @@
         <v>44259.684606481482</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>44258</v>
       </c>
@@ -10321,7 +10221,7 @@
         <v>44259.684606481482</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>44258</v>
       </c>
@@ -10356,7 +10256,7 @@
         <v>44259.684606481482</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>44258</v>
       </c>
@@ -10394,7 +10294,7 @@
         <v>44259.682685185187</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>44258</v>
       </c>
@@ -10429,7 +10329,7 @@
         <v>44259.681840277779</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>44258</v>
       </c>
@@ -10464,7 +10364,7 @@
         <v>44258.776377314818</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>44256</v>
       </c>
@@ -10499,7 +10399,7 @@
         <v>44256.788206018522</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>44256</v>
       </c>
@@ -10534,7 +10434,7 @@
         <v>44256.522824074076</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>44255</v>
       </c>
@@ -10569,7 +10469,7 @@
         <v>44255.761145833334</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>44255</v>
       </c>
@@ -10604,7 +10504,7 @@
         <v>44255.526562500003</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>44255</v>
       </c>
@@ -10639,7 +10539,7 @@
         <v>44255.526562500003</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>44255</v>
       </c>
@@ -10674,7 +10574,7 @@
         <v>44255.526562500003</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>44255</v>
       </c>
@@ -10706,7 +10606,7 @@
         <v>44254.459039351852</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>44254</v>
       </c>
@@ -10738,7 +10638,7 @@
         <v>44254.459039351852</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>44254</v>
       </c>
@@ -10773,7 +10673,7 @@
         <v>44254.459039351852</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>44254</v>
       </c>
@@ -10805,7 +10705,7 @@
         <v>44254.459039351852</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>44253</v>
       </c>
@@ -10840,7 +10740,7 @@
         <v>44253.691817129627</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>44253</v>
       </c>
@@ -10878,7 +10778,7 @@
         <v>44253.691817129627</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>44252</v>
       </c>
@@ -10910,7 +10810,7 @@
         <v>44252.875011574077</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>44252</v>
       </c>
@@ -10942,7 +10842,7 @@
         <v>44252.875011574077</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>44252</v>
       </c>
@@ -10974,7 +10874,7 @@
         <v>44252.875011574077</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>44252</v>
       </c>
@@ -11006,7 +10906,7 @@
         <v>44252.875011574077</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>44252</v>
       </c>
@@ -11038,7 +10938,7 @@
         <v>44252.875011574077</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>44252</v>
       </c>
@@ -11073,7 +10973,7 @@
         <v>44252.875011574077</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>44252</v>
       </c>
@@ -11105,7 +11005,7 @@
         <v>44252.875011574077</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>44252</v>
       </c>
@@ -11140,7 +11040,7 @@
         <v>44252.875011574077</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>44252</v>
       </c>
@@ -11172,7 +11072,7 @@
         <v>44252.875011574077</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>44252</v>
       </c>
@@ -11204,7 +11104,7 @@
         <v>44252.875011574077</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>44252</v>
       </c>
@@ -11239,7 +11139,7 @@
         <v>44252.740798611114</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>44251</v>
       </c>
@@ -11274,7 +11174,7 @@
         <v>44251.547974537039</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>44250</v>
       </c>
@@ -11309,7 +11209,7 @@
         <v>44250.891365740739</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>44250</v>
       </c>
@@ -11344,7 +11244,7 @@
         <v>44250.891365740739</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>44250</v>
       </c>
@@ -11379,7 +11279,7 @@
         <v>44250.891365740739</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>44249</v>
       </c>
@@ -11411,7 +11311,7 @@
         <v>44249.8750462963</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>44249</v>
       </c>
@@ -11443,7 +11343,7 @@
         <v>44249.8750462963</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>44249</v>
       </c>
@@ -11481,7 +11381,7 @@
         <v>44249.691238425927</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>44249</v>
       </c>
@@ -11516,7 +11416,7 @@
         <v>44249.65152777778</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>44249</v>
       </c>
@@ -11554,7 +11454,7 @@
         <v>44249.65152777778</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>44248</v>
       </c>
@@ -11586,7 +11486,7 @@
         <v>44249.8750462963</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>44248</v>
       </c>
@@ -11621,7 +11521,7 @@
         <v>44248.81355324074</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>44248</v>
       </c>
@@ -11659,7 +11559,7 @@
         <v>44248.712094907409</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>44247</v>
       </c>
@@ -11694,7 +11594,7 @@
         <v>44248.384733796294</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>44247</v>
       </c>
@@ -11732,7 +11632,7 @@
         <v>44247.537430555552</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>44247</v>
       </c>
@@ -11770,7 +11670,7 @@
         <v>44247.537430555552</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>44246</v>
       </c>
@@ -11805,7 +11705,7 @@
         <v>44246.944131944445</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>44246</v>
       </c>
@@ -11840,7 +11740,7 @@
         <v>44246.944131944445</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>44246</v>
       </c>
@@ -11875,7 +11775,7 @@
         <v>44246.944131944445</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>44246</v>
       </c>
@@ -11910,7 +11810,7 @@
         <v>44246.944131944445</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>44246</v>
       </c>
@@ -11945,7 +11845,7 @@
         <v>44246.688078703701</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>44246</v>
       </c>
@@ -11980,7 +11880,7 @@
         <v>44246.638252314813</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>44245</v>
       </c>
@@ -12012,7 +11912,7 @@
         <v>44245.875011574077</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>44245</v>
       </c>
@@ -12044,7 +11944,7 @@
         <v>44245.875011574077</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>44245</v>
       </c>
@@ -12076,7 +11976,7 @@
         <v>44245.458333333336</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>44244</v>
       </c>
@@ -12114,7 +12014,7 @@
         <v>44244.98574074074</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>44244</v>
       </c>
@@ -12149,7 +12049,7 @@
         <v>44244.686296296299</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>44243</v>
       </c>
@@ -12184,7 +12084,7 @@
         <v>44244.063263888886</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>44243</v>
       </c>
@@ -12219,7 +12119,7 @@
         <v>44243.641562500001</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>44243</v>
       </c>
@@ -12254,7 +12154,7 @@
         <v>44243.641562500001</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>44242</v>
       </c>
@@ -12289,7 +12189,7 @@
         <v>44243.024062500001</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>44242</v>
       </c>
@@ -12324,7 +12224,7 @@
         <v>44242.803055555552</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>44242</v>
       </c>
@@ -12359,7 +12259,7 @@
         <v>44242.803055555552</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>44242</v>
       </c>
@@ -12394,7 +12294,7 @@
         <v>44242.696689814817</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>44242</v>
       </c>
@@ -12429,7 +12329,7 @@
         <v>44242.696689814817</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>44242</v>
       </c>
@@ -12464,7 +12364,7 @@
         <v>44242.696689814817</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>44241</v>
       </c>
@@ -12496,7 +12396,7 @@
         <v>44241.75917824074</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>44241</v>
       </c>
@@ -12528,7 +12428,7 @@
         <v>44241.75917824074</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>44240</v>
       </c>
@@ -12563,7 +12463,7 @@
         <v>44240.753101851849</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>44240</v>
       </c>
@@ -12601,7 +12501,7 @@
         <v>44240.753101851849</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>44240</v>
       </c>
@@ -12636,7 +12536,7 @@
         <v>44240.753101851849</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>44240</v>
       </c>
@@ -12671,7 +12571,7 @@
         <v>44240.753101851849</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>44240</v>
       </c>
@@ -12706,7 +12606,7 @@
         <v>44240.753101851849</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>44240</v>
       </c>
@@ -12741,7 +12641,7 @@
         <v>44240.561886574076</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>44240</v>
       </c>
@@ -12776,7 +12676,7 @@
         <v>44240.0937037037</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>44239</v>
       </c>
@@ -12808,7 +12708,7 @@
         <v>44239.781122685185</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>44239</v>
       </c>
@@ -12840,7 +12740,7 @@
         <v>44239.779189814813</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>44239</v>
       </c>
@@ -12872,7 +12772,7 @@
         <v>44239.779189814813</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>44239</v>
       </c>
@@ -12904,7 +12804,7 @@
         <v>44239.779189814813</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>44239</v>
       </c>
@@ -12939,7 +12839,7 @@
         <v>44239.779189814813</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>44239</v>
       </c>
@@ -12974,7 +12874,7 @@
         <v>44239.779189814813</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>44239</v>
       </c>
@@ -13006,7 +12906,7 @@
         <v>44239.779189814813</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>44239</v>
       </c>
@@ -13041,7 +12941,7 @@
         <v>44239.580601851849</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>44239</v>
       </c>
@@ -13076,7 +12976,7 @@
         <v>44239.363946759258</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>44239</v>
       </c>
@@ -13114,7 +13014,7 @@
         <v>44239.363946759258</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>44238</v>
       </c>
@@ -13149,7 +13049,7 @@
         <v>44238.766504629632</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>44238</v>
       </c>
@@ -13184,7 +13084,7 @@
         <v>44238.766504629632</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>44238</v>
       </c>
@@ -13219,7 +13119,7 @@
         <v>44238.735381944447</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>44238</v>
       </c>
@@ -13254,7 +13154,7 @@
         <v>44238.735381944447</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>44238</v>
       </c>
@@ -13289,7 +13189,7 @@
         <v>44238.735381944447</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>44238</v>
       </c>
@@ -13327,7 +13227,7 @@
         <v>44238.735381944447</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>44238</v>
       </c>
@@ -13362,7 +13262,7 @@
         <v>44238.59175925926</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>44237</v>
       </c>
@@ -13397,7 +13297,7 @@
         <v>44237.695081018515</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>44237</v>
       </c>
@@ -13432,7 +13332,7 @@
         <v>44237.695081018515</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>44237</v>
       </c>
@@ -13467,7 +13367,7 @@
         <v>44237.695081018515</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>44237</v>
       </c>
@@ -13505,7 +13405,7 @@
         <v>44237.695081018515</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>44237</v>
       </c>
@@ -13543,7 +13443,7 @@
         <v>44237.650763888887</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>44236</v>
       </c>
@@ -13575,7 +13475,7 @@
         <v>44239.580601851849</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>44236</v>
       </c>
@@ -13607,7 +13507,7 @@
         <v>44239.580601851849</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>44236</v>
       </c>
@@ -13642,7 +13542,7 @@
         <v>44236.802835648145</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>44236</v>
       </c>
@@ -13677,7 +13577,7 @@
         <v>44236.715856481482</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>44236</v>
       </c>
@@ -13712,7 +13612,7 @@
         <v>44236.715856481482</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>44235</v>
       </c>
@@ -13750,7 +13650,7 @@
         <v>44239.730162037034</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>44235</v>
       </c>
@@ -13782,7 +13682,7 @@
         <v>44235.789421296293</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>44235</v>
       </c>
@@ -13814,7 +13714,7 @@
         <v>44235.789421296293</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>44235</v>
       </c>
@@ -13849,7 +13749,7 @@
         <v>44235.789421296293</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>44235</v>
       </c>
@@ -13884,7 +13784,7 @@
         <v>44235.789421296293</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>44234</v>
       </c>
@@ -13919,7 +13819,7 @@
         <v>44234.580150462964</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>44234</v>
       </c>
@@ -13954,7 +13854,7 @@
         <v>44234.580150462964</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>44234</v>
       </c>
@@ -13989,7 +13889,7 @@
         <v>44234.555173611108</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>44234</v>
       </c>
@@ -14024,7 +13924,7 @@
         <v>44234.47184027778</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>44234</v>
       </c>
@@ -14062,7 +13962,7 @@
         <v>44234.47184027778</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>44233</v>
       </c>
@@ -14097,7 +13997,7 @@
         <v>44234.47184027778</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>44233</v>
       </c>
@@ -14135,7 +14035,7 @@
         <v>44233.921134259261</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>44233</v>
       </c>
@@ -14170,7 +14070,7 @@
         <v>44233.650787037041</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>44233</v>
       </c>
@@ -14205,7 +14105,7 @@
         <v>44233.603055555555</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>44233</v>
       </c>
@@ -14243,7 +14143,7 @@
         <v>44233.599224537036</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>44233</v>
       </c>
@@ -14278,7 +14178,7 @@
         <v>44233.564143518517</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>44232</v>
       </c>
@@ -14316,7 +14216,7 @@
         <v>44232.860173611109</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>44232</v>
       </c>
@@ -14348,7 +14248,7 @@
         <v>44232.82712962963</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>44232</v>
       </c>
@@ -14383,7 +14283,7 @@
         <v>44232.82640046296</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>44232</v>
       </c>
@@ -14418,7 +14318,7 @@
         <v>44232.686608796299</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>44232</v>
       </c>
@@ -14456,7 +14356,7 @@
         <v>44232.674328703702</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>44232</v>
       </c>
@@ -14491,7 +14391,7 @@
         <v>44232.674328703702</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>44232</v>
       </c>
@@ -14526,7 +14426,7 @@
         <v>44232.674328703702</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>44232</v>
       </c>
@@ -14561,7 +14461,7 @@
         <v>44232.67</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>44232</v>
       </c>
@@ -14596,7 +14496,7 @@
         <v>44232.67</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>44231</v>
       </c>
@@ -14631,7 +14531,7 @@
         <v>44231.94122685185</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>44231</v>
       </c>
@@ -14666,7 +14566,7 @@
         <v>44231.94122685185</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>44231</v>
       </c>
@@ -14701,7 +14601,7 @@
         <v>44231.94122685185</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>44231</v>
       </c>
@@ -14736,7 +14636,7 @@
         <v>44231.355636574073</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>44230</v>
       </c>
@@ -14771,7 +14671,7 @@
         <v>44230.803379629629</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>44230</v>
       </c>
@@ -14806,7 +14706,7 @@
         <v>44230.788217592592</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>44230</v>
       </c>
@@ -14844,7 +14744,7 @@
         <v>44230.788217592592</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>44230</v>
       </c>
@@ -14879,7 +14779,7 @@
         <v>44230.788217592592</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>44229</v>
       </c>
@@ -14911,7 +14811,7 @@
         <v>44229.875196759262</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>44228</v>
       </c>
@@ -14949,7 +14849,7 @@
         <v>44228.979988425926</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>44228</v>
       </c>
@@ -14984,7 +14884,7 @@
         <v>44228.770624999997</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>44228</v>
       </c>
@@ -15019,7 +14919,7 @@
         <v>44228.770624999997</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>44227</v>
       </c>
@@ -15054,7 +14954,7 @@
         <v>44227.783310185187</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>44227</v>
       </c>
@@ -15092,7 +14992,7 @@
         <v>44227.740104166667</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>44226</v>
       </c>
@@ -15127,7 +15027,7 @@
         <v>44226.936655092592</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>44225</v>
       </c>
@@ -15165,7 +15065,7 @@
         <v>44225.812719907408</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>44225</v>
       </c>
@@ -15203,7 +15103,7 @@
         <v>44225.810497685183</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>44225</v>
       </c>
@@ -15235,7 +15135,7 @@
         <v>44225.810497685183</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>44225</v>
       </c>
@@ -15273,7 +15173,7 @@
         <v>44225.009722222225</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>44225</v>
       </c>
@@ -15311,7 +15211,7 @@
         <v>44225.009722222225</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>44224</v>
       </c>
@@ -15343,7 +15243,7 @@
         <v>44224.70239583333</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>44224</v>
       </c>
@@ -15378,7 +15278,7 @@
         <v>44224.70207175926</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>44224</v>
       </c>
@@ -15413,7 +15313,7 @@
         <v>44224.667430555557</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>44224</v>
       </c>
@@ -15451,7 +15351,7 @@
         <v>44224.667430555557</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>44224</v>
       </c>
@@ -15486,7 +15386,7 @@
         <v>44224.656099537038</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>44224</v>
       </c>
@@ -15524,7 +15424,7 @@
         <v>44224.656099537038</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>44223</v>
       </c>
@@ -15559,7 +15459,7 @@
         <v>44223.910798611112</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>44223</v>
       </c>
@@ -15594,7 +15494,7 @@
         <v>44223.910798611112</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>44223</v>
       </c>
@@ -15629,7 +15529,7 @@
         <v>44223.700659722221</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>44223</v>
       </c>
@@ -15667,7 +15567,7 @@
         <v>44223.700659722221</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>44223</v>
       </c>
@@ -15702,7 +15602,7 @@
         <v>44223.700104166666</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>44222</v>
       </c>
@@ -15737,7 +15637,7 @@
         <v>44222.875243055554</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>44222</v>
       </c>
@@ -15772,7 +15672,7 @@
         <v>44222.744166666664</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>44222</v>
       </c>
@@ -15807,7 +15707,7 @@
         <v>44222.744166666664</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>44222</v>
       </c>
@@ -15845,7 +15745,7 @@
         <v>44222.646620370368</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>44222</v>
       </c>
@@ -15883,7 +15783,7 @@
         <v>44222.627430555556</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>44221</v>
       </c>
@@ -15921,7 +15821,7 @@
         <v>44221.678437499999</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>44220</v>
       </c>
@@ -15959,7 +15859,7 @@
         <v>44220.9371875</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>44220</v>
       </c>
@@ -15997,7 +15897,7 @@
         <v>44220.775405092594</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>44220</v>
       </c>
@@ -16035,7 +15935,7 @@
         <v>44220.670034722221</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>44220</v>
       </c>
@@ -16073,7 +15973,7 @@
         <v>44220.670034722221</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>44220</v>
       </c>
@@ -16108,7 +16008,7 @@
         <v>44220.459027777775</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>44219</v>
       </c>
@@ -16146,7 +16046,7 @@
         <v>44220.606828703705</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>44219</v>
       </c>
@@ -16181,7 +16081,7 @@
         <v>44220.606828703705</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>44219</v>
       </c>
@@ -16216,7 +16116,7 @@
         <v>44219.738819444443</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>44219</v>
       </c>
@@ -16251,7 +16151,7 @@
         <v>44219.738819444443</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>44219</v>
       </c>
@@ -16281,82 +16181,82 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M261" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:M261"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" customWidth="1"/>
-    <col min="4" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="5" width="4.5" customWidth="1"/>
-    <col min="6" max="6" width="8.5" customWidth="1"/>
-    <col min="7" max="7" width="7.5" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" customWidth="1"/>
-    <col min="10" max="10" width="21.5" customWidth="1"/>
-    <col min="11" max="11" width="35.5" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" customWidth="1"/>
+    <col min="11" max="11" width="35.5703125" customWidth="1"/>
     <col min="12" max="12" width="4" customWidth="1"/>
-    <col min="13" max="13" width="21.5" customWidth="1"/>
-    <col min="14" max="14" width="16.83203125" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" customWidth="1"/>
-    <col min="16" max="16" width="18.5" customWidth="1"/>
-    <col min="17" max="17" width="23.1640625" customWidth="1"/>
-    <col min="18" max="18" width="11.83203125" customWidth="1"/>
-    <col min="19" max="19" width="12.83203125" customWidth="1"/>
-    <col min="20" max="20" width="5.83203125" customWidth="1"/>
-    <col min="21" max="21" width="6.33203125" customWidth="1"/>
-    <col min="22" max="22" width="11.6640625" customWidth="1"/>
-    <col min="23" max="23" width="7.6640625" customWidth="1"/>
-    <col min="24" max="24" width="5.1640625" customWidth="1"/>
-    <col min="25" max="25" width="11.1640625" customWidth="1"/>
+    <col min="13" max="13" width="21.5703125" customWidth="1"/>
+    <col min="14" max="14" width="16.85546875" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" customWidth="1"/>
+    <col min="17" max="17" width="23.140625" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" customWidth="1"/>
+    <col min="20" max="20" width="5.85546875" customWidth="1"/>
+    <col min="21" max="21" width="6.28515625" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" customWidth="1"/>
+    <col min="23" max="23" width="7.7109375" customWidth="1"/>
+    <col min="24" max="24" width="5.140625" customWidth="1"/>
+    <col min="25" max="25" width="11.140625" customWidth="1"/>
     <col min="26" max="26" width="7" customWidth="1"/>
-    <col min="27" max="27" width="9.83203125" customWidth="1"/>
-    <col min="28" max="28" width="19.5" customWidth="1"/>
-    <col min="29" max="29" width="20.33203125" customWidth="1"/>
-    <col min="30" max="30" width="7.1640625" customWidth="1"/>
-    <col min="31" max="31" width="19.6640625" customWidth="1"/>
-    <col min="32" max="32" width="5.83203125" customWidth="1"/>
-    <col min="33" max="33" width="9.33203125" customWidth="1"/>
-    <col min="34" max="34" width="34.83203125" customWidth="1"/>
+    <col min="27" max="27" width="9.85546875" customWidth="1"/>
+    <col min="28" max="28" width="19.5703125" customWidth="1"/>
+    <col min="29" max="29" width="20.28515625" customWidth="1"/>
+    <col min="30" max="30" width="7.140625" customWidth="1"/>
+    <col min="31" max="31" width="19.7109375" customWidth="1"/>
+    <col min="32" max="32" width="5.85546875" customWidth="1"/>
+    <col min="33" max="33" width="9.28515625" customWidth="1"/>
+    <col min="34" max="34" width="34.85546875" customWidth="1"/>
     <col min="35" max="35" width="16" customWidth="1"/>
-    <col min="36" max="36" width="16.1640625" customWidth="1"/>
-    <col min="37" max="37" width="21.6640625" customWidth="1"/>
-    <col min="38" max="38" width="26.83203125" customWidth="1"/>
+    <col min="36" max="36" width="16.140625" customWidth="1"/>
+    <col min="37" max="37" width="21.7109375" customWidth="1"/>
+    <col min="38" max="38" width="26.85546875" customWidth="1"/>
     <col min="39" max="39" width="11" customWidth="1"/>
-    <col min="40" max="40" width="12.6640625" customWidth="1"/>
-    <col min="41" max="41" width="5.5" customWidth="1"/>
-    <col min="42" max="42" width="12.1640625" customWidth="1"/>
-    <col min="43" max="43" width="10.33203125" customWidth="1"/>
-    <col min="44" max="44" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.7109375" customWidth="1"/>
+    <col min="41" max="41" width="5.5703125" customWidth="1"/>
+    <col min="42" max="42" width="12.140625" customWidth="1"/>
+    <col min="43" max="43" width="10.28515625" customWidth="1"/>
+    <col min="44" max="44" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="19" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="8.83203125" customWidth="1"/>
-    <col min="49" max="49" width="6.5" customWidth="1"/>
-    <col min="50" max="50" width="8.5" customWidth="1"/>
-    <col min="51" max="51" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8.85546875" customWidth="1"/>
+    <col min="49" max="49" width="6.42578125" customWidth="1"/>
+    <col min="50" max="50" width="8.5703125" customWidth="1"/>
+    <col min="51" max="51" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="19" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="5.5" customWidth="1"/>
-    <col min="54" max="54" width="8.33203125" customWidth="1"/>
-    <col min="55" max="55" width="8.5" customWidth="1"/>
+    <col min="53" max="53" width="5.5703125" customWidth="1"/>
+    <col min="54" max="54" width="8.28515625" customWidth="1"/>
+    <col min="55" max="55" width="8.5703125" customWidth="1"/>
     <col min="56" max="56" width="8" customWidth="1"/>
-    <col min="57" max="57" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>143</v>
       </c>
@@ -16364,7 +16264,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>68</v>
       </c>
@@ -16372,7 +16272,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>97</v>
       </c>
@@ -16380,7 +16280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>54</v>
       </c>
@@ -16388,7 +16288,7 @@
         <v>5798</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>35</v>
       </c>
@@ -16396,7 +16296,7 @@
         <v>5030</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>45</v>
       </c>
@@ -16404,7 +16304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>63</v>
       </c>
@@ -16412,7 +16312,7 @@
         <v>1872.4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>37</v>
       </c>
@@ -16420,7 +16320,7 @@
         <v>2038.7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>50</v>
       </c>
@@ -16428,7 +16328,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
@@ -16436,7 +16336,7 @@
         <v>4742</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>76</v>
       </c>
@@ -16444,7 +16344,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>114</v>
       </c>
@@ -16452,7 +16352,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>43</v>
       </c>
@@ -16460,7 +16360,7 @@
         <v>19111</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
@@ -16468,7 +16368,7 @@
         <v>6446</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>69</v>
       </c>
@@ -16476,7 +16376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>67</v>
       </c>
@@ -16484,7 +16384,7 @@
         <v>6190</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
@@ -16492,7 +16392,7 @@
         <v>15524.1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>127</v>
       </c>
@@ -16500,7 +16400,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>84</v>
       </c>
@@ -16508,7 +16408,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>42</v>
       </c>
@@ -16516,7 +16416,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>144</v>
       </c>
@@ -16524,7 +16424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>145</v>
       </c>
@@ -16539,23 +16439,98 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="10" max="10" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -16575,7 +16550,7 @@
         <v>17400</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>68</v>
       </c>
@@ -16595,7 +16570,7 @@
         <v>7100</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>54</v>
       </c>
@@ -16616,7 +16591,7 @@
         <v>24500</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>42</v>
       </c>
@@ -16636,7 +16611,7 @@
         <v>38359.1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
@@ -16658,7 +16633,7 @@
         <v>-683.04999999999927</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>28</v>
       </c>
@@ -16681,7 +16656,7 @@
         <v>-7259.0999999999985</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>63</v>
       </c>
@@ -16704,7 +16679,7 @@
         <v>-13859.099999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>35</v>
       </c>
@@ -16718,7 +16693,7 @@
         <v>628.75</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>43</v>
       </c>
@@ -16733,7 +16708,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>43</v>
       </c>
@@ -16748,7 +16723,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>63</v>
       </c>
@@ -16764,7 +16739,7 @@
         <v>234.05</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>37</v>
       </c>
@@ -16778,7 +16753,7 @@
         <v>254.83750000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>67</v>
       </c>
@@ -16792,7 +16767,7 @@
         <v>773.75</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>76</v>
       </c>
@@ -16806,7 +16781,7 @@
         <v>118.875</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>114</v>
       </c>
@@ -16819,7 +16794,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>13</v>
       </c>
@@ -16832,7 +16807,7 @@
         <v>187.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>153</v>
       </c>
@@ -16845,7 +16820,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>154</v>
       </c>
@@ -16858,7 +16833,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>155</v>
       </c>
@@ -16901,22 +16876,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.1640625" customWidth="1"/>
-    <col min="5" max="5" width="85.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" customWidth="1"/>
+    <col min="5" max="5" width="85.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>156</v>
       </c>
@@ -16925,7 +16900,7 @@
         <v>1907.9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>157</v>
       </c>
@@ -16934,7 +16909,7 @@
         <v>1904.4640000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>158</v>
       </c>
@@ -16942,7 +16917,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>159</v>
       </c>
@@ -16950,7 +16925,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>160</v>
       </c>
@@ -16959,7 +16934,7 @@
         <v>799.46400000000017</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="15" t="s">
         <v>161</v>
       </c>
@@ -16967,7 +16942,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D9" s="23" t="s">
         <v>163</v>
       </c>
@@ -16975,31 +16950,31 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D10" s="24"/>
       <c r="E10" s="17" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D11" s="24"/>
       <c r="E11" s="17" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D12" s="24"/>
       <c r="E12" s="17" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="25"/>
       <c r="E13" s="18" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" s="23" t="s">
         <v>169</v>
       </c>
@@ -17007,31 +16982,31 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D15" s="24"/>
       <c r="E15" s="17" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D16" s="24"/>
       <c r="E16" s="17" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="4:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" s="24"/>
       <c r="E17" s="17" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="4:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D18" s="25"/>
       <c r="E18" s="18" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="4:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D19" s="23" t="s">
         <v>175</v>
       </c>
@@ -17039,31 +17014,31 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="4:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D20" s="24"/>
       <c r="E20" s="17" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="4:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D21" s="24"/>
       <c r="E21" s="17" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="4:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D22" s="24"/>
       <c r="E22" s="17" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="4:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D23" s="25"/>
       <c r="E23" s="18" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="24" spans="4:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D24" s="23" t="s">
         <v>181</v>
       </c>
@@ -17071,31 +17046,31 @@
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="4:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D25" s="24"/>
       <c r="E25" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="4:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D26" s="24"/>
       <c r="E26" s="17" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="4:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D27" s="24"/>
       <c r="E27" s="17" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="4:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D28" s="25"/>
       <c r="E28" s="18" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="4:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D29" s="23" t="s">
         <v>187</v>
       </c>
@@ -17103,31 +17078,31 @@
         <v>188</v>
       </c>
     </row>
-    <row r="30" spans="4:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D30" s="24"/>
       <c r="E30" s="17" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="31" spans="4:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D31" s="24"/>
       <c r="E31" s="17" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="4:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D32" s="24"/>
       <c r="E32" s="17" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="33" spans="4:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D33" s="25"/>
       <c r="E33" s="18" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="34" spans="4:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D34" s="23" t="s">
         <v>193</v>
       </c>
@@ -17135,31 +17110,31 @@
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="4:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D35" s="24"/>
       <c r="E35" s="17" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="4:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D36" s="24"/>
       <c r="E36" s="17" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="4:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D37" s="24"/>
       <c r="E37" s="17" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="38" spans="4:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D38" s="25"/>
       <c r="E38" s="18" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="39" spans="4:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D39" s="23" t="s">
         <v>199</v>
       </c>
@@ -17167,25 +17142,25 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="4:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D40" s="24"/>
       <c r="E40" s="17" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="41" spans="4:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D41" s="24"/>
       <c r="E41" s="17" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="42" spans="4:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D42" s="24"/>
       <c r="E42" s="17" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="43" spans="4:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D43" s="26"/>
       <c r="E43" s="19" t="s">
         <v>204</v>
@@ -17206,803 +17181,164 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E143"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48" customWidth="1"/>
-    <col min="2" max="2" width="52.5" customWidth="1"/>
-    <col min="3" max="3" width="58.33203125" customWidth="1"/>
-    <col min="4" max="4" width="187.6640625" customWidth="1"/>
+    <col min="1" max="1" width="54" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="B1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="20" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="240" x14ac:dyDescent="0.2">
-      <c r="B3" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="C3" s="21" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>213</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="E3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>214</v>
       </c>
-      <c r="C4" t="s">
-        <v>257</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>216</v>
       </c>
-      <c r="C6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="B20" t="s">
         <v>218</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+      <c r="B21" t="s">
         <v>220</v>
       </c>
-      <c r="C8" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="288" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>226</v>
-      </c>
-      <c r="C9" t="s">
-        <v>227</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>240</v>
-      </c>
-      <c r="C10" t="s">
-        <v>231</v>
-      </c>
-      <c r="D10" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>232</v>
-      </c>
-      <c r="C11" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="192" x14ac:dyDescent="0.2">
-      <c r="B12" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>236</v>
-      </c>
-      <c r="C13" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>238</v>
-      </c>
-      <c r="C14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>242</v>
-      </c>
-      <c r="C15" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="B16" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>246</v>
-      </c>
-      <c r="C18" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A34" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="B34" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>225</v>
-      </c>
-      <c r="C34" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>229</v>
-      </c>
-      <c r="C35" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>235</v>
-      </c>
-      <c r="D36" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>251</v>
-      </c>
-      <c r="C37" t="s">
-        <v>252</v>
-      </c>
-      <c r="D37" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D38" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D39" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D40" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D41" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D42" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B43" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="D43" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B44" s="27" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B45" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="D45" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B46" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="D46" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B47" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="D47" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B48" s="27" t="s">
-        <v>304</v>
-      </c>
-      <c r="D48" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B49" s="27" t="s">
-        <v>293</v>
-      </c>
-      <c r="D49" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B50" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="D50" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B51" s="27" t="s">
-        <v>295</v>
-      </c>
-      <c r="D51" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B52" s="27" t="s">
-        <v>296</v>
-      </c>
-      <c r="D52" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B53" s="27" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B54" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="D54" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B55" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="D55" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B56" s="27" t="s">
-        <v>300</v>
-      </c>
-      <c r="D56" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B57" s="27" t="s">
-        <v>301</v>
-      </c>
-      <c r="D57" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B58" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="D58" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B59" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="D59" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B60" s="27"/>
-      <c r="D60" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B61" s="27"/>
-      <c r="D61" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B62" s="27"/>
-      <c r="D62" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B63" s="27" t="s">
-        <v>302</v>
-      </c>
-      <c r="D63" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B64" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="D64" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B65" s="27" t="s">
-        <v>306</v>
-      </c>
-      <c r="D65" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B66" s="27" t="s">
-        <v>307</v>
-      </c>
-      <c r="D66" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B67" s="27" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B68" s="27" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B69" s="27" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B70" s="27" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B71" s="27"/>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B72" s="27"/>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B73" s="27" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B74" s="27" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B75" s="27" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B76" s="27" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B77" s="27" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B78" s="27" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B79" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="D79" t="str">
-        <f t="shared" ref="D44:D79" si="0">CONCATENATE(B79, " — ",C79)</f>
-        <v xml:space="preserve">Страница — </v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B80" s="27"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B81" s="27"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B82" s="27"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B83" s="27"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B84" s="27"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B85" s="27"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B86" s="27"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B87" s="27"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B88" s="27"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B89" s="27"/>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B90" s="27"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B91" s="27"/>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B92" s="27"/>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B93" s="27"/>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B94" s="27"/>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B95" s="27"/>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B96" s="27"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B97" s="27"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B98" s="27"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B99" s="27"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B100" s="27"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B101" s="27"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B102" s="27"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B103" s="27"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B104" s="27"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B105" s="27"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B106" s="27"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B107" s="27"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B108" s="27"/>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B109" s="27"/>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B110" s="27"/>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B111" s="27"/>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B112" s="27"/>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B113" s="27"/>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B114" s="27"/>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B115" s="27"/>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B116" s="27"/>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B117" s="27"/>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B118" s="27"/>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B119" s="27"/>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B120" s="27"/>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B121" s="27"/>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B122" s="27"/>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B123" s="27"/>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B124" s="27"/>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B125" s="27"/>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B126" s="27"/>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B127" s="27"/>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B128" s="27"/>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B129" s="27"/>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B130" s="27"/>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B131" s="27"/>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B132" s="27"/>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B133" s="27"/>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B134" s="27"/>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B135" s="27"/>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B136" s="27"/>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B137" s="27"/>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B138" s="27"/>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B139" s="27"/>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B140" s="27"/>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B141" s="27"/>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B142" s="27"/>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B143" s="27"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="35.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>265</v>
-      </c>
-      <c r="B3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>266</v>
-      </c>
-      <c r="B4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>267</v>
-      </c>
-      <c r="B5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>273</v>
-      </c>
-      <c r="B6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>268</v>
-      </c>
-      <c r="B7" t="s">
-        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -18012,281 +17348,575 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.28515625" customWidth="1"/>
+    <col min="2" max="2" width="158.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="345" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="205" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="270" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="405" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
+      <c r="B4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
+      <c r="B5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
+      <c r="B6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
+      <c r="B8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="31"/>
+      <c r="B9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
+      <c r="B10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
+      <c r="B12" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="31"/>
+      <c r="B13" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="31"/>
+      <c r="B14" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
+      <c r="B15" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="31"/>
+      <c r="B17" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="31"/>
+      <c r="B18" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="31"/>
+      <c r="B19" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="31"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="31"/>
+      <c r="B21" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="31"/>
+      <c r="B22" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="31"/>
+      <c r="B23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="31"/>
+      <c r="B24" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="31"/>
+      <c r="B25" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="31"/>
+      <c r="B26" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="31"/>
+      <c r="B27" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="31"/>
+      <c r="B28" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="31"/>
+      <c r="B29" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="31"/>
+      <c r="B30" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="31"/>
+      <c r="B31" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="31"/>
+      <c r="B32" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="31"/>
+      <c r="B33" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>306</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A33"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>44306</v>
       </c>
       <c r="B1" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="C1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44307</v>
       </c>
       <c r="B2" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="C2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44308</v>
       </c>
       <c r="B3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44309</v>
       </c>
       <c r="B4" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="C4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44310</v>
       </c>
       <c r="B5" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44311</v>
       </c>
       <c r="B6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44312</v>
       </c>
       <c r="B7" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44313</v>
       </c>
       <c r="B8" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="C8" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44314</v>
       </c>
       <c r="B9" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="C9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44315</v>
       </c>
       <c r="B10" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44316</v>
       </c>
       <c r="B11" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="C11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44317</v>
       </c>
       <c r="B12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44318</v>
       </c>
       <c r="B13" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44319</v>
       </c>
       <c r="B14" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44320</v>
       </c>
       <c r="B15" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+      <c r="C15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44321</v>
       </c>
       <c r="B16" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+      <c r="C16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44322</v>
       </c>
       <c r="B17" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44323</v>
       </c>
       <c r="B18" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="C18" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44324</v>
       </c>
       <c r="B19" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44325</v>
       </c>
       <c r="B20" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44326</v>
       </c>
       <c r="B21" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44327</v>
       </c>
       <c r="B22" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44328</v>
       </c>
       <c r="B23" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44329</v>
       </c>
       <c r="B24" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44330</v>
       </c>
       <c r="B25" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44331</v>
       </c>
       <c r="B26" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44332</v>
       </c>
       <c r="B27" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44333</v>
       </c>
       <c r="B28" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44334</v>
       </c>
       <c r="B29" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+      <c r="C29" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44335</v>
       </c>
       <c r="B30" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+      <c r="C30" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44336</v>
       </c>
       <c r="B31" t="s">
-        <v>279</v>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>44337</v>
+      </c>
+      <c r="B32" t="s">
+        <v>241</v>
+      </c>
+      <c r="C32" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -18530,15 +18160,15 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0CD4875-B5D7-479C-B133-2226F9D0E817}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="631ec5e7-17e7-426e-82ba-75703679dd22"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0cff0096-7bc3-4e6c-b62e-4230463993f3"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="0cff0096-7bc3-4e6c-b62e-4230463993f3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/about/analytics.xlsx
+++ b/about/analytics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="zen_2021-03-23_dumpof_transacti" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="308">
   <si>
     <t>date</t>
   </si>
@@ -1480,6 +1480,30 @@
 3. Дефис это дефис, а тире это тире, не стоит путать;
 4. Используйте только кавычки ёлочки;
 5. Грамматических ошибок ни в коем случае не должно быть.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выбирая платформу или технологию на который будет разработан сайт я всегда советую исходить из трех простох правил: 
+1) Решает ваши задачи в разрезе будущих двух лет (в зависимости от того, насколько далеко расписаны у вас стратегические цели). Сразу проработайте возможные варианты автоматизации процессов, интеграцию с социальными сетями, добавление тарфиного калькулятора, подключение склада работающего под управлением систем складского учета и т.д.
+2) Когда выбирают промышленную технику исходят из критериев ее ремонтопригодности и доступности специалистов и ЗИП. Тут все точно также. При выборе платформы нужно оценить объем рынка компаний и фрилансеров которые работают непосредственно с выбранной или предложенной платформой. И чем он больше, тем качественней и дешевле вы будете получать услугу, по причине высокой конкуренции на рынке, и проще осуществить замену исполнителей.
+3) Наличие документации и сообщества. На старте нового проекта, зачастую владелец сам ведет свой сайт. Даже если вы и не собираетесь этогоделать, ситуации бывают разные, поэтому не стоит упускать из виду такой важный момент.
+Tilda
+Readymag
+Ecwid
+WIX
+Squarespace
+Webflow
+Wfolio
+EditorX
+Divi
+Elementor
+https://vc.ru/services/146312-dvizhenie-no-code-konec-programmistov-razbiraem-plyusy-i-minusy
+Знакомство
+Эпоха no-code (программирование без использования кода) уже находится на самом своем пике. Перетаскивая элементы мышкой в окне браузера можно создать полноценный рабочий веб-сайт. Конструкторов сайтов уже создано огромное количество, каждый под конкретную ЦА и проблему. Все они реализуют практически одинаковый функционал, только разными методами. 
+Проблема
+Единственной сложностью при таком обилии вариантов, становиться выбор подходящей платформы.
+Решение
+Кульминация
+</t>
   </si>
 </sst>
 </file>
@@ -1652,7 +1676,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1853,6 +1877,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2150,7 +2180,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2196,6 +2226,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2207,13 +2247,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -16943,7 +16976,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="27" t="s">
         <v>163</v>
       </c>
       <c r="E9" s="17" t="s">
@@ -16951,31 +16984,31 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D10" s="24"/>
+      <c r="D10" s="28"/>
       <c r="E10" s="17" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D11" s="24"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="17" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D12" s="24"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="17" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="25"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="18" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="27" t="s">
         <v>169</v>
       </c>
       <c r="E14" s="17" t="s">
@@ -16983,31 +17016,31 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D15" s="24"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="17" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D16" s="24"/>
+      <c r="D16" s="28"/>
       <c r="E16" s="17" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="24"/>
+      <c r="D17" s="28"/>
       <c r="E17" s="17" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="18" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="25"/>
+      <c r="D18" s="29"/>
       <c r="E18" s="18" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="27" t="s">
         <v>175</v>
       </c>
       <c r="E19" s="17" t="s">
@@ -17015,31 +17048,31 @@
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="24"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="17" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="24"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="17" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D22" s="24"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="17" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="23" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="25"/>
+      <c r="D23" s="29"/>
       <c r="E23" s="18" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="27" t="s">
         <v>181</v>
       </c>
       <c r="E24" s="17" t="s">
@@ -17047,31 +17080,31 @@
       </c>
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D25" s="24"/>
+      <c r="D25" s="28"/>
       <c r="E25" s="17" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="26" spans="4:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D26" s="24"/>
+      <c r="D26" s="28"/>
       <c r="E26" s="17" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="27" spans="4:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D27" s="24"/>
+      <c r="D27" s="28"/>
       <c r="E27" s="17" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="28" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="25"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="18" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="29" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="27" t="s">
         <v>187</v>
       </c>
       <c r="E29" s="17" t="s">
@@ -17079,31 +17112,31 @@
       </c>
     </row>
     <row r="30" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D30" s="24"/>
+      <c r="D30" s="28"/>
       <c r="E30" s="17" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="31" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D31" s="24"/>
+      <c r="D31" s="28"/>
       <c r="E31" s="17" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="32" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D32" s="24"/>
+      <c r="D32" s="28"/>
       <c r="E32" s="17" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="33" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="25"/>
+      <c r="D33" s="29"/>
       <c r="E33" s="18" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="27" t="s">
         <v>193</v>
       </c>
       <c r="E34" s="17" t="s">
@@ -17111,31 +17144,31 @@
       </c>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D35" s="24"/>
+      <c r="D35" s="28"/>
       <c r="E35" s="17" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D36" s="24"/>
+      <c r="D36" s="28"/>
       <c r="E36" s="17" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D37" s="24"/>
+      <c r="D37" s="28"/>
       <c r="E37" s="17" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="38" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="25"/>
+      <c r="D38" s="29"/>
       <c r="E38" s="18" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="27" t="s">
         <v>199</v>
       </c>
       <c r="E39" s="17" t="s">
@@ -17143,25 +17176,25 @@
       </c>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D40" s="24"/>
+      <c r="D40" s="28"/>
       <c r="E40" s="17" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D41" s="24"/>
+      <c r="D41" s="28"/>
       <c r="E41" s="17" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D42" s="24"/>
+      <c r="D42" s="28"/>
       <c r="E42" s="17" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D43" s="26"/>
+      <c r="D43" s="30"/>
       <c r="E43" s="19" t="s">
         <v>204</v>
       </c>
@@ -17186,7 +17219,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17196,7 +17229,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="23" t="s">
         <v>205</v>
       </c>
       <c r="B1" s="20" t="s">
@@ -17209,7 +17242,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="23" t="s">
         <v>207</v>
       </c>
       <c r="B3" t="s">
@@ -17217,7 +17250,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="23" t="s">
         <v>209</v>
       </c>
       <c r="B4" t="s">
@@ -17270,11 +17303,6 @@
       </c>
       <c r="B10" t="s">
         <v>231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -17349,10 +17377,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17362,19 +17390,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="345" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="26" t="s">
         <v>217</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>224</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -17387,8 +17423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17397,8 +17433,8 @@
     <col min="2" max="2" width="205" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="270" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>239</v>
       </c>
       <c r="B1" s="22" t="s">
@@ -17414,7 +17450,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>265</v>
       </c>
       <c r="B3" t="s">
@@ -17422,181 +17458,181 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
+      <c r="A4" s="32"/>
       <c r="B4" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
+      <c r="A5" s="32"/>
       <c r="B5" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
+      <c r="A6" s="32"/>
       <c r="B6" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
+      <c r="A7" s="32"/>
       <c r="B7" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
+      <c r="A8" s="32"/>
       <c r="B8" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
+      <c r="A9" s="32"/>
       <c r="B9" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
+      <c r="A10" s="32"/>
       <c r="B10" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
+      <c r="A11" s="32"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
+      <c r="A12" s="32"/>
       <c r="B12" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
+      <c r="A13" s="32"/>
       <c r="B13" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
+      <c r="A14" s="32"/>
       <c r="B14" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
+      <c r="A15" s="32"/>
       <c r="B15" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
+      <c r="A16" s="32"/>
       <c r="B16" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
+      <c r="A17" s="32"/>
       <c r="B17" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
+      <c r="A18" s="32"/>
       <c r="B18" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
+      <c r="A19" s="32"/>
       <c r="B19" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
+      <c r="A20" s="32"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
+      <c r="A21" s="32"/>
       <c r="B21" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
+      <c r="A22" s="32"/>
       <c r="B22" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
+      <c r="A23" s="32"/>
       <c r="B23" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
+      <c r="A24" s="32"/>
       <c r="B24" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
+      <c r="A25" s="32"/>
       <c r="B25" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
+      <c r="A26" s="32"/>
       <c r="B26" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
+      <c r="A27" s="32"/>
       <c r="B27" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
+      <c r="A28" s="32"/>
       <c r="B28" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
+      <c r="A29" s="32"/>
       <c r="B29" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
+      <c r="A30" s="32"/>
       <c r="B30" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
+      <c r="A31" s="32"/>
       <c r="B31" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
+      <c r="A32" s="32"/>
       <c r="B32" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
+      <c r="A33" s="32"/>
       <c r="B33" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="300" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="25" t="s">
         <v>217</v>
       </c>
       <c r="B34" s="20" t="s">
@@ -17616,8 +17652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17646,7 +17682,7 @@
         <v>259</v>
       </c>
       <c r="C2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -17665,7 +17701,7 @@
         <v>241</v>
       </c>
       <c r="C4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -18160,16 +18196,16 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0CD4875-B5D7-479C-B133-2226F9D0E817}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="631ec5e7-17e7-426e-82ba-75703679dd22"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="0cff0096-7bc3-4e6c-b62e-4230463993f3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0cff0096-7bc3-4e6c-b62e-4230463993f3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/about/analytics.xlsx
+++ b/about/analytics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="zen_2021-03-23_dumpof_transacti" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'zen_2021-03-23_dumpof_transacti'!$A$1:$M$261</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
   <pivotCaches>
     <pivotCache cacheId="1" r:id="rId10"/>
   </pivotCaches>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="310">
   <si>
     <t>date</t>
   </si>
@@ -1466,20 +1466,6 @@
 Есть такая рассылка "Стандарты Мильчина". Она основана на "Справочнике издателя и автора". В рассылке собраны и рассказаны доступным языком основные правила работы с текстом. Стоит не дорого, советую приобрести и почитать.
 Сервис "Главред" - поможет убрать из текста языковой мусор, рекламные и журналистские штампы, а тексту придать информационный стиль. Простой и понятный интерфейс, бесплатное использование.
 Второй сервис которым я пользуюсь при работе с текстом это "Орфограммка". Я использую ее для проверки орфографии, пунктуации и благозвучия текста. Сервис хоть и платный, но стоит не дорого.</t>
-  </si>
-  <si>
-    <t>Сила слова имеет огромное значение. Сейчас главный тренд — визуальная подача контента и обилие анимации, способной вызвать приступ даже у здорового человека, но при этом не забывайте, что благодаря хорошему тексту на сайте можно расположить к себе, превратить посетителя в клиента. За пять абзацев на странице рассказать историю и получить приверженца бренда. 
-Вот только где найти хорошего автора и писателя? Этим вопросом задаются предприниматели, у которых бизнес идёт хорошо и есть средства на этих самых авторов. Начинающие же бизнесмены, и повальное большинство #МСБ думают сначала, как увеличить продажи и как следствие появились средства, чтобы искать авторов и зачастую сами ведут свои социальные сети, пишут посты в них, обновляют тексты и описания на своих сайтах. Но ведь не все из нас талантливые писатели или хоть что-то в этом знающие, да и когда разбираться, если нужно заниматься поставками, складом, финансами, продажами и ещё много чем? Есть ряд простых правил и сервисов которые помогут ваш текст сделать стройнее и вкуснее.
-Приведу то, что зашло мне, и пользуюсь этим постоянно:
-1.Рассылка «Стандарты Мильчина». Она основана на «Справочнике издателя и автора». В рассылке собраны и рассказаны доступным языком основные правила работы с текстом. Стоит недорого, советую приобрести и почитать;
-2.Сервис «Главред» поможет убрать из текста языковой мусор, рекламные и журналистские штампы, а тексту придать информационный стиль. Простой и понятный интерфейс, бесплатное использование;
-3.Второй сервис которым работаю, это «Орфограммка». Я использую ее для проверки орфографии, пунктуации и благозвучия текста. Сервис хоть и платный, но стоит недорого.
-Пять правил, которые применяю постоянно при написании текста:
-1. После точки или запятой всегда ставьте пробел;
-2. Не допускайте двойных пробелов;
-3. Дефис это дефис, а тире это тире, не стоит путать;
-4. Используйте только кавычки ёлочки;
-5. Грамматических ошибок ни в коем случае не должно быть.</t>
   </si>
   <si>
     <t xml:space="preserve">Выбирая платформу или технологию на который будет разработан сайт я всегда советую исходить из трех простох правил: 
@@ -1503,7 +1489,53 @@
 Единственной сложностью при таком обилии вариантов, становиться выбор подходящей платформы.
 Решение
 Кульминация
+Знакомство
+Эпоха no-code (программирование без использования кода) уже находится на самом своем пике. Наибольшим спросом no-code конструкторы пользуются у начинающих интернет-предпринимателей. С их помощью, перетаскивая элементы мышкой в окне браузера можно за два дня без команды разработчиков и дизайнеров запустить свой магазин, создать лендинг к мероприятию или продукту, приложение или чат-бот.
+Проблема
+Конструкторов сайтов уже создано огромное количество, каждый под конкретную ЦА и проблему. Все они реализуют практически одинаковый функционал, только разными методами. Единственной сложностью при таком обилии вариантов, становиться выбор подходящей платформы. Тут же сразу скажу, что эти решения подходят только на старте бизнеса или для MVP. Сложный функционал, большое количество посетителей, товаров, возможности оптимизации скорости работы сайта, сложные процессы автоматизации ведения бизнеса при помощи такого сайта. Все это невозможно реализовать на конструкторе.
+Решение
+1) Наличие рынка специалистов, работающих с выбранной платформой (за счет высокой конкуренции качество работ растет, их стоимость падает, срок подбора нового специалиста для работы над вашим проектом сокращается).
+2) Наличие документации, обучающих курсов, тренингов, коммьюнити (если вы будете самостоятельно работать с конструктором, то будет где почитать и у кого спросить, как сделать ту или иную вещь).
+3) Базовый функционал платформы должен позволять решить поставленные задачи.
+Кульминация
+Если вы хорошо владеете английским, тогда первый и второй пункты вас не касаются. Для вас доступен огромнейший выбор конструкторов и исполнителей.
+Лично мои фавориты среди конструкторов сайтов это Tilda. Могу еще добавить специфический конструктор сайтов Wfolio – конструктор сайтов и облачный диск для фотографов.
+Условная Тильда в купе с Ecwid и amoCRM позволит создать достаточно сильный магазин не уступающий к примеру тем же решениям от Shopify или Squarespace.
+Тильда – платформа лендингов, благодаря большой библиотеки готовых блоков можно собрать сайт самостоятельно без привлечения дизайнера. Есть отличные возможности для создания магазина (ведение товаров в одном месте, возможен импорт из csv и yml файлов, встроенная функция подключения amoCRM, возможность интеграции с Ecwid, интеграция сервисов доставки и оплаты).
+Shopify – мастодонт среди конструкторов для электронной коммерции. Большая коллекция шаблонов для интернет-магазинов, отличный функционал. Один минус платформы в том, что она изначально ориентирована на западный рынок, по умолчанию не умеет работать с нашими сервисами доставки, большая часть документации на английском, хороших русскоговорящих специалистов мало.
+Readymag – в своей идеологии сервис для создания интернет-журналов и презентаций. Конечно на нем создают большое количество лендингов, сайтов с WOW-анимацией, но вот его идеология усложняет разработку сайта на нем. Практически нет шаблонов и сложность найти хороших специалистов. Если нет знаний в дизайне, на нем ничего стоящего самому не разработать.
 </t>
+  </si>
+  <si>
+    <t>Эпоха no-code (программирование без использования кода) уже находится на самом своём пике. Наибольший спрос на no-code конструкторы у начинающих предпринимателей. С их помощью, перетаскивая элементы мышкой в окне браузера, можно за два дня без команды разработчиков и дизайнеров запустить интернет-магазин, лендинг к мероприятию или продукту, приложение или чат-бот.
+Конструкторов сайтов уже создано огромное количество, каждый под определённую ЦА и проблему. Все они реализуют практически одинаковую функциональность, только разными методами. Сложностью при таком обилии вариантов, становится выбор подходящей платформы. Тут же сразу скажу, что эти решения актуальны только в начале бизнеса или для MVP. Сложный «функционал», большое количество посетителей, товаров, возможности оптимизации скорости работы сайта, автоматизации ведения бизнеса, всё это невозможно осуществить на конструкторе.
+Выбирать конструктор следует не из того, понравился ли вам его логотип, продающая реклама, где говориться, что на нём создано n-е количество сайтов или интерфейс, а исходя из практичности. 
+Вот несколько правил, которыми следует воспользоваться:
+1)     Базовый «функционал» платформы решает поставленные задачи;
+2)     Наличие документации, обучающих курсов, тренингов, сообщества (если вы будете самостоятельно работать с конструктором, то будет где почитать и у кого спросить, как сделать ту или иную фичу);
+3)   Наличие рынка специалистов, работающих с выбранной платформой (за счёт конкуренции качество работ растёт, стоимость падает, срок подбора нового специалиста для работы над проектом сокращается).
+Если вы хорошо владеете английским, тогда первый и второй пункты вас не касаются. Для вас доступно более ста конструкторов и полчища исполнителей на Upwork.
+Лично мои фавориты среди конструкторов сайтов это Tilda. Могу ещё добавить специфическую платформу Wfolio – конструктор сайтов и облачный диск для фотографов.
+Помимо конструкторов сайтов, существуют аналогичные сервисы для создания мобильных приложений и чат-ботов. А вишенка на торте, это готовые сервисы для веб-скрапинга (советую погуглить), они позволят вам получить преимущество в конкурентной гонке.
+Итого, без команды разработчиков и с минимальными вложениями создать сайт, мобильное приложение, чат-бот и наладить автоматический сбор данных можно самостоятельно. Минус в том, что без специальных знаний или команды получиться Жигули. Это машина? - Да. Она ездит? - Да. Но вот службу такси не построить. Только протестировать идею, и возможно заполучить несколько постоянных клиентов. Для начала большего и не нужно.</t>
+  </si>
+  <si>
+    <t>Как выбрать конструктор сайта</t>
+  </si>
+  <si>
+    <t>Текст на сайтах остаётся главным источником информации, даже несмотря на то, что сейчас основной тренд — визуальная подача контента, а обилие анимации на сайтах такое, что способно вызвать приступ даже у здорового человека. Но при этом не забывайте, что слова имеют огромное значение. Благодаря хорошему тексту можно расположить к себе, превратить посетителя в клиента. За пять абзацев на странице рассказать историю и получить приверженца бренда. 
+Начинающие бизнесмены, и повальное большинство #МСБ зачастую сами ведут свои социальные сети, пишут посты в них, обновляют тексты и описания на своих сайтах. Но ведь не все талантливые писатели. Да и когда найти время, чтобы разобраться, если нужно заниматься поставками, складом, финансами, продажами и ещё много чем? Ряд простых правил и сервисов, используя которые сделает текст стройнее и вкуснее.
+Приведу то, что зашло мне, и пользуюсь этим постоянно:
+1.Сервис «Главред» поможет убрать из текста языковой мусор, рекламные и журналистские штампы, а тексту придать информационный стиль. Простой и понятный интерфейс, бесплатное использование;
+2.Сервис «Орфограммка». Использую для проверки орфографии, пунктуации и благозвучия текста. Сервис хоть и платный, но стоит недорого.
+3.Рассылка «Стандарты Мильчина». Основана на «Справочнике издателя и автора». В рассылке собраны и рассказаны доступным языком базовые правила работы с текстом. Стоит недорого, советую приобрести и почитать;
+Пять правил, которые применяю постоянно при написании текста:
+1. После точки или запятой ставьте пробел;
+2. Не допускайте двойных пробелов;
+3. Дефис — это дефис, а тире это тире, не стоит путать;
+4. Используйте только кавычки ёлочки;
+5. Грамматических ошибок ни в коем случае не должно быть.
+Главное, выработайте у себя привычку каждый текст проверять и перечитывать перед публикацией. Ваши посетители и клиенты скажут спасибо.</t>
   </si>
 </sst>
 </file>
@@ -2180,7 +2212,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2234,6 +2266,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
@@ -16976,7 +17011,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="28" t="s">
         <v>163</v>
       </c>
       <c r="E9" s="17" t="s">
@@ -16984,31 +17019,31 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D10" s="28"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="17" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D11" s="28"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="17" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D12" s="28"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="17" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="29"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="18" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="28" t="s">
         <v>169</v>
       </c>
       <c r="E14" s="17" t="s">
@@ -17016,31 +17051,31 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D15" s="28"/>
+      <c r="D15" s="29"/>
       <c r="E15" s="17" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D16" s="28"/>
+      <c r="D16" s="29"/>
       <c r="E16" s="17" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="28"/>
+      <c r="D17" s="29"/>
       <c r="E17" s="17" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="18" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="29"/>
+      <c r="D18" s="30"/>
       <c r="E18" s="18" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="28" t="s">
         <v>175</v>
       </c>
       <c r="E19" s="17" t="s">
@@ -17048,31 +17083,31 @@
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="28"/>
+      <c r="D20" s="29"/>
       <c r="E20" s="17" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="28"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="17" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D22" s="28"/>
+      <c r="D22" s="29"/>
       <c r="E22" s="17" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="23" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="29"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="18" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="28" t="s">
         <v>181</v>
       </c>
       <c r="E24" s="17" t="s">
@@ -17080,31 +17115,31 @@
       </c>
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D25" s="28"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="17" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="26" spans="4:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D26" s="28"/>
+      <c r="D26" s="29"/>
       <c r="E26" s="17" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="27" spans="4:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D27" s="28"/>
+      <c r="D27" s="29"/>
       <c r="E27" s="17" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="28" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="29"/>
+      <c r="D28" s="30"/>
       <c r="E28" s="18" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="29" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="28" t="s">
         <v>187</v>
       </c>
       <c r="E29" s="17" t="s">
@@ -17112,31 +17147,31 @@
       </c>
     </row>
     <row r="30" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D30" s="28"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="17" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="31" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D31" s="28"/>
+      <c r="D31" s="29"/>
       <c r="E31" s="17" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="32" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D32" s="28"/>
+      <c r="D32" s="29"/>
       <c r="E32" s="17" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="33" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="29"/>
+      <c r="D33" s="30"/>
       <c r="E33" s="18" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="28" t="s">
         <v>193</v>
       </c>
       <c r="E34" s="17" t="s">
@@ -17144,31 +17179,31 @@
       </c>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D35" s="28"/>
+      <c r="D35" s="29"/>
       <c r="E35" s="17" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D36" s="28"/>
+      <c r="D36" s="29"/>
       <c r="E36" s="17" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D37" s="28"/>
+      <c r="D37" s="29"/>
       <c r="E37" s="17" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="38" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="29"/>
+      <c r="D38" s="30"/>
       <c r="E38" s="18" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D39" s="27" t="s">
+      <c r="D39" s="28" t="s">
         <v>199</v>
       </c>
       <c r="E39" s="17" t="s">
@@ -17176,25 +17211,25 @@
       </c>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D40" s="28"/>
+      <c r="D40" s="29"/>
       <c r="E40" s="17" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D41" s="28"/>
+      <c r="D41" s="29"/>
       <c r="E41" s="17" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D42" s="28"/>
+      <c r="D42" s="29"/>
       <c r="E42" s="17" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D43" s="30"/>
+      <c r="D43" s="31"/>
       <c r="E43" s="19" t="s">
         <v>204</v>
       </c>
@@ -17379,8 +17414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17410,7 +17445,7 @@
         <v>233</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -17421,10 +17456,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17450,7 +17485,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="32" t="s">
         <v>265</v>
       </c>
       <c r="B3" t="s">
@@ -17458,185 +17493,193 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
+      <c r="A4" s="33"/>
       <c r="B4" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
+      <c r="A5" s="33"/>
       <c r="B5" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="33"/>
       <c r="B6" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="33"/>
       <c r="B7" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="33"/>
       <c r="B8" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="33"/>
       <c r="B9" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="33"/>
       <c r="B10" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="33"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+      <c r="A12" s="33"/>
       <c r="B12" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+      <c r="A13" s="33"/>
       <c r="B13" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="33"/>
       <c r="B14" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="33"/>
       <c r="B15" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="33"/>
       <c r="B16" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
+      <c r="A17" s="33"/>
       <c r="B17" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
+      <c r="A18" s="33"/>
       <c r="B18" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
+      <c r="A19" s="33"/>
       <c r="B19" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
+      <c r="A20" s="33"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
+      <c r="A21" s="33"/>
       <c r="B21" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
+      <c r="A22" s="33"/>
       <c r="B22" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
+      <c r="A23" s="33"/>
       <c r="B23" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
+      <c r="A24" s="33"/>
       <c r="B24" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
+      <c r="A25" s="33"/>
       <c r="B25" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
+      <c r="A26" s="33"/>
       <c r="B26" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
+      <c r="A27" s="33"/>
       <c r="B27" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
+      <c r="A28" s="33"/>
       <c r="B28" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
+      <c r="A29" s="33"/>
       <c r="B29" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
+      <c r="A30" s="33"/>
       <c r="B30" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
+      <c r="A31" s="33"/>
       <c r="B31" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
+      <c r="A32" s="33"/>
       <c r="B32" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
+      <c r="A33" s="33"/>
       <c r="B33" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="315" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>217</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>306</v>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="315" x14ac:dyDescent="0.25">
+      <c r="A35" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -17653,7 +17696,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18196,16 +18239,16 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0CD4875-B5D7-479C-B133-2226F9D0E817}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="631ec5e7-17e7-426e-82ba-75703679dd22"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="0cff0096-7bc3-4e6c-b62e-4230463993f3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/about/analytics.xlsx
+++ b/about/analytics.xlsx
@@ -25,9 +25,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'zen_2021-03-23_dumpof_transacti'!$A$1:$M$261</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId10"/>
+    <pivotCache cacheId="2" r:id="rId10"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -1523,8 +1523,8 @@
     <t>Как выбрать конструктор сайта</t>
   </si>
   <si>
-    <t>Текст на сайтах остаётся главным источником информации, даже несмотря на то, что сейчас основной тренд — визуальная подача контента, а обилие анимации на сайтах такое, что способно вызвать приступ даже у здорового человека. Но при этом не забывайте, что слова имеют огромное значение. Благодаря хорошему тексту можно расположить к себе, превратить посетителя в клиента. За пять абзацев на странице рассказать историю и получить приверженца бренда. 
-Начинающие бизнесмены, и повальное большинство #МСБ зачастую сами ведут свои социальные сети, пишут посты в них, обновляют тексты и описания на своих сайтах. Но ведь не все талантливые писатели. Да и когда найти время, чтобы разобраться, если нужно заниматься поставками, складом, финансами, продажами и ещё много чем? Ряд простых правил и сервисов, используя которые сделает текст стройнее и вкуснее.
+    <t>Текст на сайтах остаётся главным источником информации. Даже несмотря на то, что сейчас основной тренд — визуальная подача контента, а обилие анимации на сайтах такое, что способно вызвать приступ даже у здорового человека. Благодаря хорошему тексту можно расположить к себе, превратить посетителя в клиента. За пять абзацев на странице рассказать историю и получить приверженца бренда. 
+Другое утверждение — начинающие бизнесмены зачастую сами ведут свои социальные сети, пишут посты в них, обновляют тексты и описания на своих сайтах. Но ведь не все талантливые писатели. Да и когда найти время, чтобы разобраться, если нужно заниматься поставками, складом, финансами, продажами и ещё много чем? В этом поможет ряд простых правил и сервисов, используя которые сделаете текст стройнее и чище.
 Приведу то, что зашло мне, и пользуюсь этим постоянно:
 1.Сервис «Главред» поможет убрать из текста языковой мусор, рекламные и журналистские штампы, а тексту придать информационный стиль. Простой и понятный интерфейс, бесплатное использование;
 2.Сервис «Орфограммка». Использую для проверки орфографии, пунктуации и благозвучия текста. Сервис хоть и платный, но стоит недорого.
@@ -1532,7 +1532,7 @@
 Пять правил, которые применяю постоянно при написании текста:
 1. После точки или запятой ставьте пробел;
 2. Не допускайте двойных пробелов;
-3. Дефис — это дефис, а тире это тире, не стоит путать;
+3. Дефис это дефис, а тире это тире, не стоит путать;
 4. Используйте только кавычки ёлочки;
 5. Грамматических ошибок ни в коем случае не должно быть.
 Главное, выработайте у себя привычку каждый текст проверять и перечитывать перед публикацией. Ваши посетители и клиенты скажут спасибо.</t>
@@ -6691,7 +6691,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -17458,8 +17458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18239,16 +18239,16 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0CD4875-B5D7-479C-B133-2226F9D0E817}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="631ec5e7-17e7-426e-82ba-75703679dd22"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0cff0096-7bc3-4e6c-b62e-4230463993f3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="0cff0096-7bc3-4e6c-b62e-4230463993f3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/about/analytics.xlsx
+++ b/about/analytics.xlsx
@@ -27,13 +27,13 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId10"/>
+    <pivotCache cacheId="1" r:id="rId10"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="310">
   <si>
     <t>date</t>
   </si>
@@ -1328,9 +1328,6 @@
   </si>
   <si>
     <t>Фирстиль</t>
-  </si>
-  <si>
-    <t>Викторины и квиз сайты</t>
   </si>
   <si>
     <t>SEO или контекст</t>
@@ -1507,19 +1504,6 @@
 </t>
   </si>
   <si>
-    <t>Эпоха no-code (программирование без использования кода) уже находится на самом своём пике. Наибольший спрос на no-code конструкторы у начинающих предпринимателей. С их помощью, перетаскивая элементы мышкой в окне браузера, можно за два дня без команды разработчиков и дизайнеров запустить интернет-магазин, лендинг к мероприятию или продукту, приложение или чат-бот.
-Конструкторов сайтов уже создано огромное количество, каждый под определённую ЦА и проблему. Все они реализуют практически одинаковую функциональность, только разными методами. Сложностью при таком обилии вариантов, становится выбор подходящей платформы. Тут же сразу скажу, что эти решения актуальны только в начале бизнеса или для MVP. Сложный «функционал», большое количество посетителей, товаров, возможности оптимизации скорости работы сайта, автоматизации ведения бизнеса, всё это невозможно осуществить на конструкторе.
-Выбирать конструктор следует не из того, понравился ли вам его логотип, продающая реклама, где говориться, что на нём создано n-е количество сайтов или интерфейс, а исходя из практичности. 
-Вот несколько правил, которыми следует воспользоваться:
-1)     Базовый «функционал» платформы решает поставленные задачи;
-2)     Наличие документации, обучающих курсов, тренингов, сообщества (если вы будете самостоятельно работать с конструктором, то будет где почитать и у кого спросить, как сделать ту или иную фичу);
-3)   Наличие рынка специалистов, работающих с выбранной платформой (за счёт конкуренции качество работ растёт, стоимость падает, срок подбора нового специалиста для работы над проектом сокращается).
-Если вы хорошо владеете английским, тогда первый и второй пункты вас не касаются. Для вас доступно более ста конструкторов и полчища исполнителей на Upwork.
-Лично мои фавориты среди конструкторов сайтов это Tilda. Могу ещё добавить специфическую платформу Wfolio – конструктор сайтов и облачный диск для фотографов.
-Помимо конструкторов сайтов, существуют аналогичные сервисы для создания мобильных приложений и чат-ботов. А вишенка на торте, это готовые сервисы для веб-скрапинга (советую погуглить), они позволят вам получить преимущество в конкурентной гонке.
-Итого, без команды разработчиков и с минимальными вложениями создать сайт, мобильное приложение, чат-бот и наладить автоматический сбор данных можно самостоятельно. Минус в том, что без специальных знаний или команды получиться Жигули. Это машина? - Да. Она ездит? - Да. Но вот службу такси не построить. Только протестировать идею, и возможно заполучить несколько постоянных клиентов. Для начала большего и не нужно.</t>
-  </si>
-  <si>
     <t>Как выбрать конструктор сайта</t>
   </si>
   <si>
@@ -1536,6 +1520,35 @@
 4. Используйте только кавычки ёлочки;
 5. Грамматических ошибок ни в коем случае не должно быть.
 Главное, выработайте у себя привычку каждый текст проверять и перечитывать перед публикацией. Ваши посетители и клиенты скажут спасибо.</t>
+  </si>
+  <si>
+    <t>Типы лицензий и базы контента</t>
+  </si>
+  <si>
+    <t>Эпоха no-code (программирование без использования кода) уже находится на самом своём пике. Наибольший спрос на no-code конструкторы веб-сайтов. С их помощью, перетаскивая элементы мышкой в окне браузера, можно за два дня без команды разработчиков и дизайнеров запустить интернет-магазин, лендинг к мероприятию или продукту, приложение или чат-бот.
+Конструкторов сайтов уже создано огромное количество, каждый под определённую ЦА и проблему. Все они реализуют практически одинаковую функциональность, только разными методами. Сложностью при таком обилии вариантов, становится выбор подходящей платформы. Тут же сразу скажу, что эти решения актуальны только в начале бизнеса или для MVP. Сложный «функционал», большое количество посетителей, товаров, возможности оптимизации скорости работы сайта, автоматизации ведения бизнеса, всё это невозможно осуществить на конструкторе.
+Выбирать конструктор следует не из того, понравился ли вам его логотип, продающая реклама, где говориться, что на нём создано n-е количество сайтов или интерфейс, а исходя из практичности. 
+Вот несколько правил, которыми следует воспользоваться:
+1)     Базовый «функционал» платформы решает поставленные задачи;
+2)     Наличие документации, обучающих курсов, тренингов, сообщества (если вы будете самостоятельно работать с конструктором, то будет где почитать и у кого спросить, как сделать ту или иную фичу);
+3)     Наличие рынка специалистов, работающих с выбранной платформой (за счёт конкуренции качество работ растёт, стоимость падает, срок подбора нового специалиста для работы над проектом сокращается).
+Лично мой фаворит среди конструкторов сайтов это Tilda. Могу ещё добавить специфическую платформу Wfolio – конструктор сайтов и облачный диск для фотографов.
+Помимо конструкторов сайтов, существуют аналогичные сервисы для создания мобильных приложений, чат-ботов и логотипов. А вишенка на торте, это готовые сервисы для веб-скрапинга (советую погуглить), они позволят вам получить преимущество в конкурентной гонке.
+Итого: без команды разработчиков и с минимальными вложениями создать сайт, мобильное приложение, чат-бот и наладить автоматический сбор данных можно самостоятельно. Минус в том, что без специальных знаний или команды получиться Жигули. Это машина? - Да. Она ездит? - Да. Этого достаточно чтобы протестировать идею, и возможно заполучить несколько постоянных клиентов. Для начала большего и не нужно.
+Веб-сайты
+Tilda, Readymag, Webflow, EditorX, Shopify, SquareSpace, Wix, Ukit, Хорошоп, Sheet2Site.
+Логотипы
+Ziro, Wix Logo Maker, Turbologo, Logomaster.
+Чат-боты
+ManyChat, BroBot, Aimylogic.
+Мобильные приложения
+Bubble, Adalo.
+Дополнительные сервисы
+Ecwid, Discuss, Zapier, Memberstack, Typeform, Jivo.
+E-mail рассылки
+Get Responce, MailChimp, EmailFactory, MakeMail.
+Веб-скраппинг
+Octoparse, Importio.</t>
   </si>
 </sst>
 </file>
@@ -2212,7 +2225,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2271,6 +2284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6691,7 +6705,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -17011,7 +17025,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="29" t="s">
         <v>163</v>
       </c>
       <c r="E9" s="17" t="s">
@@ -17019,31 +17033,31 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D10" s="29"/>
+      <c r="D10" s="30"/>
       <c r="E10" s="17" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D11" s="29"/>
+      <c r="D11" s="30"/>
       <c r="E11" s="17" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D12" s="29"/>
+      <c r="D12" s="30"/>
       <c r="E12" s="17" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="30"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="18" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="29" t="s">
         <v>169</v>
       </c>
       <c r="E14" s="17" t="s">
@@ -17051,31 +17065,31 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D15" s="29"/>
+      <c r="D15" s="30"/>
       <c r="E15" s="17" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D16" s="29"/>
+      <c r="D16" s="30"/>
       <c r="E16" s="17" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="29"/>
+      <c r="D17" s="30"/>
       <c r="E17" s="17" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="18" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="30"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="18" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="29" t="s">
         <v>175</v>
       </c>
       <c r="E19" s="17" t="s">
@@ -17083,31 +17097,31 @@
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="29"/>
+      <c r="D20" s="30"/>
       <c r="E20" s="17" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="29"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="17" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D22" s="29"/>
+      <c r="D22" s="30"/>
       <c r="E22" s="17" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="23" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="30"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="18" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="29" t="s">
         <v>181</v>
       </c>
       <c r="E24" s="17" t="s">
@@ -17115,31 +17129,31 @@
       </c>
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D25" s="29"/>
+      <c r="D25" s="30"/>
       <c r="E25" s="17" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="26" spans="4:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D26" s="29"/>
+      <c r="D26" s="30"/>
       <c r="E26" s="17" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="27" spans="4:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D27" s="29"/>
+      <c r="D27" s="30"/>
       <c r="E27" s="17" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="28" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="30"/>
+      <c r="D28" s="31"/>
       <c r="E28" s="18" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="29" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="29" t="s">
         <v>187</v>
       </c>
       <c r="E29" s="17" t="s">
@@ -17147,31 +17161,31 @@
       </c>
     </row>
     <row r="30" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D30" s="29"/>
+      <c r="D30" s="30"/>
       <c r="E30" s="17" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="31" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D31" s="29"/>
+      <c r="D31" s="30"/>
       <c r="E31" s="17" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="32" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D32" s="29"/>
+      <c r="D32" s="30"/>
       <c r="E32" s="17" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="33" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="30"/>
+      <c r="D33" s="31"/>
       <c r="E33" s="18" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="29" t="s">
         <v>193</v>
       </c>
       <c r="E34" s="17" t="s">
@@ -17179,31 +17193,31 @@
       </c>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D35" s="29"/>
+      <c r="D35" s="30"/>
       <c r="E35" s="17" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D36" s="29"/>
+      <c r="D36" s="30"/>
       <c r="E36" s="17" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D37" s="29"/>
+      <c r="D37" s="30"/>
       <c r="E37" s="17" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="38" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="30"/>
+      <c r="D38" s="31"/>
       <c r="E38" s="18" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D39" s="28" t="s">
+      <c r="D39" s="29" t="s">
         <v>199</v>
       </c>
       <c r="E39" s="17" t="s">
@@ -17211,25 +17225,25 @@
       </c>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D40" s="29"/>
+      <c r="D40" s="30"/>
       <c r="E40" s="17" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D41" s="29"/>
+      <c r="D41" s="30"/>
       <c r="E41" s="17" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D42" s="29"/>
+      <c r="D42" s="30"/>
       <c r="E42" s="17" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D43" s="31"/>
+      <c r="D43" s="32"/>
       <c r="E43" s="19" t="s">
         <v>204</v>
       </c>
@@ -17251,10 +17265,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17268,7 +17282,7 @@
         <v>205</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -17402,6 +17416,11 @@
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -17414,8 +17433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17429,7 +17448,7 @@
         <v>217</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -17441,11 +17460,11 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="28" t="s">
         <v>233</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -17458,8 +17477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17481,189 +17500,189 @@
         <v>264</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="33" t="s">
         <v>265</v>
       </c>
       <c r="B3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="34"/>
+      <c r="B4" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="34"/>
+      <c r="B5" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="34"/>
+      <c r="B6" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="34"/>
+      <c r="B7" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="34"/>
+      <c r="B8" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
+      <c r="B9" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="34"/>
+      <c r="B10" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="34"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="34"/>
+      <c r="B12" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="34"/>
+      <c r="B13" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="34"/>
+      <c r="B14" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="34"/>
+      <c r="B15" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="34"/>
+      <c r="B16" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
+      <c r="B17" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="34"/>
+      <c r="B18" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="34"/>
+      <c r="B19" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="34"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="34"/>
+      <c r="B21" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="34"/>
+      <c r="B22" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
-      <c r="B22" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="34"/>
+      <c r="B23" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="34"/>
+      <c r="B24" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="34"/>
+      <c r="B25" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+      <c r="B26" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
-      <c r="B26" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
+      <c r="B27" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="34"/>
+      <c r="B28" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="34"/>
+      <c r="B29" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="34"/>
+      <c r="B30" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="34"/>
+      <c r="B31" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="34"/>
+      <c r="B32" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
-      <c r="B32" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="34"/>
+      <c r="B33" t="s">
         <v>302</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
-      <c r="B33" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="315" x14ac:dyDescent="0.25">
@@ -17671,15 +17690,15 @@
         <v>217</v>
       </c>
       <c r="B34" s="20" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="B35" s="20" t="s">
         <v>309</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="315" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
-        <v>308</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -17696,14 +17715,14 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -17779,7 +17798,7 @@
         <v>258</v>
       </c>
       <c r="C8" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -17790,7 +17809,7 @@
         <v>259</v>
       </c>
       <c r="C9" t="s">
-        <v>233</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -17809,7 +17828,7 @@
         <v>241</v>
       </c>
       <c r="C11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -17844,7 +17863,7 @@
         <v>258</v>
       </c>
       <c r="C15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -17874,7 +17893,7 @@
         <v>241</v>
       </c>
       <c r="C18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -17965,7 +17984,7 @@
         <v>258</v>
       </c>
       <c r="C29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -17976,7 +17995,7 @@
         <v>259</v>
       </c>
       <c r="C30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -17995,7 +18014,7 @@
         <v>241</v>
       </c>
       <c r="C32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -18005,21 +18024,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087C054FCA5F80F4F9EF4C079A0AA953F" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="77297ee86fb36985660db17124980350">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0cff0096-7bc3-4e6c-b62e-4230463993f3" xmlns:ns4="631ec5e7-17e7-426e-82ba-75703679dd22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cd490a95223f278e161b6508da34b79d" ns3:_="" ns4:_="">
     <xsd:import namespace="0cff0096-7bc3-4e6c-b62e-4230463993f3"/>
@@ -18228,32 +18232,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F631A87-9721-48A5-8A39-9AD90FDC01C1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0CD4875-B5D7-479C-B133-2226F9D0E817}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="631ec5e7-17e7-426e-82ba-75703679dd22"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0cff0096-7bc3-4e6c-b62e-4230463993f3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53468B28-FEE4-468E-8EFA-CD74F79D0A86}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18270,4 +18264,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0CD4875-B5D7-479C-B133-2226F9D0E817}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="631ec5e7-17e7-426e-82ba-75703679dd22"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="0cff0096-7bc3-4e6c-b62e-4230463993f3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F631A87-9721-48A5-8A39-9AD90FDC01C1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/about/analytics.xlsx
+++ b/about/analytics.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="322">
   <si>
     <t>date</t>
   </si>
@@ -1325,9 +1325,6 @@
   </si>
   <si>
     <t>Работа с текстом</t>
-  </si>
-  <si>
-    <t>Фирстиль</t>
   </si>
   <si>
     <t>SEO или контекст</t>
@@ -1549,6 +1546,77 @@
 Get Responce, MailChimp, EmailFactory, MakeMail.
 Веб-скраппинг
 Octoparse, Importio.</t>
+  </si>
+  <si>
+    <t>Заветные слова. Free to commercial use</t>
+  </si>
+  <si>
+    <t>Creative Commons Attribution CC BY - Разрешено свободное использование произведения, при условии указания его автора.
+Creative Commons Attribution-ShareAlike CC BY-SA -  Разрешено свободное использование произведения, при условии указания его автора. Также все производные произведения, должны распространяться под лицензией CC BY-SA.
+Creative Commons Attribution-NoDerivs CC BY-ND - Разрешено свободное использование произведения, при условии указания его автора. Кроме того, запрещается вносить в произведение какие-либо изменения или как-либо нарушать его целостность.
+Creative Commons Attribution Non-Commercial CC BY-NC - Разрешено свободное использование произведения, при условии указания его автора, но только в некоммерческих целях.
+Creative Commons Attribution-NonCommercial-ShareAlike CC BY-NC-SA - Разрешено свободное использование произведения, при условии указания его автора, но только в некоммерческих целях. Также все производные произведения, должны распространяться под лицензией CC BY-NC-SA.
+Attribution-NonCommercial-NoDerivs CC BY-NC-ND - Разрешено свободное использование произведения, при условии указания его автора, но только в некоммерческих целях. Кроме того, запрещается вносить в произведение какие-либо изменения или как-либо нарушать его целостность.
+CC0 CC0 - Протокол, представляющий из себя лицензию, максимально приближенную к досрочному переводу произведения в общественное достояние. Протокол даёт возможность автору отказывается от всех авторских и смежных прав на произведение, а также от всех связанных с ними претензий и исков по отношению к произведению насколько это возможно в рамках законодательства. Соответственно, пользователи получают возможность свободно использовать такое произведение, не указывая даже имя автора.</t>
+  </si>
+  <si>
+    <t>Open Font License — свободная и открытая лицензия для использования с шрифтами.</t>
+  </si>
+  <si>
+    <t>GNU General Public License - лицензия на свободное программное обеспечение, по которой автор передаёт программное обеспечение в общественную собственность.</t>
+  </si>
+  <si>
+    <t>GNU Free Documentation License (GFDL) — лицензия, ориентированная на документацию и литературные произведения, содержит ряд положений, регулирующих использование произведений в печатной форме.</t>
+  </si>
+  <si>
+    <t>Лицензия X11 (англ. X11 License) — лицензия открытого и свободного программного обеспечения, разработанная Массачусетским технологическим институтом. Лицензия MIT является одной из самых ранних свободных лицензий, так как она относительно проста и иллюстрирует некоторые из основных принципов свободного лицензирования[1]. Она является разрешительной лицензией, то есть позволяет программистам использовать лицензируемый код в закрытом программном обеспечении при условии, что текст лицензии предоставляется вместе с этим программным обеспечением.</t>
+  </si>
+  <si>
+    <t>Лицензия BSD (англ. BSD license, Berkeley Software Distribution license — Программная лицензия университета Беркли) — лицензионное соглашение, впервые применённое для распространения UNIX-подобных операционных систем BSD.</t>
+  </si>
+  <si>
+    <t>Лицензия Apache (англ. Apache License[Прим. 1]) — лицензия на свободное программное обеспечение Apache Software Foundation.</t>
+  </si>
+  <si>
+    <t>Если вы для своего сайта контент не создаёте, а скачиваете его с просторов интернета, то делайте это экологично. Незаконное использование чужого произведения испортит репутацию бизнеса или приведёт к судебным искам. 
+📌 Не используйте изображения полученные из поисковых систем. Их качество хуже некуда, а происхождение нужно ещё отследить.
+📌 Всегда выясняйте, по какой лицензии распространяется произведение. Зачастую мимо глаз уходит тот момент что указано «free to personal use» — это значит что можно использовать только в личных или ознакомительных целях, и ни в коем случае не в коммерческих.
+📌 «Commercial use allowed» — проверяйте какой тип лицензии подразумевается. От этого зависит, как можно использовать материал в коммерческих целях.
+📌 Если биржи используют свои лицензионные соглашения, в обязательном порядке их изучить перед скачиванием контента.
+Наиболее популярный типовой договор, который применяется это Creative Commons.
+☝️ Creative Commons, сокращённо CC — некоммерческая организация, которая создала бесплатные для использования типовые договоры.
+1⃣ Creative Commons (CC0) — Протокол, представляющий из себя лицензию, максимально приближённую к досрочному переводу произведения в общественное достояние. Соответственно, пользователи получают возможность свободно использовать такое произведение, не указывая даже имя автора.
+2⃣ Creative Commons Attribution (CC BY) — Разрешено свободное использование произведения, при условии указания его автора.
+3⃣ Creative Commons Attribution-ShareAlike (CC BY-SA) — Разрешено свободное использование произведения, при условии указания его автора. Также все производные произведения, должны распространяться под лицензией CC BY-SA.
+4⃣ Creative Commons Attribution-NoDerivs (CC BY-ND) — Разрешено свободное использование произведения, при условии указания его автора. Кроме того, запрещается вносить в произведение какие-либо изменения или как-либо нарушать его целостность.
+5⃣ Creative Commons Attribution Non-Commercial (CC BY-NC) — Разрешено свободное использование произведения, при условии указания его автора, но только в некоммерческих целях.
+6⃣ Creative Commons Attribution-NonCommercial-ShareAlike (CC BY-NC-SA) — Разрешено свободное использование произведения, при условии указания его автора, но только в некоммерческих целях. Также все производные произведения, должны распространяться под лицензией CC BY-NC-SA.
+7⃣ Attribution-NonCommercial-NoDerivs (CC BY-NC-ND) — Разрешено свободное использование произведения, при условии указания его автора, но только в некоммерческих целях. Кроме того, запрещается вносить в произведение какие-либо изменения или нарушать его целостность.
+Фотостоки:
+🔥 unsplash.com, pexels.com, flickr.com, pixabay.com
+Видеостоки:
+🔥 coverr.co, videvo.net, mixkit.co
+Иллюстрации:
+🔥 freepik.com, shutterstock.com
+☑ Каждый раз, используя чужое произведение, проверяйте по какой лицензии оно распространяется, и не давайте ввести себя в заблуждение заветной надписи "free to use". Уважайте чужой труд.</t>
+  </si>
+  <si>
+    <t>Лицензии и стоки</t>
+  </si>
+  <si>
+    <t>UTM метка</t>
+  </si>
+  <si>
+    <t>Личное (сертефикат курсов)</t>
+  </si>
+  <si>
+    <t>Театр начинается с вешалки, бизнес с идеи, а реклама в интернете с UTM-метки.
+UTM-метка (Urchin Tracking Module) — специализированный параметр в URL (адрес), используемый для отслеживания эффективности рекламных кампаний в интернете, а также источника трафика.
+Параметры UTM используются для сортировки данных в системе аналитики, сопоставления информации о сессиях пользователей с рекламными расходами, чтобы оценить окупаемость каналов.
+UTM метка состоит из отслеживаемого параметра и его значения. В ссылку добавляется пять параметров. Три обязательных параметра позволят определить источник трафика (utm_source), тип рекламы (utm_medium) и название рекламной кампании (utm_campaign).
+Пример: https://victory.net.ua/?utm_source=google&amp;utm_medium=banner&amp;utm_campaign=fb_ads; После адреса вашего сайта ставиться знак "?" и перечисляются параметры и значения метки.
+Две статьи посвящённые UTM меткам и работе с ними: «Для чего нужны UTM-метки. Как отследить эффективность сайта» и «Как правильно настроить UTM-метки для оценки эффективности SMM». В них достаточно информации чтобы разобраться подробнее. Ещё там приведены ссылки на инструменты по работе с метками.
+Этот, с первого взгляда, казалось бы, скромный инструмент позволяет перераспределять и экономить рекламный бюджет. А ещё принимать решения на основе фактов и статистики, прогнозировать доходы и расходы.</t>
   </si>
 </sst>
 </file>
@@ -2225,7 +2293,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2285,6 +2353,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -17025,7 +17096,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="30" t="s">
         <v>163</v>
       </c>
       <c r="E9" s="17" t="s">
@@ -17033,31 +17104,31 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D10" s="30"/>
+      <c r="D10" s="31"/>
       <c r="E10" s="17" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D11" s="30"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="17" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D12" s="30"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="17" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="31"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="18" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="30" t="s">
         <v>169</v>
       </c>
       <c r="E14" s="17" t="s">
@@ -17065,31 +17136,31 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D15" s="30"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="17" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D16" s="30"/>
+      <c r="D16" s="31"/>
       <c r="E16" s="17" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="30"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="17" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="18" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="31"/>
+      <c r="D18" s="32"/>
       <c r="E18" s="18" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="30" t="s">
         <v>175</v>
       </c>
       <c r="E19" s="17" t="s">
@@ -17097,31 +17168,31 @@
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="30"/>
+      <c r="D20" s="31"/>
       <c r="E20" s="17" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="30"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="17" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D22" s="30"/>
+      <c r="D22" s="31"/>
       <c r="E22" s="17" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="23" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="31"/>
+      <c r="D23" s="32"/>
       <c r="E23" s="18" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="30" t="s">
         <v>181</v>
       </c>
       <c r="E24" s="17" t="s">
@@ -17129,31 +17200,31 @@
       </c>
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D25" s="30"/>
+      <c r="D25" s="31"/>
       <c r="E25" s="17" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="26" spans="4:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D26" s="30"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="17" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="27" spans="4:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D27" s="30"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="17" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="28" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="31"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="18" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="29" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="30" t="s">
         <v>187</v>
       </c>
       <c r="E29" s="17" t="s">
@@ -17161,31 +17232,31 @@
       </c>
     </row>
     <row r="30" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D30" s="30"/>
+      <c r="D30" s="31"/>
       <c r="E30" s="17" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="31" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D31" s="30"/>
+      <c r="D31" s="31"/>
       <c r="E31" s="17" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="32" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D32" s="30"/>
+      <c r="D32" s="31"/>
       <c r="E32" s="17" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="33" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="31"/>
+      <c r="D33" s="32"/>
       <c r="E33" s="18" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D34" s="29" t="s">
+      <c r="D34" s="30" t="s">
         <v>193</v>
       </c>
       <c r="E34" s="17" t="s">
@@ -17193,31 +17264,31 @@
       </c>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D35" s="30"/>
+      <c r="D35" s="31"/>
       <c r="E35" s="17" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D36" s="30"/>
+      <c r="D36" s="31"/>
       <c r="E36" s="17" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D37" s="30"/>
+      <c r="D37" s="31"/>
       <c r="E37" s="17" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="38" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="31"/>
+      <c r="D38" s="32"/>
       <c r="E38" s="18" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D39" s="29" t="s">
+      <c r="D39" s="30" t="s">
         <v>199</v>
       </c>
       <c r="E39" s="17" t="s">
@@ -17225,25 +17296,25 @@
       </c>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D40" s="30"/>
+      <c r="D40" s="31"/>
       <c r="E40" s="17" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D41" s="30"/>
+      <c r="D41" s="31"/>
       <c r="E41" s="17" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D42" s="30"/>
+      <c r="D42" s="31"/>
       <c r="E42" s="17" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D43" s="32"/>
+      <c r="D43" s="33"/>
       <c r="E43" s="19" t="s">
         <v>204</v>
       </c>
@@ -17282,7 +17353,7 @@
         <v>205</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -17420,7 +17491,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -17431,10 +17502,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17448,7 +17519,7 @@
         <v>217</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -17464,7 +17535,45 @@
         <v>233</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>305</v>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="29" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="29" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="29" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="B8" s="29" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="29" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="29" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -17475,10 +17584,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17500,189 +17609,189 @@
         <v>264</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="34" t="s">
         <v>265</v>
       </c>
       <c r="B3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="35"/>
+      <c r="B4" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="35"/>
+      <c r="B5" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="35"/>
+      <c r="B6" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="35"/>
+      <c r="B7" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="35"/>
+      <c r="B8" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="35"/>
+      <c r="B9" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="35"/>
+      <c r="B10" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="35"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="35"/>
+      <c r="B12" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="35"/>
+      <c r="B13" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="35"/>
+      <c r="B14" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="35"/>
+      <c r="B15" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="35"/>
+      <c r="B16" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="35"/>
+      <c r="B17" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="35"/>
+      <c r="B18" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="35"/>
+      <c r="B19" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="35"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="35"/>
+      <c r="B21" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="35"/>
+      <c r="B22" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="35"/>
+      <c r="B23" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="35"/>
+      <c r="B24" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="35"/>
+      <c r="B25" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="35"/>
+      <c r="B26" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="35"/>
+      <c r="B27" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="35"/>
+      <c r="B28" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="35"/>
+      <c r="B29" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="35"/>
+      <c r="B30" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="35"/>
+      <c r="B31" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
-      <c r="B31" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="35"/>
+      <c r="B32" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
-      <c r="B32" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="35"/>
+      <c r="B33" t="s">
         <v>301</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-      <c r="B33" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="315" x14ac:dyDescent="0.25">
@@ -17690,15 +17799,31 @@
         <v>217</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>309</v>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A37" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -17715,7 +17840,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17809,7 +17934,7 @@
         <v>259</v>
       </c>
       <c r="C9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -17819,6 +17944,9 @@
       <c r="B10" t="s">
         <v>260</v>
       </c>
+      <c r="C10" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -17828,7 +17956,7 @@
         <v>241</v>
       </c>
       <c r="C11" t="s">
-        <v>267</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -17863,7 +17991,7 @@
         <v>258</v>
       </c>
       <c r="C15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -17893,7 +18021,7 @@
         <v>241</v>
       </c>
       <c r="C18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -17984,7 +18112,7 @@
         <v>258</v>
       </c>
       <c r="C29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -17995,7 +18123,7 @@
         <v>259</v>
       </c>
       <c r="C30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -18014,7 +18142,7 @@
         <v>241</v>
       </c>
       <c r="C32" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -18269,15 +18397,15 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0CD4875-B5D7-479C-B133-2226F9D0E817}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="631ec5e7-17e7-426e-82ba-75703679dd22"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="0cff0096-7bc3-4e6c-b62e-4230463993f3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/about/analytics.xlsx
+++ b/about/analytics.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="322">
   <si>
     <t>date</t>
   </si>
@@ -1236,15 +1236,6 @@
     <t>Брендинг. Фирменный стиль и брендбук для #МСБ</t>
   </si>
   <si>
-    <t>Зачем мне фирменный стиль и брендбук, если я не крупный бренд?
-Он нужен вашему подрядчику, чтобы знать что именно вы от него ждёте. Вам, чтобы ставить чёткие задачи дизайнеру и принимать работу.
-Нужно ли тратить полгода и кругленькую сумму на команду художников и маркетологов, фокус-группы для определения восприятия вашего логотипа? Должен ли он быть как у Mastercard, Apple или Google? Нет, но на них нужно равняться, а брендбук обязан учитывать ваше позиционирование, каналы продвижения и коммуникации с клиентом.
-Необходимый минимум:
-Проработайте логотип и варианты использования в разных местах. Типографика (шесть стилей для заголовков, по одному стилю для основного текста, второстепенного, ссылок и подписей) для десктопной и мобильной версий. Цветовая палитра (градации серого для текста, основной, акцентный и второстепенный цвета). Наборы иконок (социальных сетей, "примитивы" и эмоджи). Остальные элементы зависят от среды бренда.
-Если, к примеру, вы продвигаете товары или услуги в instagram, тогда из базовых элементов создается аватарка, иконки, дизайн поста и сетка. Это придаст целостности визуальной коммуникации вашего бренда, а вам сэкономит средства при работе с подрядчиками. Относитесь к нему не как к игрушке и просто картинкам, а как к инструменту, который экономит время и нервы.
-Единственная сложность, это добиться гармонии между логотипом, набором иконок, шрифтом, композицией и цветовой палитрой. Поэтому эффективнее найти бюджет и заказать разработку. А для тех, кто хочет попробовать сделать самостоятельно - делюсь своим шаблоном.</t>
-  </si>
-  <si>
     <t>Пятница</t>
   </si>
   <si>
@@ -1325,12 +1316,6 @@
   </si>
   <si>
     <t>Работа с текстом</t>
-  </si>
-  <si>
-    <t>SEO или контекст</t>
-  </si>
-  <si>
-    <t>Зачем раздел "обо мне"</t>
   </si>
   <si>
     <t>Миссия, цели и стратегия</t>
@@ -1617,6 +1602,22 @@
 Пример: https://victory.net.ua/?utm_source=google&amp;utm_medium=banner&amp;utm_campaign=fb_ads; После адреса вашего сайта ставиться знак "?" и перечисляются параметры и значения метки.
 Две статьи посвящённые UTM меткам и работе с ними: «Для чего нужны UTM-метки. Как отследить эффективность сайта» и «Как правильно настроить UTM-метки для оценки эффективности SMM». В них достаточно информации чтобы разобраться подробнее. Ещё там приведены ссылки на инструменты по работе с метками.
 Этот, с первого взгляда, казалось бы, скромный инструмент позволяет перераспределять и экономить рекламный бюджет. А ещё принимать решения на основе фактов и статистики, прогнозировать доходы и расходы.</t>
+  </si>
+  <si>
+    <t>Фирстиль</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Зачем мне фирменный стиль и брендбук, если я не крупный бренд? Нужно ли тратить полгода и кругленькую сумму на команду художников, маркетологов и фокус-группы? Должен ли он быть как у Mastercard, Apple или Google? Нет, но на них нужно равняться, а брендбук обязан учитывать ваше позиционирование, каналы продвижения и коммуникации с клиентом.
+Он нужен подрядчику, чтобы знать что именно вы от него ждёте. Вам, чтобы ставить чёткие задачи дизайнеру и принимать работу.
+Необходимый минимум:
+Логотип (монохромный и цветной варианты), типографика (шесть стилей для заголовков, по одному для основного текста, второстепенного, ссылок и подписей) для десктопной и мобильной версий. Цветовая палитра (градации серого для текста, основной, акцентный и второстепенный цвета). Наборы иконок (социальных сетей, «примитивы» и эмоджи). Остальные элементы зависят от среды бренда.
+В дальнейшем, комбинации базовых элементов образуют дизайн-систему. А это уже конкурентное преимущество, т.к. система позволит ускорить процесс разработки и сократить на него затраты.
+К примеру, вы продвигаете товары или услуги в Instagram, тогда из базовых элементов создаётся аватарка (по сути, из логотипа), иконки (уже есть набор иконок и их не нужно гуглить), дизайн поста (цветовая палитра определена) и сетка (правила компоновки заданы).
+Новые страницы сайта, лендинги для продвижения отдельных товаров, собираются как конструктор на основе готовых блоков (эти блоки создаются из уже определённых элементов компоновки, цветовой палитры и типографики). Это придаст целостности визуальной коммуникации вашего бренда. 
+Главное, относитесь к этому не как к игрушке и просто картинкам, а как к инструменту, который экономит время и нервы.</t>
   </si>
 </sst>
 </file>
@@ -16606,58 +16607,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -17353,7 +17354,7 @@
         <v>205</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -17440,7 +17441,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -17491,7 +17492,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -17519,7 +17520,7 @@
         <v>217</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -17527,7 +17528,7 @@
         <v>224</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
@@ -17535,45 +17536,45 @@
         <v>233</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="29" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="29" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="29" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="B8" s="29" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="29" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="29" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -17586,8 +17587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17596,70 +17597,70 @@
     <col min="2" max="2" width="205" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="270" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>239</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>240</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="405" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="35"/>
       <c r="B4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="35"/>
       <c r="B5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="35"/>
       <c r="B6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="B7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="35"/>
       <c r="B8" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="35"/>
       <c r="B9" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="35"/>
       <c r="B10" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -17668,49 +17669,49 @@
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="35"/>
       <c r="B12" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="35"/>
       <c r="B13" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="35"/>
       <c r="B14" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="35"/>
       <c r="B15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="35"/>
       <c r="B16" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="35"/>
       <c r="B17" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="35"/>
       <c r="B18" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="35"/>
       <c r="B19" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -17719,79 +17720,79 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
       <c r="B21" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="35"/>
       <c r="B22" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="35"/>
       <c r="B23" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="35"/>
       <c r="B24" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="35"/>
       <c r="B25" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="35"/>
       <c r="B26" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="35"/>
       <c r="B27" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="35"/>
       <c r="B28" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="35"/>
       <c r="B29" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="35"/>
       <c r="B30" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="35"/>
       <c r="B31" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="35"/>
       <c r="B32" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="35"/>
       <c r="B33" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="315" x14ac:dyDescent="0.25">
@@ -17799,31 +17800,31 @@
         <v>217</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="B35" s="20" t="s">
         <v>305</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -17840,7 +17841,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17855,10 +17856,10 @@
         <v>44306</v>
       </c>
       <c r="B1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -17866,10 +17867,10 @@
         <v>44307</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -17877,7 +17878,7 @@
         <v>44308</v>
       </c>
       <c r="B3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -17885,10 +17886,10 @@
         <v>44309</v>
       </c>
       <c r="B4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -17896,7 +17897,7 @@
         <v>44310</v>
       </c>
       <c r="B5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -17904,7 +17905,7 @@
         <v>44311</v>
       </c>
       <c r="B6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -17912,7 +17913,7 @@
         <v>44312</v>
       </c>
       <c r="B7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -17920,7 +17921,7 @@
         <v>44313</v>
       </c>
       <c r="B8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C8" t="s">
         <v>233</v>
@@ -17931,10 +17932,10 @@
         <v>44314</v>
       </c>
       <c r="B9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C9" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -17942,10 +17943,10 @@
         <v>44315</v>
       </c>
       <c r="B10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C10" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -17953,10 +17954,10 @@
         <v>44316</v>
       </c>
       <c r="B11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C11" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -17964,7 +17965,7 @@
         <v>44317</v>
       </c>
       <c r="B12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -17972,7 +17973,7 @@
         <v>44318</v>
       </c>
       <c r="B13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -17980,7 +17981,7 @@
         <v>44319</v>
       </c>
       <c r="B14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -17988,10 +17989,10 @@
         <v>44320</v>
       </c>
       <c r="B15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C15" t="s">
-        <v>267</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -17999,10 +18000,10 @@
         <v>44321</v>
       </c>
       <c r="B16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C16" t="s">
-        <v>205</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -18010,7 +18011,7 @@
         <v>44322</v>
       </c>
       <c r="B17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -18018,10 +18019,7 @@
         <v>44323</v>
       </c>
       <c r="B18" t="s">
-        <v>241</v>
-      </c>
-      <c r="C18" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -18029,7 +18027,7 @@
         <v>44324</v>
       </c>
       <c r="B19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -18037,7 +18035,7 @@
         <v>44325</v>
       </c>
       <c r="B20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -18045,7 +18043,7 @@
         <v>44326</v>
       </c>
       <c r="B21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -18053,7 +18051,7 @@
         <v>44327</v>
       </c>
       <c r="B22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -18061,7 +18059,7 @@
         <v>44328</v>
       </c>
       <c r="B23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -18069,7 +18067,7 @@
         <v>44329</v>
       </c>
       <c r="B24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -18077,7 +18075,7 @@
         <v>44330</v>
       </c>
       <c r="B25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -18085,7 +18083,7 @@
         <v>44331</v>
       </c>
       <c r="B26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -18093,7 +18091,7 @@
         <v>44332</v>
       </c>
       <c r="B27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -18101,7 +18099,7 @@
         <v>44333</v>
       </c>
       <c r="B28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -18109,10 +18107,10 @@
         <v>44334</v>
       </c>
       <c r="B29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C29" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -18120,10 +18118,10 @@
         <v>44335</v>
       </c>
       <c r="B30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C30" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -18131,7 +18129,7 @@
         <v>44336</v>
       </c>
       <c r="B31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -18139,10 +18137,10 @@
         <v>44337</v>
       </c>
       <c r="B32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C32" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -18152,6 +18150,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087C054FCA5F80F4F9EF4C079A0AA953F" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="77297ee86fb36985660db17124980350">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0cff0096-7bc3-4e6c-b62e-4230463993f3" xmlns:ns4="631ec5e7-17e7-426e-82ba-75703679dd22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cd490a95223f278e161b6508da34b79d" ns3:_="" ns4:_="">
     <xsd:import namespace="0cff0096-7bc3-4e6c-b62e-4230463993f3"/>
@@ -18360,22 +18373,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F631A87-9721-48A5-8A39-9AD90FDC01C1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0CD4875-B5D7-479C-B133-2226F9D0E817}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="631ec5e7-17e7-426e-82ba-75703679dd22"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0cff0096-7bc3-4e6c-b62e-4230463993f3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53468B28-FEE4-468E-8EFA-CD74F79D0A86}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18392,29 +18415,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0CD4875-B5D7-479C-B133-2226F9D0E817}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="631ec5e7-17e7-426e-82ba-75703679dd22"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0cff0096-7bc3-4e6c-b62e-4230463993f3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F631A87-9721-48A5-8A39-9AD90FDC01C1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/about/analytics.xlsx
+++ b/about/analytics.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="326">
   <si>
     <t>date</t>
   </si>
@@ -1618,6 +1618,54 @@
 К примеру, вы продвигаете товары или услуги в Instagram, тогда из базовых элементов создаётся аватарка (по сути, из логотипа), иконки (уже есть набор иконок и их не нужно гуглить), дизайн поста (цветовая палитра определена) и сетка (правила компоновки заданы).
 Новые страницы сайта, лендинги для продвижения отдельных товаров, собираются как конструктор на основе готовых блоков (эти блоки создаются из уже определённых элементов компоновки, цветовой палитры и типографики). Это придаст целостности визуальной коммуникации вашего бренда. 
 Главное, относитесь к этому не как к игрушке и просто картинкам, а как к инструменту, который экономит время и нервы.</t>
+  </si>
+  <si>
+    <t>Рассылки</t>
+  </si>
+  <si>
+    <t>Рассылка (e-mail, sms) — это способ оставаться на связи с одними клиентами, других информировать о своей деятельности, третьих мотивировать на повторные покупки.
+Для запуска рассылки штат дизайнеров и программистов уже не нужен. No-code решения обойдутся дешевле и быстрее. При таком варианте можно самостоятельно протестировать гипотезы и оценить обратную связь. Для коммерческого проекта все же лучше нанимать специально обученных людей.
+Условно рассылку можно разделить на такие категории:
+Коммерческие рассылки (распродажа, скидки, акции);
+Информационные рассылки (особенности продукта или услуги, обзоры событий и т.д.);
+Триггерные рассылки (совершил определенное действие, наступила определенная дата, купил товаров на определенную сумму и т.д.);
+Реактивационные рассылки (направлены на возобновление взаимодействия с клиентом через письма. Такие письма ставят вопрос ребром: «давай дружить или расходиться».).
+Сервисов на рынке огромное количество, выбирать нужно исходя из задач и бюджета. Причем в такой же последовательности. Наиболее популярные:
+MailChimp,
+UniSender,
+Turbosms,
+SendPulse.
+При выборе сервиса для рассылки, обратите внимание на те опции, которые он предоставляет. К примеру, для меня важно следующее:
+Сначала отправка в мессенджеры а потом по смс,
+Служба поддержки,
+Интеграция с CRM-системой,
+Таргетированные SMS,
+Индивидуальная подпись.
+Обязательно в каждом письме должна быть возможность отписаться от рассылки. Как правило, это реализуется в виде отдельной ссылке в конце письма, ведущей на страницу управления рассылкой. Это самый важный пункт. Нет ничего страшнее чем негативный пользовательский опыт и антипатия к бренду из за навязчивого сервиса.</t>
+  </si>
+  <si>
+    <t>Рассылка (e-mail, sms) — это способ оставаться на связи с одними клиентами, других информировать о своей деятельности, третьих мотивировать на повторные покупки.
+Для запуска рассылки штат дизайнеров и программистов уже не нужен. No-code решения обойдутся дешевле и быстрее. При таком варианте можно самостоятельно протестировать гипотезы и оценить обратную связь. Для коммерческого проекта все же лучше нанимать специально обученных людей.
+Условно рассылку можно разделить на такие категории:
+Коммерческие рассылки (распродажа, скидки, акции);
+Информационные рассылки (особенности продукта или услуги, обзоры событий и т.д.);
+Триггерные рассылки (совершил определенное действие, наступила определенная дата, купил товаров на определенную сумму и т.д.);
+Реактивационные рассылки (направлены на возобновление взаимодействия с клиентом через письма. Такие письма ставят вопрос ребром: «давай дружить или расходиться».).
+Сервисов на рынке огромное количество, выбирать нужно исходя из задач и бюджета. Причем в такой же последовательности. Наиболее популярные:
+MailChimp,
+UniSender,
+Turbosms,
+SendPulse.
+При выборе сервиса для рассылки, обратите внимание на те опции, которые он предоставляет. К примеру, для меня важно следующее:
+Сначала отправка в мессенджеры а потом по смс,
+Служба поддержки,
+Интеграция с CRM-системой,
+Таргетированные SMS,
+Индивидуальная подпись.
+Обязательно в каждом письме предусмотрите возможность отписаться от рассылки. Как правило, это реализуется в виде отдельной ссылки в конце письма, ведущей на страницу управления рассылкой. Это самый важный пункт. Нет ничего страшнее, чем, негативный пользовательский опыт и антипатия к бренду из-за навязчивого сервиса.</t>
+  </si>
+  <si>
+    <t>Маркетинг рассылки</t>
   </si>
 </sst>
 </file>
@@ -2294,7 +2342,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2356,6 +2404,9 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -17097,7 +17148,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="31" t="s">
         <v>163</v>
       </c>
       <c r="E9" s="17" t="s">
@@ -17105,31 +17156,31 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D10" s="31"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="17" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D11" s="31"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="17" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D12" s="31"/>
+      <c r="D12" s="32"/>
       <c r="E12" s="17" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="32"/>
+      <c r="D13" s="33"/>
       <c r="E13" s="18" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="31" t="s">
         <v>169</v>
       </c>
       <c r="E14" s="17" t="s">
@@ -17137,31 +17188,31 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D15" s="31"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="17" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D16" s="31"/>
+      <c r="D16" s="32"/>
       <c r="E16" s="17" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="31"/>
+      <c r="D17" s="32"/>
       <c r="E17" s="17" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="18" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="32"/>
+      <c r="D18" s="33"/>
       <c r="E18" s="18" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="31" t="s">
         <v>175</v>
       </c>
       <c r="E19" s="17" t="s">
@@ -17169,31 +17220,31 @@
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="31"/>
+      <c r="D20" s="32"/>
       <c r="E20" s="17" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="31"/>
+      <c r="D21" s="32"/>
       <c r="E21" s="17" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D22" s="31"/>
+      <c r="D22" s="32"/>
       <c r="E22" s="17" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="23" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="32"/>
+      <c r="D23" s="33"/>
       <c r="E23" s="18" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="31" t="s">
         <v>181</v>
       </c>
       <c r="E24" s="17" t="s">
@@ -17201,31 +17252,31 @@
       </c>
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D25" s="31"/>
+      <c r="D25" s="32"/>
       <c r="E25" s="17" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="26" spans="4:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D26" s="31"/>
+      <c r="D26" s="32"/>
       <c r="E26" s="17" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="27" spans="4:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D27" s="31"/>
+      <c r="D27" s="32"/>
       <c r="E27" s="17" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="28" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="32"/>
+      <c r="D28" s="33"/>
       <c r="E28" s="18" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="29" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="31" t="s">
         <v>187</v>
       </c>
       <c r="E29" s="17" t="s">
@@ -17233,31 +17284,31 @@
       </c>
     </row>
     <row r="30" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D30" s="31"/>
+      <c r="D30" s="32"/>
       <c r="E30" s="17" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="31" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D31" s="31"/>
+      <c r="D31" s="32"/>
       <c r="E31" s="17" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="32" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D32" s="31"/>
+      <c r="D32" s="32"/>
       <c r="E32" s="17" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="33" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="32"/>
+      <c r="D33" s="33"/>
       <c r="E33" s="18" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="31" t="s">
         <v>193</v>
       </c>
       <c r="E34" s="17" t="s">
@@ -17265,31 +17316,31 @@
       </c>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D35" s="31"/>
+      <c r="D35" s="32"/>
       <c r="E35" s="17" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D36" s="31"/>
+      <c r="D36" s="32"/>
       <c r="E36" s="17" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D37" s="31"/>
+      <c r="D37" s="32"/>
       <c r="E37" s="17" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="38" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="32"/>
+      <c r="D38" s="33"/>
       <c r="E38" s="18" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D39" s="30" t="s">
+      <c r="D39" s="31" t="s">
         <v>199</v>
       </c>
       <c r="E39" s="17" t="s">
@@ -17297,25 +17348,25 @@
       </c>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D40" s="31"/>
+      <c r="D40" s="32"/>
       <c r="E40" s="17" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D41" s="31"/>
+      <c r="D41" s="32"/>
       <c r="E41" s="17" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D42" s="31"/>
+      <c r="D42" s="32"/>
       <c r="E42" s="17" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D43" s="33"/>
+      <c r="D43" s="34"/>
       <c r="E43" s="19" t="s">
         <v>204</v>
       </c>
@@ -17503,10 +17554,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17577,6 +17628,14 @@
         <v>313</v>
       </c>
     </row>
+    <row r="11" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>323</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17585,10 +17644,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17614,7 +17673,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>264</v>
       </c>
       <c r="B3" t="s">
@@ -17622,175 +17681,175 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
+      <c r="A4" s="36"/>
       <c r="B4" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
+      <c r="A5" s="36"/>
       <c r="B5" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
+      <c r="A6" s="36"/>
       <c r="B6" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="36"/>
       <c r="B7" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="36"/>
       <c r="B8" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
+      <c r="A9" s="36"/>
       <c r="B9" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="36"/>
       <c r="B10" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="36"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="36"/>
       <c r="B12" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
+      <c r="A13" s="36"/>
       <c r="B13" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
+      <c r="A14" s="36"/>
       <c r="B14" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="36"/>
       <c r="B15" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="36"/>
       <c r="B16" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
+      <c r="A17" s="36"/>
       <c r="B17" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
+      <c r="A18" s="36"/>
       <c r="B18" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
+      <c r="A19" s="36"/>
       <c r="B19" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
+      <c r="A20" s="36"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
+      <c r="A21" s="36"/>
       <c r="B21" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
+      <c r="A22" s="36"/>
       <c r="B22" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
+      <c r="A23" s="36"/>
       <c r="B23" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
+      <c r="A24" s="36"/>
       <c r="B24" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
+      <c r="A25" s="36"/>
       <c r="B25" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
+      <c r="A26" s="36"/>
       <c r="B26" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
+      <c r="A27" s="36"/>
       <c r="B27" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
+      <c r="A28" s="36"/>
       <c r="B28" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
+      <c r="A29" s="36"/>
       <c r="B29" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
+      <c r="A30" s="36"/>
       <c r="B30" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
+      <c r="A31" s="36"/>
       <c r="B31" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
+      <c r="A32" s="36"/>
       <c r="B32" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
+      <c r="A33" s="36"/>
       <c r="B33" t="s">
         <v>298</v>
       </c>
@@ -17825,6 +17884,14 @@
       </c>
       <c r="B37" s="20" t="s">
         <v>318</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="375" x14ac:dyDescent="0.25">
+      <c r="A38" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -18384,16 +18451,16 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0CD4875-B5D7-479C-B133-2226F9D0E817}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="631ec5e7-17e7-426e-82ba-75703679dd22"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="0cff0096-7bc3-4e6c-b62e-4230463993f3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/about/analytics.xlsx
+++ b/about/analytics.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="328">
   <si>
     <t>date</t>
   </si>
@@ -1604,9 +1604,6 @@
 Этот, с первого взгляда, казалось бы, скромный инструмент позволяет перераспределять и экономить рекламный бюджет. А ещё принимать решения на основе фактов и статистики, прогнозировать доходы и расходы.</t>
   </si>
   <si>
-    <t>Фирстиль</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -1666,6 +1663,28 @@
   </si>
   <si>
     <t>Маркетинг рассылки</t>
+  </si>
+  <si>
+    <t>Почта для домена</t>
+  </si>
+  <si>
+    <t>Электронная почта уже давно утратила былое величие и уступила позиции мессенджерам, и скорее служит представительским аксессуаром, показывая ваши серьёзные намерения перед клиентом.
+Если вы используете почту для бизнеса — личные адреса ни в коем случае не подходят для деловой переписки. Адрес в доменной зоне gmail.com или i.ua выглядят не профессионально. Добавим сюда тот факт, что ёмкое и короткое имя вряд ли удастся зарегистрировать. Адреса blonde95@gmail.com или oknadveri_optom@i.ua вызывают недоумение у получателя, а возможно, и сомнения, не мошенники ли перед ним.
+Я всегда рассматриваю корпоративную почту как ручку «Parker». Подпись конечно можно поставить и обычной, шариковой ручкой из ларька, но вот дорогая ручка свидетельствует об успешности и серьёзности бизнеса, и как следствие о его надёжности.
+Вывод один — для ведения бизнеса нужен корпоративный почтовый ящик. Всё что для этого необходимо — доменное имя.
+Сервисы «почта для домена» и их стоимость:
+1) G Suite – удобный сервис от google. Тарифный план от 6$/мес. за пользователя, интеграция со всеми сервисами корпорации. (https://workspace.google.com/intl/ru/pricing.html);
+2) Office365 – сервис от Microsoft. Тарифный план от 5$/мес. за пользователя. Интеграция с сервисами мелкомягких (календарь, облако, коммуникации). (https://www.microsoft.com/uk-ua/microsoft-365/business);
+3) Хостинг – Можно арендовать хостинг, и на нём развернуть свою почту. Нужны ли технические знания для этого? – Нет. На каждом уважающем себя хостинге присутствуют подробные инструкции и служба поддержки, которая проведёт за ручку.
+Преимущества такого почтового ящика:
+1)      Уникальные имена,
+2)      Собственный домен ассоциирующийся с вашей фирмой,
+3)      Повышает уровень доверия клиента.
+Как это выглядит на практике: у меня есть домен victory.net.ua. И теперь я могу создать ящики с любым названием (hello@victory.net.ua), так как в этом пространстве имён ещё ни одно не занято. Если вы продвигаете личный бренд, тогда регистрируете домен по вашей фамилии, а имя ящика по вашему имени – yevhen@tereshchenkov.com.
+Такая почта, это отличный маркетинговый инструмент и рост доверия к вам в глазах клиентов. Если же на текущий момент ваш бизнес обходится мессенджерами, стоимость владения такой почтой низкая, чтобы отказывать себе в ней.</t>
+  </si>
+  <si>
+    <t>Куки больше не нужны</t>
   </si>
 </sst>
 </file>
@@ -17554,10 +17573,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17630,10 +17649,18 @@
     </row>
     <row r="11" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>323</v>
+    </row>
+    <row r="12" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>325</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -17646,7 +17673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
@@ -17661,7 +17688,7 @@
         <v>239</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="405" x14ac:dyDescent="0.25">
@@ -17888,10 +17915,10 @@
     </row>
     <row r="38" spans="1:2" ht="375" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -17905,10 +17932,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18059,7 +18086,7 @@
         <v>257</v>
       </c>
       <c r="C15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -18069,9 +18096,6 @@
       <c r="B16" t="s">
         <v>258</v>
       </c>
-      <c r="C16" t="s">
-        <v>319</v>
-      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -18088,6 +18112,9 @@
       <c r="B18" t="s">
         <v>240</v>
       </c>
+      <c r="C18" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -18176,9 +18203,6 @@
       <c r="B29" t="s">
         <v>257</v>
       </c>
-      <c r="C29" t="s">
-        <v>267</v>
-      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -18188,7 +18212,7 @@
         <v>258</v>
       </c>
       <c r="C30" t="s">
-        <v>266</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -18207,6 +18231,21 @@
         <v>240</v>
       </c>
       <c r="C32" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
         <v>268</v>
       </c>
     </row>
@@ -18217,21 +18256,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087C054FCA5F80F4F9EF4C079A0AA953F" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="77297ee86fb36985660db17124980350">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0cff0096-7bc3-4e6c-b62e-4230463993f3" xmlns:ns4="631ec5e7-17e7-426e-82ba-75703679dd22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cd490a95223f278e161b6508da34b79d" ns3:_="" ns4:_="">
     <xsd:import namespace="0cff0096-7bc3-4e6c-b62e-4230463993f3"/>
@@ -18440,32 +18464,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F631A87-9721-48A5-8A39-9AD90FDC01C1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0CD4875-B5D7-479C-B133-2226F9D0E817}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="631ec5e7-17e7-426e-82ba-75703679dd22"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0cff0096-7bc3-4e6c-b62e-4230463993f3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53468B28-FEE4-468E-8EFA-CD74F79D0A86}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18482,4 +18496,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0CD4875-B5D7-479C-B133-2226F9D0E817}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="631ec5e7-17e7-426e-82ba-75703679dd22"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="0cff0096-7bc3-4e6c-b62e-4230463993f3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F631A87-9721-48A5-8A39-9AD90FDC01C1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/about/analytics.xlsx
+++ b/about/analytics.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="329">
   <si>
     <t>date</t>
   </si>
@@ -1685,6 +1685,22 @@
   </si>
   <si>
     <t>Куки больше не нужны</t>
+  </si>
+  <si>
+    <t>Электронная почта уже давно утратила былое величие и уступила позиции мессенджерам в повседневной переписке. Для деловой же активности корпоративный электронный ящик — мастхэв, независимо от того будете им пользоваться или нет.
+Важно помнить — личные адреса ни в коем случае не подходят для деловой переписки. Адрес в доменной зоне «gmail.com» или «i.ua» выглядят не профессионально. Добавим сюда тот факт, что ёмкое и короткое имя вряд ли удастся зарегистрировать. Адреса «blonde95@gmail.com» или «oknadveri_optom@i.ua» вызывают недоумение у получателя, а возможно, и сомнения, не мошенники ли перед ним.
+Красивый адрес корпоративной почты это как ручка «Parker». Подпись, конечно, можно поставить и обычной, шариковой ручкой из ларька, но вот дорогая ручка свидетельствует об успешности и серьёзности бизнеса, и как следствие о его надёжности.
+Вывод один — для ведения бизнеса нужен корпоративный почтовый ящик. Для этого необходимо доменное имя и немного времени. Настроить всё достаточно легко: сначала арендуем домен, затем выбираем почтовый сервис, определяемся с тарифным планом, регистрируемся, добавляем домен в настройках и создаём почтовый ящик с каким угодно именем. На каждом сервисе предоставляющем такие услуги есть пошаговые инструкции.
+Сервисы «почта для домена» которыми пользуюсь я:
+1) «Google Workspace» — удобный сервис от «Google». Тарифный план от 6$/мес. за пользователя, интеграция со всеми сервисами корпорации. (https://workspace.google.com/intl/ru/pricing.html);
+2) «Office365» — сервис от «Microsoft». Тарифный план от 5$/мес. за пользователя. Интеграция с сервисами мелкомягких (календарь, облако, коммуникации). (https://www.microsoft.com/uk-ua/microsoft-365/business);
+3) Хостинг — можно арендовать хостинг, и на нём развернуть свою почту. Нужны ли технические знания для этого? – Нет. На каждом уважающем себя хостинге присутствуют подробные инструкции и служба поддержки, которая проведёт за ручку и поможет всё настроить.
+Преимущества такого почтового ящика:
+1) Уникальные имена;
+2) Собственный домен, ассоциирующийся с вашим брендом;
+3) Повышает уровень доверия у клиента.
+Как это выглядит на практике: у меня есть домен victory.net.ua. И теперь я могу создать ящики с любым названием (hello@victory.net.ua), так как в этом пространстве имён ещё ни одно не занято. Если вы продвигаете личный бренд, тогда регистрируете домен по вашей фамилии, а имя ящика по вашему имени — «yevhen@tereshchenkov.com».
+Такая почта, это отличный маркетинговый инструмент и рост доверия к вам в глазах клиентов.</t>
   </si>
 </sst>
 </file>
@@ -17671,10 +17687,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17919,6 +17935,14 @@
       </c>
       <c r="B38" s="20" t="s">
         <v>323</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -18256,6 +18280,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087C054FCA5F80F4F9EF4C079A0AA953F" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="77297ee86fb36985660db17124980350">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0cff0096-7bc3-4e6c-b62e-4230463993f3" xmlns:ns4="631ec5e7-17e7-426e-82ba-75703679dd22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cd490a95223f278e161b6508da34b79d" ns3:_="" ns4:_="">
     <xsd:import namespace="0cff0096-7bc3-4e6c-b62e-4230463993f3"/>
@@ -18464,22 +18503,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F631A87-9721-48A5-8A39-9AD90FDC01C1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0CD4875-B5D7-479C-B133-2226F9D0E817}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="631ec5e7-17e7-426e-82ba-75703679dd22"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="0cff0096-7bc3-4e6c-b62e-4230463993f3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53468B28-FEE4-468E-8EFA-CD74F79D0A86}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18496,29 +18545,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0CD4875-B5D7-479C-B133-2226F9D0E817}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="631ec5e7-17e7-426e-82ba-75703679dd22"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="0cff0096-7bc3-4e6c-b62e-4230463993f3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F631A87-9721-48A5-8A39-9AD90FDC01C1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>